--- a/database_copy.xlsx
+++ b/database_copy.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7480" windowHeight="3060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Lod1_Types" sheetId="1" r:id="rId1"/>
-    <sheet name="Lod2_Veg" sheetId="9" r:id="rId2"/>
-    <sheet name="Lod2_NonVeg" sheetId="10" r:id="rId3"/>
-    <sheet name="References" sheetId="2" r:id="rId4"/>
-    <sheet name="Lod3_Emissivity" sheetId="3" r:id="rId5"/>
-    <sheet name="Lod3_OHM" sheetId="4" r:id="rId6"/>
-    <sheet name="Lod3_Albedo" sheetId="5" r:id="rId7"/>
-    <sheet name="Lod3_LAI" sheetId="6" r:id="rId8"/>
-    <sheet name="Lod3_Storage" sheetId="7" r:id="rId9"/>
-    <sheet name="Lod3_Conductance" sheetId="8" r:id="rId10"/>
+    <sheet name="References" sheetId="2" r:id="rId2"/>
+    <sheet name="Lod3_Emissivity" sheetId="3" r:id="rId3"/>
+    <sheet name="Lod3_OHM" sheetId="4" r:id="rId4"/>
+    <sheet name="Lod3_Albedo" sheetId="5" r:id="rId5"/>
+    <sheet name="Lod3_LAI" sheetId="6" r:id="rId6"/>
+    <sheet name="Lod3_Storage" sheetId="7" r:id="rId7"/>
+    <sheet name="Lod3_Conductance" sheetId="8" r:id="rId8"/>
+    <sheet name="Lod2_Veg" sheetId="9" r:id="rId9"/>
+    <sheet name="Lod2_NonVeg" sheetId="10" r:id="rId10"/>
     <sheet name="Lod3_LGP" sheetId="11" r:id="rId11"/>
     <sheet name="Lod3_Drainage" sheetId="12" r:id="rId12"/>
   </sheets>
@@ -30,11 +30,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="565">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>Author</t>
   </si>
   <si>
+    <t>Url</t>
+  </si>
+  <si>
     <t>Grass</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
     <t>Paved</t>
   </si>
   <si>
+    <t>Conductance</t>
+  </si>
+  <si>
     <t>Scandinavia</t>
   </si>
   <si>
@@ -80,6 +89,9 @@
     <t>SUEWS</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/14/Sk%C3%B6nstaholm_2012.jpg/380px-Sk%C3%B6nstaholm_2012.jpg</t>
+  </si>
+  <si>
     <t>Veg1</t>
   </si>
   <si>
@@ -149,6 +161,9 @@
     <t>CBD</t>
   </si>
   <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBQUEhgSFBQYGRgYGBkYGBgYGBgZGBkaGBkbGRgZGRgbIS4kGx0rIRoaJTclKi4xNDQ0GiM6Pzo1Pi0zNDEBCwsLEA8QHxISHTMqJCozMzM1MzM8MzMzMzUzMzMzMzMzMzM1MzMzMzMzMzMzMzMzMzMzMzMzMzMzMzMzMzMzM//AABEIALUBFgMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAACBAMFAAEGB//EAEMQAAIBAwMBBAYHBQYGAwEAAAECEQADIQQSMUEFIlFhBhMycYGRI0JScqGx8BRissHRU2NzgsLhBxUzQ6LxJIOSNP/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACQRAAICAgICAwEBAQEAAAAAAAABAhESIQMxIkEEMlFhgXET/9oADAMBAAIRAxEAPwDnStCVqcrWite+eSQEVoipitaK0AQEVhWpitCVpiIStCVqYrQlaAIStAVpgrQlaAIStAVqcrQlaAICtDFTlaErQNEJFCVqYrWttAyErQlamIoYoEREUJFTFaEigLIorRFSEVoikWmRkUJFSkUJFIZERQkVMVoCKkCIisIoyK1FAyMitEUZFaIqGikwK1RxWiKQ7IyKEipaEipaGmRkVlFFZUlWd8UrRSmSlCUrps5qFilCUpkpQlKdhQsUoStMlKEpRYqFytCVpgpQlKLChcrQlaYKUJSiwoXK1orTBSgK0WAuVoStWNvRlk9YDjwIzMwB8T+dLabR3LihiyLuTeJJgrgmD1iQCKzfLFGi4pCpWtbadXs9ypYPbIHgaTQkkgiCD8wQCMdOaceRPQODW2AVoStTlam0Oia9dS0vLsFB8J5Y+QEn4VbddmdWIEUJWr/tSwnrGtphF7qjEQMKxM8mZPvNU5t0ozTKlHHTFytaK1MVoStOyCErQkVMUoStKyrISKEipitCVpAmQkUJFSlaErQURkUJFSlaEipAiIrRFSEVoipZVkZFDFSRWiKQ7IiKyjIrKQ7PR9lCUpkpQlK1sgWKUJSmSlaKUWAsUoSlMlKApRYqFilCUpkpWilFhQsVoCtMlKEpTsKKrXX2t3CsKMDxPSeaVbWvMAfgate2NdbS5sdWPdWYRMyoIhjn4jwoNB2g1w7bdl2dFXChAcDbuJaMRA+NcT5ZX2dy44/g1ogSlpTwyb298YHxmf8AJVRY0iNaRmWCFU7gBjGCSR7/AJmujKeqsi5cGw90BSQxEDCd2R9r5mqPQXbb7LYUDYigqYJdwO9lbfGBAM0k2xNIh0ttCxL2lkK0KQ4BnAcZxHQZjrNbS0FZwP3efuir652eGt+s9hgTEhp5J6W4IxBE1TWxLvPIKg88x0kDFXxPyoy5F4gla6r0N7PCzqm6C4iLB52Dc2PJ458a5wJmuxt6hRoLSLAEuGyJ3Escz8PnV/Jm4x17J+NBSlspL+lG/wBYQTvJUABskDAYkyB7PB684iqftO2BcbaIBMgQwiQCR3s9avb7Kbdpe4OoBKCZPIDeQmqjtGC7AZh2HnlUYefWs+HktpG3yOOlZWFa0VpgrQlK7LOGhcrQlanK0JWgYuVoStMFK0UoChcrQFaZKUBSpGLRQlaZKUJSgBYrWitTlKArSGQlaEipitCVpMZCRWqkIrKQHqJt0Jt02UoTbp5DoVKUBSnDboSlFhQmbdCUpspQm3RkFCZShNunClAUosKEylCUpw263a0zOdqiTExj+dGVDxsqO09Pba6N6AmF8eiL4KZq39FdDb9a5CbRtHEgmWPig8KU9IgbCjUXLfdUqoG5CxYrERGBgnmrL0S1IuI1xQADt6icScx1zXnz/TtVUa9MtOgtIkZLEj2vqiOQP3q4awm26pVd3fEL9oT03A9PGuz9Krq703CdqsYx9Yrn2D1Ty6+dclphFxCrAEmJEGAw2nBxwTW3H9TOX2LE6j1hItqu3MtsHd8V9gQ3wx8qitIA7gCANv5HyFNvYRQHtgAQQ6ghi5k9/OQ0c+PvqLTkM7kEEEIZH+anxvyJ5F4mbat+ymLWntgZT6QZgkYVh4+HHiaQKU52Q+y+ngx2H3ONh/OfhW3KsotGXE8ZJlcO2DbVZ8SwWAQSQEjI8V+U0mrM8uwG5zuO3iSAP5Cl+07eQp6M6/iT/qqx2VnwwS2a88m9CxShK00UoCldFnLQqUrRSmSla2UWFCxSh2U1srRt0WKhQpQslObOnj5UBSlY6FClAUpwpQG3RYCjJQMlNlKBkosBMpQMlOMlRlKAoUK1lMFKykOj1cpQlKcNuhNussjbETKVo26bKUJSnkGImUoClPG3QFKLDESNuhNum2K7tn1omPKitJ3qMh4FXqXS2Jc7RgSZAk8CeKsOwGV2dlYHaAD/AJs/yqo9NxOkI670/i8Kl/4f6d/2d7g2rvuEexMhFUAgLtAyWxFZT5H0aLjXYj/xPuxatW/Fyx/yiB/EflU/oJvOjEiRvYLkjAVR4+M1T/8AEjcbwDbiERYYLCbncyD5wBXTehXc0FnxIdj8XaPwiom/EIKpFd6R7je27UgIikkde83J8gB8T5VzVgH1ispCncAJbackwZny5q87b1dxtRcCGe8M7yNu0BQQA/M7uRVMobeqsu+GA2Alt3PdABzPHPWrhqIPsvLzlU3vcHekBFcNnd4esnx+GfOlez0PrLk8nYxzOTunMmePzrWnZ7cLcDTBVGIYqB/ZyWGes8tAnimuzxNy5923/r8zRB7Ca0SlKk0qfSJ99f4hUzJRaZPpE++v5it3LRhiUHb1oC+4/vn/ANFOG3UfpEPp2/xm/wBFPG3Ucb8TXlWxMpQG3Tpt1GUrTIxoVNutbaaKVr1dFixFvV1pkpv1dQ6tCLbkchWI+ANLIMRUgHj9YNYbdU/YN64bsEkgrmc+Hjx04ro/VUWwpehIpQMlPG3Qm3RYYiBt0DJTxt0DW6LFiItbqJkqwNuomt0WKhApWU2bdapWFHrJShKU2UoSlYZHXiKG3QlKDX64WyQUJgAk++q+56QKvtW2HvI/pRkPCyxKUBt02QInpzVD6Q9v2tOfVPv3sgYbVkBSSvM84NPIFEUv7jcNxeQYE8QMR+vGrZFW4Fkd05g+IxB/EVwXaPpU5UpZUKOjMDIHuiJqf0Z9JktWymod2YuXBgvghREnjI486z3T2aylFtJItfSPRWmuCVeQEA2EgwSYHskcknkdK63sPTC3p0VZjJyZPeJbmPP8K867Y7as6i6Aoba2xd0bWU7jJHcJ48Ir0u1o7du2oIMIgGWbhR4THSsY2m7KlTR5N6Zax31GoAWUFxU37TANsbY38TJPzFegejlkLpLAhsWUk45Kg/zrzHtcu1t3JtQzhyUneS0mCQI65nqtesaP6OwswNiAez9lPd5VpyvSMuNbZyGtuXAbrBWYOz43gbVJkcHve7pVYblwXNx3J3wQd2QZ+0AT8ffVsNPNsXHuKyq0A+pjvHaZEpxjxqg7Vuqzd1gWJnCQOY4jAxxVx/gpd2dAiNcDbidue4xcs2SJWUAJBzOI99Q9jMf2i8skoEQqW5I3PDEwJ6ieMVTaDUBmxbIXIeYbn94JIH5+VMdraxbb3lAK77VtVAjgPcJBIAHUdOMUQ20Keosi1XpNcGoO2PVqdu2B3hOWnx8K7LQsGKOpkEqwPkSCK8pBEz/T+ld36Ca8OBZPKMGWfskifkfzroklWjCLdqzXbxPrzH9sfzSKtylVfbY+nP8AjH/RV6bdZxdJG89sTZIyaW/aLZ4cU9qk+jf7jfkaoNMLcAdcAwAV98/PpVKS9mUkPnUW/titpftnhgfdNJrpUYH2hB6iOTzxUuk0aqjTPttmSF+EgCmpRbol2OoARIM+6otdb+jf7jfwmmOz07p9/iD0qTXJ9E/3H/hNJunQ1tHnfZupFphcgmJEY8OefOuj0va6PAYAT++kzIWNm/dM+XGa53s6+UDHcqqe6xKW3OQYAV87TGYxxM4qyftFQFBt6dpCOGS3aR1JBiTbPIIEqRPuok3ZMUv06Y2qBrVS6G96y36yIksIx9ViOhI6eNTlKnIuiva1QG3T5t0DJRkKivNqo3tVYMlRslGQYlabVZTxSsoyDE9QKUJSmSlKa7UerAO2Zn8I8vOuXI6sTlvSHVOl/aoBAVTkgZkxyM1y3akvG7iTI3q0kx0Aq79JdRZbUj1jsjMgAAQnqQJPma5d+09OON7e9OPD6wrWMfZDmurO87E7c/aS6er2bEmd0z08BFct6c6C5c1iIisWNoADv9GdjlgOgJovRf0htW7j790uoRAFnJPXPHFWPbbf/Psjb/22xtzMP02e/pRTTFafRwtjsm4/sDdg5BxiZ5oH7PcGCI95/wBvI1YabTOArKMOMts3AZZfsGeOnjTFm86dxDDMG3fRzIllJ2+rxxQ0hWyq0tjZcR2MQ6sTJiAQSYivXu2tYv7NcNsF2KEKqqxLFxtAGPMV5jb0/eG4DJIJNs9T/hmu99MGnRrbAYm41tBtmftzAUkgbQSAJieKidWqNIdOzzbW6K7sRXsm2HdADsChgx2LEDvHE/8A6Neg9pN9E5kxsYeQkR4VxdrQP62yncFtb1qP+ruMOSVUsirO3vHjBBHUV2fb18Jp2LEkHapnM94HqfKlN20VxpJM5HU2lFuSWA7gX7MNvlidkbuPhVEyruIBJG4gZXOcZiKvdVqLa2whLNBkiO6d2QI3kECqIupYmNoLeHA90/hWiZLRafsH0YuCZJIWQIgROAOsipNboQ9lbzrB7qKhIyE7zMYjGQvzNaXUWtu0AsyloMZfnaSu+FMGPLxq17UC2yllsBdNbeBJANws7YUjxA/zVfx6ctmXyJOMdHGDTgOVPQkDIzmOhxj31eeipW1r7RUnaz7MwCd0KJAJ6war9b6tLi3EEgHvJ3hx03TMESJHFWmmCtctG2oEMlwHeSRDgx3jzwOOtdTSpqjlzaaaei/7dt/T/wD3H/RXQG3Vd21bm9P99/Na6H1NcGekei47KjV2/o3+438JrjdIjwIe39XLXQCcnpv+eK9C1ln6N/uP/Ca840K2ygb1hxtBnYOfAG6J6VUZWjKcS30aMxZS6dJhwynvHH/UAj509bsjbAIjeeCOuSMMfzqs02q29y02w5BffsJAkiSL0T5RVhobrm3LXGMs2S8zx13mnB+RMl4j3Z9vun73TPT3mpNdb+jf7jfwmpey71sAo9xA7N3VZhuaYAgFjOcU72hY+if7j/wmlKVSCK8Ty3sS2Cmd0teVMMF9pGzyDOPdnms1qJsBgsYt5LE7ZDbhBbyjjr0kTH2Clud7sV2OpME7tgydq4BMhes+RyQWs09xV3MuCiQd3Ak7TtBxO3girl9+yElhZ1Hoq7vYJcknecnnMHofE1cG1XP+jfa1u1p4uMZZsAd4gKiDIHA/pSvbd24htKHP/SQyCQcSO8d3Oc/Coeuy00zpzaoGs1RWXuht3fjax6uCJWB7eDk11kKAAzrMDkgdPCalv8GqZWmzUbWqsmKSe8vSMikxrbJuerFwFpiMxMT7XHShNjpCps1urI2aylmGJ3RNUnpFqigtwCdz7TtGYMZ8qXPbDHgVVds9qz6susj1qrAI5Micg+H+9YqEkdDlE5r0vYHWIQD7Ce0ZPttXFz+Vdl6TXVfWIRBEIOMe2ZxTKdlqpa21nTmEAVzbALsSe7AbukKJ3eYFdcuRRiv+HHDjyk9+zkOzD9Ig/vE/Flx+H413vadk/t9mQPYfGz/EHBtfy/25rtbTBL1hgiJvZZRECwVdRmCZJ/U1edrWiNfa+jcDY3K/f5+jH5UnPKKZcYYyaOU1lkDZj6nh4u/XZR6PS71JFl32wWKcCZiQLZ5M0BsEm2RtA2Ew/Bi6/TbkH9eFSi+6QNqEMchEUzBPMpU5a0NrZH+zBx9Hac4ifbE4ni2PHx610XbXbqahLCvttBWcd92He2IqtItPAAZuRyfKqKwrXAWVFAU/2SmOIkhKj7W0dtNpV95ZYAg4aRMhkEg5gDNDVvYW0nQ12AN2ptEXFNtSTALk7hbOYKKJjaDHiPOun9J9eBaUesZe9ukAmNoOYDrxM/AYNc76K6b6QgpnYM7CArQu9Cdiw2VxPz5q07e06esQ3AdioQyhX7xcgKJGVylYyfkdHHHxE21SGzNu4zqATtO9AW3HGXkCVkGPLpXO6+6dxkESVMFmb6oPO7rP40/quxiwLJaZVzGHaFXAcmBzjEdR51V6vs9rSgvbK8czztBZeM5PPlVqvYpIs9HqrltxcJ3GWCqWklSMoYfcAQ3PXzg1d+nn/wDdddVIVStqBkAJbQ4x+/55BoOyez3fVWAy7j6633WBIjepIMuSIHSOldB6UWC9vUAWyzftDupVAT3SAPqExGOYp8E1GVow+RByjTOQvdm6pVKC28bZI2BpjvFg+3gc4PlUPYT3PWorDducMICkkhu8YA3AdelWfZl1LltlcIjEjv3FRUMQCo+gMFTAIXHfXmTWajQ7b9oiFDXEHJ7hVxuYpatKI7scHNdT5X7SORcfr0dZ2ik3B/jfzWuiNuuf7VwxYdLk/LbU3/NbmSYMjwHv/nXCk5LR6UpKPZYaq39E/wBxj/4mvMuzNdZRVtySCwOC+OhwDJ+fXpg13Oo7WbY6kfUP8JHh+prhrdu449YH2SV2qVfcVBgEBbYBgD8KJXFbI+z0XVq2hQPbvOhkqxCXiTkiCd/6j5taTWoE2HUF33nDblaTGILE1TabtBRbK+sDHcNrFGAwTnaUPGTyJg10Po9qUa05ZwR6widrIBO0iMT0PTxpcc3kEo+JRdvFjeQ7oO2Qx3YIYkGeRkVY+j+tuv6+3ccuBauHJJyMAycnr8/kv6UX0a7bCsp7pzuPG5gBJA/RoexNSEe9le9bu5BnnpPXj8ZruflA41qRyvZGlZ7blFaS2wsFdhBXdtIVGH1Z8cUfaNkjbuG0i0hHcI3bhM4QAHp4Y5NV+nJFsnbgtG8iVBCnu8ESZnyj400ttvVMBZMrtZ3Kudo4UexCTgyTn4xSa3YJ2qG+yINi7n/tgfK9bp30hcG5bhlBFtAZUyCvIMTnypTsdGFq8rCPokPBXDPaYYMdCM9eczJf7VtltguK9tAiky5IcKdoZYRvEx5VlyNJI141bNa/UiQo1Ac5G31IXyzuGIzP6hftG9b3sUfJBB3bSMjgDbg+YPxpz0VRUv7gC+0HKs67ZV5BJRcSF+Xvg9Fr7i6d1W05Xc5LoWEyQOisYESeOIniphOugnG9MprmpU21UsdykZi2BHdB4Enjk/Gj1AtuWe2SgZohohQ0ExsUAAZHxHFP2+0bpiLjKxGyCWUkmDvLbpJJbkjAjmMx6266gAXUcnDLO4EAA/aG62eOIwetaKTshx1Z1/o9qxqLO4KV2NsMmZKqsn8ayqj0D1bLaueBfjzgT/KsrNwNlMRTXmDBwBEEgAH3/wDutaXU+t2kRIvWsFwBguTB93ziuX1HaFxy9wIqq4AIX2FyDjOOOPOptNqNQyB00+5Vibi23IAQZYsJUEck485gVUpa6CHfZeelTgaxIM91CffvYnqaV7TvXrNwi45b1oRReNrYE2Md30bJLEBuke11IwiLty5cNy5vudzkAyApjJ2cf1qKz2Eot72Zgd4U7AjCSoYGSw8c4xUTelY4qm2hnXaz1lyz/wDIF6HADC0bW2WTG3aJ8ZrptYxbtOyLiwptu2E2zi5/dnqPsn+nGNpLdsht1xmQo8bBsOZjcCYGPCr9e0Bd1dm5sUD1b4KDEi4c92Ovh4VN6RaW2xHs09603eJVMKNu0xdY95WWSDwfGBmpNXft72ZrbDcZxbSB7U/U8ardNrypQFRtCTgR9c5kA1j6kMZUrGZVwSJ7xkAJgZqdjJtA63CyZUMYEKAcZHCYNWfa8PsLKsKp3bEAICkIC0J+f+1UOmvRuIVJGZC4wOndxz5VZvcNxLYFuWCEjYhDNLqWki024xgeE9eCRsJDfYtu2h9YHkso3CTIYkE4NtfIHJkg+VSdoWVv3Tufag2gmSBKtMBth6OPzil+ztIW9jaIARtzyCVJll+jXHIPOV5oWverZti2mYFtwuhSmGAUg4O+PHoaGlZcX4h6HsxkD3bbyVgo3fZCQ8EZtwcB4nxWqfXqQzb/AGi+6SCOeYBUGJn5VdaTUW2teruBV3gBtm0FS7nvNuMABQIPQg9Jqt7Rs28m2xKyAN7JvyWOQv3cnzHjTjVik3Q/2R2w1q6lw7sOrElm4DKTyeoEZpy36XSrgqzb7juSTkKThVyI91cvZ9oAcngjkHwACyffNSF+8SFACiQCpgwJ7wJP51fHGO2zLklK6Q4va1s72FtFZnDKCqFFAMuOC4nxB/KpbnpMjnc9sSrrsCKPZVgx3Mze13RwImaHW6ywLVvbafd5hAGhGQgkZ5Knj41zEVo69GKT9noOp9OrNwODbdCW3L7Lc+ORHH41Xf8AM2AAYlSJBAIAJHjHuHPWud0tgm2zmNoYZkSGALREzBAPlxVxqNWj6fTEEhraBCNoAnncCCSeOscDFEIqOkuy5Scu30TNfuspPeKwcwcYzkDyqXSdmOQBuSSwH/SOBwWlrHv+R8YpY9rXLa7UhyVTvFEO32mdZYNJBI73lEeCv/MnaN+2ZAICKDJmYUCIEfiKnl43PvQo8ij1suU7HVQbhuL3dwICupmWH9kBzNczdYu+0YXdCyygfeLEgfOOlW+s1LJbO5IFwdwsiCQDkg7B48g1T6FZYA3Ng3AkjMR19oGaz+NBpNsvnmm0l0TahF+ruMEglwoLQzBWG1iOBBzyDzzT/Y2pCllckAq0QQDJHAJOPeeKZ7X0F17guqblxLm8I2y8d257lwBWO6epIDH63vrn3vbCVOCCQQQZB4IIrsjPWzjnF3pFj2Pc9X3/AFe7axkFVYewedyOOAen9Q9qmJtPtVY2oCUQKvcYAlj6lTPQyw+NQdkacyfo3JDzG0Om1rbDvrtMmYj40HaAYKq+r2BlQeyVG+Wk+yIPE5n54527kbpVEb0TG361N6Ai0gUqyFWO60TBgBiRJ4PXJ5qPU3WfaNpG0Qv0luOhkqFHOMHNI6HUWVtOj+23sNsZisAEQ29Qs5B7rYqdNWFUQ0gEkhYXluJK9QZn933USi60hxkr2x3sq8y3Qbls3AFPd3rwcdJnp8vkXZYtm4fWWyUyG2m/3ySJE28blB93vqpXtXZc3bg0qRJEqN3Uqy5jwihbXFUKoAzbid0ArsI+zEhiYjPjihKlsG7dovjYtsRcW0qH1gBS491VKkdBu3n2Z568Unf7Pe2gDWdzNvI27yACq7ZO4RE4kTkzPRBrjzvGzvrChF3MC0bhEjzA+NVx7TuKeuD0MZB8DNUopb2JyvSo630cV1tuGBTvkjcCpIIHjzxWVyr6pb5m4hLAe0WJJEnECAOfCt08kKhnt/tW5qLge7s3AldqptKwFXJ2rMx1kyDgTmKxduR6u205wiq7O5KkmAEz1Hw8M0v2nd3GNiLDN3kEM0n60OwgdIx5nmiusiwLZbvIC+4oe/MsF28Lgc5zUKOqSou6d2avu+1lA3Ae0yqSAMZ3FZAlgOnNNaDtLZaNoq0K2/ckgrPj0HeKwaTFsm2zqRAKhsLzGOVHj/7qfQ6QG2Xh8ZIhTOD0kcGMHyNTTfZaf4OvrFFva6WnZnkO6uXCyQFJiNo28Dx+SVjtELdFzYsDd3VEDIPQiOv4Vb6Tsi3cRYv2vZU7WI3ZBbOeRuI+FUF1AbjoAg2FlnMGDG4edThvRTdK2NaNgWWQhlQpVlJPtkkgBSOn506lzShW9YjqdxCMkIBEgzKn7Jx51Veq8CgHMAt/Mk0LaUHllGPE/rrVvgZH/srLPQspdkFueFAKzwokxtmcTQ6i9sYIwQbRBDopOe8CA9tiPl8YNIdmF0dXQAnJWSpyJUSJnkcfHinta9y45uXEIZjEnaR3RtIgDoRFTGH6XKV9Fx2Lqk7zHu7mZgEQBYOfqqmOemBA6QKy4yEsy33B3b2ABBJPWS8YJjiYFVS6i5bY7Wwc9cDyn39KlGuvFNpckCAAQD3YgQSJHFPC+gzpUxqxqbYLF7l1gdsDbu3hcBXG8QIJHXnpUWq1dtwQpdfZgFcGN0z9ITORHOJ+JaEKbiJAHdJJxkjOfDw+NVm4bjEDkjI4E4wcU6RFssdBbVrioWgHqAoPH70D8ad1elFu27W2Zp7hMJEG2WiULCfLHvqu0Zt719YwCgyZWZx7MAj8xT2v1NtrLJbyAZEAwBsMwG3EZ5yP6yotFqSaE9beZksg5hTAAz05j3D9cqORsPMwvhHOf5VJqj3bfjtn4Hj9f+zCx7p+6vSOvuFaRejKa2SdnLNyD9l/4TUtkM6KkGIkbQSWYQIHiYPFR9loTdAkey5yQBhCeT1xx14pjSaiNrMwGxVAC8kTJJzAf300TIl0NoqovMqMikySpbvbSAp3DbMkGPcaElHcspRZdmGEBAksvdwox0mOgotRr96lBsC7TymZMnABIBwADjp4Ug9zJZQFE4AyRmcMRPWkru2DqqRc6ljuG9lYojMMWmByI3KrMsR4gcUelvKi7BZsbXDMGYI7gbvYJNwREiDg445ql9a5ICv0I646mDH5U3Y1FwAH16LEqJZpUHaGI2qcQAPd0oYJNMtbOtKn1Xq7TInBe2Lm4njcPXbTEkCCYE+dVWutMGS4ttUMeyiqANpwYDsZM9Y461Be1DyZfcYj27mNpie8RkxPh3unAOxduH66KMd53YAmM/WycgkR0HTkpdjtvRZLeYWiFLj6RRCErEJB9knnJ95qsNxsncZBOZM+BzTgDeoVn2ks6mQR9k89DVfOG95/OtYGM0QhiWEmff7qnnuMfMfjP9KgBEj8Z93Spifo2P7y/k365/2V6YNbQmOtOabta5bwpPswO++DiGADDIjrI8qRDVoH86yezZFz+2m44YjbCldss2Qp3NLA5J8vlzVLdOAI6kz1zGJ/XNPoiqdoYMYMlSCuV6Y599IOeKH0hRVSZLoSAxnGPLxrKismGPT4x194rKVltMsEfZDq+11O9SCQRGRtie9PXHSoLjAtJZSTJJk5JzBxzUg1/dhlRjAEsJIOZM7uTP4CoDqpJ+qG9oLgGMjE+OatysSjRbaewW01zYN8ug7gY94+ysQMmPDMUfZrxa2zyrN0wDuP2vIfMUlZ1ZWy6Axu2tjrBxkdc1LptQRZhT9SMH94kiJx/sfGkWtE2m1Q9YLXe6Ju3DoOdpBxiYnrSvaNtUuttJEiSSfE56fhW9E1s6xd77U395+SMHoTnOK12m6m4T7WBBBxznilobboJHtLt3QRs7y7nB3QOoHX5VPY1iKE3qHhCMl+ZWDmJOKrXddgMEPMcthQMQCYqMk5kfiCcZ8aQroa7NJkQ4EEAZWRvJyqk5jkwKd17sgXfc3d54G0DhyGOPE58uKrdM+0ztUxySMiPDwotRqg7ZBx7OcAkyTkGZNPoF+EbsDkY5nHPHX51NbeBlsCCe6CMALEhsg+MUSX1Z5KDGYIT6g7qnucd0AiIPUU1pbqHcURQwXBDpgxA4AiqjsmWmDoH+mSTHcbnAAgyOn59arrSjvMTEBviSGge+n9MuzUKs+yHE8cSJ6R86Rt+w/x8vtccfrpWZQxqTtCMh271Mx8Jyc8z16UD6om2UgYnM5zWa5/o7PGEI8Jz+v1gLFsck93r05MDJxM/wBKqyWMagQEkcrPvkeYNDbt7oVV52D4sYHTzFaujup5g/r9fhWkeB4+yfiCRiD5z0/qRYSVsetaBkuKLiuihxu7sHbPifFevn1qHUQHdQg2gsAQSRAMCD16UBXdJMnHWTnwmPL8KxdwXHBHTpBHl51qq6Mna2YNYAIFteCJIk8nOeuanJQwSozBIG0DgSM+YNbtXDyhaR3j3hGPGguJ6x2YsMgEzE8Cng10yck+0N6HV2kJFy0HBA2y2wrzJ3IRPtRHl5UDa20QQLLBgcEXHIjpAmMeZzNINZBB2xA6znp9o568Cm37MuW7a3chGwH3LEMvEAzBG6jd9Bqg0uBwYstMYbc5IJJMwGgmMfyqN7B2hgckbjlxjcVAzzx+PyktF7RKyASNpEnjunJAIiQOvhU964fU2hHQCIWTAGSSJnP/AJUYq6JbdWhY34thNnDbt3fIPTmfyqBhg+cnE9TUl7UOE2z3cDaYK9DG3jkzQpcO0sAJ+AgR0gVSSTE22kyGwH3YJUHltpIGPIGoHD5GSJ5AMHwqYX2AJBPiYYH3kgHzqK9eJAEnHOTHgPd1rFtfpul/CGDnn5UMHwPPhUlu27OFUSx4A5OJ/KtvbdSAQwPgQ2c4jxqSjaXCMknggSSYHhk++ofrASB5np8qO8xXutIInmoCRHnP4UpNLRUVeydYXvSMyIEzzz7qyljmsqMh4jH7S8hpyMDyGcfifnTOlvMSTMYwPAZMDyrKymil2R9oafY0TPwjoD/Oiu6P1ew7p3pu4iJHHOaysp1t/wCEp6X+gWrMrvJ68f70LttMD9YrdZRL0EXtg3GIM/yA/KhB3HNZWVIycnp0o9NqDbbiZ8yPyNZWU4jZLe1IPCgGWkgmT3fHn8a1o9UYIzgfaNZWVtH0Yy6ZJpr83Q5HRjGPA+UdfCldMki5mIUn3xOKysrL0aeyfVk7LUEiFaPLx+YxSpGD7p+c1qsqkSwis7RxINaGAfID8yK1WUkOQzdusYEmAKc1miKKnfncCeI8Mc5rKytYGUvZAL5C8CRABEgwfHOaXF9iRnkgfyrdZV2LFUWd7s8q5X1hI9wFKXdMQpO448h+utZWVVaMr8hcW2ADbzkkR8vPzq0uJFu23TiMjoM8x08K3WVnHtGs/qys1Ps/L+VauN3OMwDMnnfHE+FZWUT7YodI32X3geRiMGMGJB8QfCrE6K2FwDJzO4z7vP41lZRisUJyecl/BM6pgAQTMxkkjmJjxz+FOajs9mti41yTAjBxxx3qysoXYPSRRapNpEHmo7YBJnwJ/KtVlYT+zOmHSJLtoAwKysrKQz//2Q==</t>
+  </si>
+  <si>
     <t>Rural Town</t>
   </si>
   <si>
@@ -176,6 +191,9 @@
     <t>Urban Sprawl</t>
   </si>
   <si>
+    <t>https://996realty.com/_media/Images/Zones%20Images/CUL-DE-SAC.jpg</t>
+  </si>
+  <si>
     <t>Highrise Urban</t>
   </si>
   <si>
@@ -191,6 +209,9 @@
     <t>David Lynch</t>
   </si>
   <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQbCMZkN0E3f6xsE66ckpf-5Rl1Wwrsnp3M6g&amp;usqp=CAU</t>
+  </si>
+  <si>
     <t>Great Palace</t>
   </si>
   <si>
@@ -200,6 +221,9 @@
     <t>testyear</t>
   </si>
   <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/1/13/Buckingham_Palace_from_gardens%2C_London%2C_UK_-_Diliff_%28cropped%29.jpg</t>
+  </si>
+  <si>
     <t>Veg8</t>
   </si>
   <si>
@@ -209,9 +233,27 @@
     <t>Typical swedish wooden homes</t>
   </si>
   <si>
+    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoGBxQUExYUFBQYGBYZGh0dGhoZGiIfIB0iIB0fHBodJBsiIisiHx0oHyEfIzQjKCwuMjExHyM3PDcvOyswMS4BCwsLDw4PHBERHTsoIigyMDkwMDkyMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMP/AABEIAN8A4gMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAADBAIFBgEAB//EAE8QAAECBAQDBQUDBwgIBQUAAAECEQADITEEEkFRBSJhEzJxgZEGobHR8EJSwRQjYnKy4fEVQ1OCkpOi0gcWMzVjc8LiJCU0hLNUZKPD8v/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACwRAAICAQQBAgQHAQEAAAAAAAABAhEhAxIxQVEEEyJhccEyQlKBobHwIzP/2gAMAwEAAhEDEQA/APmc2eBzBer9ToBoza/g0J9rmIc0HW/VzaDTMIpxlqGZydgHDswG340cK8PzlOr1cim9Sb+msISoL+WuA9K94XbajP8AJoekmmblIUSQCxOg16N9AwNeHQlNUg7kCrs7Udmo3wiS5QRLyh1P9mtbXFaipel4CcAp+HzLACho4ceel3+N4IiYEukJytbK5NRdyxLFvUQgMWQXFBsAALNUBhHEzCpRL9Q9Re1X0ep2godD8ueFKALgg0JLPd/leusNKCUihA2FaklqkFyH0Gm8I4chS0sQqhcMSE7EOGf3eMPolpWWLgnQDbY+DX9bxLEyeJw3ZgFk2LtcKzEbVFhYW8hHD4d1PpqTceG/jTVrQ1jcRlAVdQSwo5J0tY94sNhHVTMoGYMWckH1NfNrfExLbEQxBmBCjLZvAF922BtSu5hEKWAnOMoFVNUm+3gB4bQ4MUoqKS9rPW++311gfZFSqNl0DBT6DvUJfd/DcT8lILgJRCSpiHLAEF2Cmd6guNQ9tTUTWs/ZcAZh40Sw91/FgXgxJJTctVyNBTZmP40ERxE4pSCQ9SLszVIPobbxN2xCs1JCXNAxtUuWYilqsfhUmG+LSD2s4vmJmzCWplBUSm7MWcOK/gniVJZAUHJVuxDFnHw6g+MNcSmAzZoNHWu5ADBRsLkUdvAGgDPoD0uWAmiQCLBg9mtezHqlhsYLLllNTchnA9Tu30+sCwyqFzX3jbS16ltRuYKpw5SoD/CH0q1fda8Q30VFXkTTMKzc3dmILA7+besOokhkuOY8rEvr6ByoWHXpEpKy6Q6dHrUhw7O43vr4RBBICVKukKLUL0ofUA+cF2XRCYpycpcEu9qVa9TvfaPTauLuA9j8QSdPdCsmUAWUsktViSCxD6Uq1DUvtB5ijTu1SK23ccx6dB4xVZIYniQQQl3Ia6WJoDS516Ve0DmS85CATYEgJ0Z61u9Pw29iXLELItTl2FO8Pe7Q1hMOHKj3lBNSxsAwYUNOml4u6QBJcoAhgWSWZ2BBDPu/mPGz8nTmNBYWY1vXXqz/AMDJADEqLh2oRdt67enlEJySpLpAVXWrh9ailXeuvnFksrp01XKkGqjvRy1Hrq9PChaGpExieYEZXcsQHdwT06tYeTOIk0fMSfmaFqUGg8IWVLcEpYEsQSS5LAiuvndzRqF2mBL8oRsI9EfJXp/3R6CkBXTpyEm1xSlD1bWtfO0ElodSiQlXXvGgs1aAN5PWjCuxEtT3JZ6+DFgTcgFPrbfqByJW7qzEANtlNT/WjSh0WKhtzdC7Fwdks7tc3aJUcgAb38diza208ISGJ7WYB9kVGlgTbd21hleCCuYGrgAlwOlW5ixG3lohUFmSBU5GA2Dm/Tyoem8JYqSkjMilKgitLk76Oa+sTxE5aVAqAAOoF+YvSoBd3+jCsydV00BI5fBtHOsNIaQ1gJaQkkXpUsR0DesWWGkrBzZUsLNWupNKD013hLAzyVVbLWzJ6ta9w9XtDnaoKw1VOw5Q51ahA9b9dZYmeSkgvmJIJommalRSpHU7b0gOJxRIz6NlSCK1JJ1Jqz16Wg8zEBOUOFTALAB/xIPT4xTT5y1liHvlYevjb3QIaVjkiYQbsVVfp4+X8Is8G/ZULEhgp827GmlQBrfrFRhApnEt2SbgmlnA2vWGcHgJikO8xNc2XLsaM9RZ3tClRVMsEzswc1LFiHqLUchxbcWrAAvIguNU+bvU2dgE0+UdncLnPyoUxBNASA9XDWqGY7DcMYcMnlCgqUpTqTQIINpjgJNjUVfUbiFjyGx+BJDZ0EjMXDMmlwH/AH7v0MbjhXs9JxCBPUjIVKXcrLstST3ZydQ7ZQATRwHOTwXBcRnQDJKXLOtkpTrzFRGUdSa6Vofo/AhLlSJaFzpLgEsJiAxUorUHCiCxU0TKXg009PPxIouI+ziUFQSEqSwPeWitSr7S0sfCkY9c3Mch5XYjxdVCSL0vuNo+k8VnyyaTZZBDHKsFtK+tI+en2fmmygzEgBabmv3qipubDrApLsqem0/hQCctQUGFHsWF70Fh7r0g05H5t1AkOpKQTRJ7SWTWznMNtdbFRwTEZMrpeoBzjwBLV6ai3WLLE8MUQ47wUpQo7BeQkuAa8rAWhqUV2S9OXgoQpVE7WYtqafg3zieImhOXMlvzcslhZ5aVEe+nSLH+Q5wcApT4ZzowB5KU6+UEXwSaq6g2VKSGU7pAT91moDoQBC3xJ9qfgzePnS85oSabEFwDZqtFgmbQAlyRp+qCaAbFvfF5gvY9c5eXOBtylgpj9osWDOaUA+1aM/jcL2M1QmUWksUn7JSADVtSH6v1i8NEtVhkkICk5iKPYbc5PlRPg4hxJ0AaltG8CfqmsLYdYIuWpq1m0Jv1H7icLHi16fXh/CM5kshPDJbwLb2Jbe7U1pCfbcyCXqkbCupJu3WgtoIcxChlU5JIBBHrbX6EJLWxSyi2U6V7yrV0GlBrrFQ4AYzfon1P+WPQoJkv+kP9lXzjsOhFTPmgmooRTcbbOQwG1LR5WFIGiv1f4daeB8DxUqlXYenk41q34waTNCmSQWALUD0YgJI112jUoX/KVMkPRJcCjDelj19IJ+WzAXKq1DbOxP4ekDnBQZKkgG7kcxetfrxieEwyphCakJuXHKHqanxgYBcyijMSCOlx402/DpHRKcp0Ju9Pdd7+hhleHKQBzhnoBtuQNn0ox6xLhcpUyYMpUtVks/RgBRz0+UKwDoSAEhKVLUVcv3nOzXqQ1HtGr4HwtUnmmLKputaS9wnQzN1WTYVrHeD8LEhlKIXNZipx+bFlJSrf7y/IQ6o0br97zt4aaXMc+rqViJ06OhfxSJEAfxPl/DzMTM0/eVv3l+Xl8TaALrtbc6kadfU+ESArff7R9X33I8BHMdoXOrdTeKvOu+5sI8CTvd7Kvuz329TEXo3hv5U+A9Y9k366Hz/eYBncr3HhT1Lk+p8ogJQuE/4RTaj32HV47l8GpdB8j62Edy1t/hOtf7R1OkKxUdysLEeSdLh/Vz84IlZbVv6o820GwgS0aMLj7J008Bf6rEoGz0N0FtK+A0gHkKVEfeHpTr+sfxgaiT971FP0fHcxACh9XyH+0epsI9loeVh+qaDXzMFBZIk+PmKnbokR4E7jxKr9T0GkczEXBoGLJ9Ej8Y8rUMetL7JH4wxWeBG481nzUfGJoS5ABDtqTQan62gZRu9L0FToPAfh0i2w4RhpKsTOPKiodqqBAAA1YsG1XlFMpjTThvdGWrqbYintNxxPDZCQlIViJlkKslIIJCh1pmG5SmoSYrPbjh0vF4eVxDDjlUkCYBcAcof9KWr82enZmMHx7ikzEzlzpneVYPRIFkv031JJ1jVf6NOOJkz1YKarNJnnKyxlCZhGXKQbJWOQnfIdI7apUjgabyyjwUvIAFav4fZHqbs+kMhQZwfX529x90Ne0HA1YefNlrJKU5VSyR30qmoSknRwnMCGDKSdKQmmWJisyboCnBoCAM2U+FCPWMpLJLRDtCjMSWTUhhagfxs3h0hefhAoBYJBvSpAzTAQwufOr0rd2akrSQBmKkkAC5cUbx/DWATO6eXlZTEhwbHu0LfvhxYFF+b/AEvQfOPR6ZhC5ua7D5R6NMAOKmMkN30mgcqobvoT4DWnSWBlAOtZylQAs1HAWTqCQKtoowNGJK1sMoUQ79WJfcEXF6gWg2Ys5AdJdVQpty41NPdvDA7iClXOUAgm6gxawtWw3q2sEwk1IV2colSTXWpbrUDT+MdnYggXJe9HF67PpXSmsT9nMOqavJLlpJBfbzrQJapJt1iHlAODhy1kJSCVKUwQDUhmZy3iX2cxpeFcPEhJA5lnvrFtsqP0dCq6tGDCDyJKZacqauGUtiQofdTqJfvWdhHlD6y7Xr01P2dKxzz1OkdWlofmkFJP6XqB+75RxvFvEfD8NbmBhI6eaD5U+A1uYKR0/wAPrX4nyEYcHZycFf8A+vWvxPkI6fqvpT4J01iJFK/sHy8thHW2/Zr1HjudIQzgT9Zvc++58okT1/xH4bbC5jz+m2Whb/pHvjhLVf1T7z8AIAJN1H9o66/rH3COgU93ePoOvX6HD4mle7b/ALj9deD65bdB1+tKAEQfP+satp4Df6PmPj/WLeP6ojrhq5dqD0SPnHC1yU7UFz90Vt9bwCPNt6lX+I9On0IhyzOBcOr1UfrUx1QGuU70vsBsPrd/BKd0XrS528B9awxM8E+I/rWGqj1iQTYgNSjqNBufGOFI/RvVhc7XsPrWDYXC51AAA1GbKKk6AfXWwMNZdIJNJWxvg/D86goulKdbsHZ2P2iaAb6HKYouPcWk42YqUyuwlLSiXkUwJyrdT6pABAOvMr7VGP8ASH7QDDSRhJCvziw8xSfspIamzh0p/RzKuoGM57AySs5Al801CT0GRZJ/Dzju04KCo83Vm5Ow+M9npUtMqchCglRWRmUS5TlFjpV/TrFRx7AZlZ0Dmo7a9fERvfbqR2eGwSQ1UTiW6rQW8gW8oyM9IU4IoUtGc5NTs7NHTUtKn2aaTiTxLAFRD4vD0mJbmXR3Zv5wJe3fQofbjM+zC0zEr0OUkuSaMU96rtmF61F4S9nOLr4fi0zHJlqGVYF1IJq36aSAodUjeNX7Q8LRInCfJCOznJUpK0DlJUHUNWSSpMwdCB9kxpKqs43FqVGVw+DecJKVEuO0mKOqQe63U0/rG5MWnYAMMgOagUMoAs5Kqt5kUEH4bKYgpcTTqzgBwEh7k3Pn5l9HD5lGLNW//TdN3pGTbfILBVfkCvvL/ty/lHIv/wCT/wDiK/vP+yPQDwfLkFUtRIA7rVqzgEmnXzYwbDYmrF1BqjRg7ne1fI7x2fKynNQjxGuhGo8x6RySGWFIUUqDECzk0KXFqULbq2joMyYl9ogspi/duAA9XZxQE+XWm54dhE4dBlSpSi7dos3mauAH/N2ypdjcvrh0yiEkXT+sAAXG9NukdlzFTVJSAFlgkFRBIRQZQCXCQ7O+pZqxLSayEW07Rv0Yos/ZzDq4J+Pg1euke7c6ypmmn4OzDQeZeM4rgpnImAkFKJeZBNklw6dyCHIuO90eo/1aV95HoflGOzT7OrTlrTVxyb5M4n+am+QOp3e53jvbED/Zzf7NNrPYbRgP9WVfeR6H5R3/AFdmffT7/lC2aXk1r1Hg35n0fs5t9q+N79dI4Z4f/ZzbbG3rbf6EZPhPslPnJMmSAtZmIUGJoMswKJLUD5amPpHs9/o/weBl9rjJqFqPKVzF5JaSaZUvdT6w1owfBlLW1IupUUasSkfYm/2T8HoB8THE4tGgmX+4u/3iW9B9DV8Y4CqQM0qXKmS7uJSMwG5ZLEfpCm4Gua4rhhPSywRsqWQgjbmTfzcecROEIvNlw1NSfFfyA/LUbrA6oVTr3ak19Y4MdK/pCPEGl/0aqLfC7h6HiHsxiEl8PiVkfdXNUFeoofQecVEyRjh/Ozf74/5oa09OXEh7tVP8P9m1OPl2EzoOlxtUn6uHkMYj77ULdB0bU9PlGEMvGn+cnf3p/wA8RyY3+knf3p/zQe1p/q/ofuav6f4Zvk8QQ1JiRtWwr6q0p8ngnGo/pEDaqaDU371IwoGOH85O/vT/AJo7/wCO/pJ/96r/ADQ/ah+r+ifc1f0/wb2VikqKUomJKjRKQRTye/yPWLTHcQl4HCmetlLUGlptmJBDjUZmNbhAUbqY4ngeAxnYzcTMM5cuQcykqmEgskLYjMaW0b3xV+2PtErGTyvmEtLiWlTOH7xLUzFhawCRo50hpxi7WTHU1JT+FqirxuLXNmKmzFZlrJKj1PTQaAaAAR9D/wBGkmRKllc8pzomhYClIT/NLQKqIonOTrVow3CMJmOc2Fupr8Gi7RR/P4CCepTo109DdG2ar2+4hJmowyJK0q7JC0nKpCrmWx5FEB2N4yqxWOrN/AR43jCTt2dmnDZHacn4QKw85TJK0qlBJUHHN2mYdHYV6CLb2OxapmGmYKczoGaSoF2ucj6FJJID91UwUpCmFLYaeSKdpJv4TtqwTBYqgUEyyl+YEd5tn0FncecaRnSo4PUyvUaITJC5bhZcpsEEtoO+ALP9CLHDzcRMSMqyl7WVqD5DSK/iBBKipKQSAXc7gnlehIcAClDFpwqegpQAlJZ6OzsXHTS8Cowtgh+Vf0w/sj/NHosfypP9CB0zW/wx6KpBbPnE2WkgAh2diAQKO4v0Ow9KiQuYVMJZJYsSLODrTrV61vDC5SdUh9K6tWr+PQM2xgiEBOXuqLEMbW3GlmvYRdmVikrhjqdRsQHSzNrTo3vtpFjKQlKgQEAhznqwoKhmzV12iMpqkFKk35aGp+8CT1cD4VnLmAgjKxUW6tceg19DRomTbAvfZ9WaXidggMH6TAXqQ9BX3wu3wg/syAE4oN/Ntr92a2g90CIjHUXB6noX8D+oTC4ZUxaUIGZSiyQ4DlrOaRo+A+w86Yv8+FSkJajOpXRLculzaKn2d/8AVSP+dL/aTH0LD4X/AMXMV2ihVQKBMGUvLDDI/idN4NOCeWV6rXlDEeyu4/7SyOGo7CRJ7SbT82miQS7KmTD3jQ0D9WvHzzH4idipgnYuZnWO6gUly+iUW+epN41OMzK4XKmLWVqVMllTrSsBQlzAsBSaEONzBZCZMrASJysLKmrWuYg5jkNFKynMAdA1o0m3e1YMdJQjHfJW7K72Y9qp2EZI/OSQ35olsvWWr7B/RPKW+y5Ma1WAw2OQZ+FUlKx30KDMrZSboV+kmhvV3jNyOKYdakoPDpQzKSCU4hVHLO3ZdbR3geECeJiWhS5YE2cgFKqhKc7Bz3hQUUCCwcGJTwlLKHJRm3KGGsnsShUuYZczkWGdBFehDEgpOhFKaRCfhO0BJSuwrlI9XFfpoXnYyYvE4yZPzLKJvZpShSkpZAWkMjMwcSwS71MLcS4KJnEsFKMsJlrQhR5RZS5oUX+0SlKQCdwdYXsR5sleondVkryBmOUuA4fdix99PLUVjhR8I+pTsI84yxg8OZYUlIWpnYsCcnZ6EsBmrS2iPDESJ8+ZKGBllMqaqUtYSgNl1y5nYitAddoHoPo1j65VlHzsprHgn68hDXEkATpoSGSJiwBsAsgD0hdvryjCjvTtWaz2aH/lXEPBX/xiPlE/h57RKU2U3lZ/R/hH1f2d/wB1cQ/rf/GIwCU1B8P/ANXyjeM3FI4dinKV+TklASABYAfEwwmQpirKoJY1YtZOsaH2PwvaCUh8pmTwgqDvlEqYtQFWfl1eG/anhgl8Pw01YBnTZmZSmqxlLIS+zGvWDb8O4XvVNQSMidfD8Y7r5fKOfKJbRB0jGHSfyablv2sn9mef3+ED7VKUlzo50KW5np4F9GBuLtcPlA4eaoqZpsq5AFprX9d7mE1T0B6Bi5JI60JOxAuXFIbt0eX6hf8ARgJiwosSQdb73D+6nkKxa+zuOKJpKgSCGLkMCC4JLq08L6MYRCZYAKGIZ2SRyv067/CDIlE5WUG0QBXR3PuFm60YbrgxNH/LCf8A6dJ6sa/4I9GX/I+k3+8Hzj0PfIqijlAE2IBcXBFql9LFjTyjyw6gSAEpB1cWcgdQaaW2aLKXwsvVSQCRrpdRFHLPobt4xEYBaipyWLBWYGlTm6UcHSwrWNd8fJCiwM12HStWuzGrM+/h0pKRJmZnFEk7nc5aENc/CDzcIlPUl9QWG/vLPHFrW2cJJGiUilqPs3SjMbCJ3eCXgueCp5J5BqZaiWev5te+jWaFCdoN7LKUfygKSpP5lVxc9lM1/CkQ+RiNRUl/uz0/Q/gf1HfZ9bYqQT/Syv20xq8T7QJ/lROE/OBfalROUFJHYkgZs+Yb0ToOpOQ4dOCJ0tanIRMQotflUFUfwjaf6y8NVPGJVhlpngkiYUJzUTluldeWkPSlFch6uEpNNKzJcJRl4atCTMUkTkLBXL7M8yFhqLVmFHene9LjFf7rw23azPiuG+Oz8GrAlOETlSiZLSoFJB7qylyXKjU1cwrP/wB1Yb/nr/6zFSdydeCUq00mqz9inwCvzsv9dH7Qi74P/vf/ANxP/amRR4L/AGiL99P7Qi74V/vf/wBxO/amRC6+o4d/RgkJJViQADm4iU1JFD21iFJrQXLfhacflZeM4MU5ZUsU6TFi20KYORNWvF9lmzJx+Y5Hdh2oNtHIeHPaQNxrCM/+zlj/APIuNZcL6mUf/SX0+xpOJzjKOc1zTpSEgJqSuYhN7sHzE6BJjFey/G8nG8VhiEJ7VcwggqdSkLWUiqiHyFdgHMaT2v4FiJuIwc6SpTSp4VNSF5QUZ5ZKiCoAsEKDByQoiKaTwLHji3bqXNGH7UqCUzFFCgVkAFGdgAlQVZqRs2cxk+IP2s179ov9owtu31SHeJ/7ab/zF/tmFzf62Eee+T3VwjS8BU3Csd/WH+BIjCgU+v8Ahxv+Bj/ynHfrH9lMYTMyWeru3kitm031100f4Uc0MSl9TUew5U+HZTD8pVmGfLmaRNYX5ubLyh7dCYt/9IiWwWEDvz1PUSVP9dIS/wBH+GzJRMq0qepZZClEvJXLFEijZ3f5wT2+xsv8mkSErSpUpbHnSVH82oOUgkpr95jXW8a/kOav+5igLeBjw0jw/Ax56CMDuDrSo4aZlSpX56U+UPTs5/ppWKYrzEagnuksXL0FWra+nnGt9npaTKmZv6WUxex7OaH2N9f3FmbgMKQEmYVTFUClEZe8DmLBRQWBADhy1wC2sWkjy/UK5sy+DwK1IUtigBqE6FxatSSapLW1eLTDT5slCVLDuXJIqACCzNUOALGhLmsW/GMBJcoQpCitGZKAgKTZaUqCysJIIc9093Xumu4zgmlqTmzlKc9SzMTnOUEklknmLEMKDKGTyZ0qBfy9M3/wfvj0UP5BMNc8utdD72rHorb8zPJqyFaEt4H690TS41J8S3utHCpmbUtQk3fQOW6wSVUm9C1xHJYkdlK2byaCBR2hZcxlZeY7BmA6k1atnbo7iGUIY95W931iordJLyDbo8Jqcsx8oUUTABQEvKWKDWpApvFA+/X4xqMdLw80JMzGJkrlqFDKUqqFcpzAgOWB6Exo5shB/nkkAMcyVVpsXpaOvW0oqlF4Or0us9OLTR82Pyjqrf2o36uBSS9MOTeuUGpoe7+MAmezMotyS2r3Jher6ZhqfoRh7bOxerj2jO4L/wBFP/50r9hcWUz/AHVhx/8AcL+C4jxjhv5PKKAnKJhSrLmcKKHBLHMoMFbsxNCziuxmOUiSjDrcZT2jJ5kjMkl2S57qgTcijAPDWHXy+5hqa8ZLHn7AZCWWkk/aHxEWmBnAcUKgxHbzSK0LqW1a3cb31tFXMQoJJSrM1e4oWI3AOo6Bw9w4JOP7VSprXWQTXK6wSXcEZS+qiDXzTdELWUbXlFgOMz5c3FJlKlhM2apThlO6ld0mhSxoSg3BasVasXOXOz9ooqlulK0cpSOUgDLYupVidam0ezkOpJdwDcOxvVJZqAuaXuwjmFACFMQpSlKJAIZxlHMKM9bCrnwiXNtGa1mnfZcDjE9SMi561BTUUoLSRR6KCi4ULe7WDSfanFy1ZhMckOolAOpIBJ7oZqBtXJamdxK0sUlRcpUkt3hUZmDsSKC7XBy1c0maUAJC1MA50IZwE6hgKvUUIHQ3SXZXvJy3NftR2esrWtZZySpVQmpJJYE+6IrSxINxf06QwtYoEsSHplN6q7w7oIKRQXr0IJmIzi6mH3i/4n0oekZpts7tP1CnKksGp4OW4Rjf1z8Exgl/h/kja4HGJTw7FSj9okoU/eIAzJAu4DHz3EZLEraUkFADAHPqwAo/Wh9I2bwqJhNOUmu2CRMOXI5ykklL0Jdnaz9Y4LAfXcEDE4aOqp7of7X74YxJHLlDAUN9qM5oB5uxMPa26HLWhHsGnSC4bCTJg5EKUNwKetvJ4e4JgQJoUt2S5Y7kctLEVBr7ou+3QyUqLhIukgXd32pA0lyzGXqvCM/iFLkSkjLVc0LDEGiZa0b3zLBA2B2qPEzQU9okh1BiKa1D1Z23cmnm97RylzRL7NCORwUmgysBVQBUatX5kFY4BK0sUISoCyVklNraG22juKGCW3BxTnuk2xOfiRdZIAcCuUgd5Ts7VLgA16wth8ScpBSVObABQFizVBNt+tGh+ZwxS0ATA29gaU+ySHFdbqcNERhAKpMwLSwzM7eiXv8ATGHFxI4OyJpypaXRgzAszU8o7C/8mH7w9Ff5Y7BjyK2XM+aSkgACm5LvflpRtY4MSrKoEqoo1Aq2xoAGfLUgW3DrJ7zB6Mw9BcVbrAp05zzaEkFSiGyhlc/mzVsYzUQHJQdlKL5jQvUszVBp5FutWic3MSEukOQApyG89a+PpSEpJZQJA5UuasC+ofmU5L2oxMLonZlAKUKqysQ7O1yHaxYGlqOSIajkEXaeGSpyikKSUualWUAZiwF3YBNmv4tajg+JHdUFObpmgk6atFJh+HKSoqTUEcwzBhsQHceFYllX9xF9VKB1/RBbrbrDlO3nP7lU10XQ4bixUy1s1woH4H3dIVnYaeXBSsdSCQfIO4HlFemXOBfK3h8+0Hq0MSeI4hBoqYWLsVqamjDMW6RGP8yk32Gn4FeSiSARUgAP66a7Wilx2EZiSlT0IvUMSxLvoagtq7gxbjjOIasyYWfvDMahvtIS9n9XeFOMYlZlKmr3IsKkB7Je+/TpDvISaZXYfEqYjtVlLkFyQCEkscvKCKbMwZyxYMoJlqCcxCSTkdTgBOoDuGIVWt9BQzwbBJSWS6gdMzsSkEmjsB4PDEuVlBJG4BABJrYNQkswqWDw5SyyaBYhBnBkEJCXCFAOWqWzPzBj9lgSSQRElLcVy1DDMGCqAFxZTF3SFbAu4bktYFMtbhVNaFlOCWLAJIYsq7PAQXJISEosaF1AA8rZgvKCEhmOtALz8gIpUiZMUkJKiGWQpRLaa5iLZWFPIwWXjgVAJcBlUYJSoHKCdCUukuTqCOhApIRzEtmBcZTVyH7tHDtS1PMGGxDk9m6kpbKSoJAJJrVWUGpLEF828XSYxzEKcKIS4YigIUK2yguKKJJc0OjtDciakywhSASoUKaMGI+zWmlSCyRQsRVIChRKQpRBsetaWQlzcl3JoAYnLxKMqFpmtMNTlFMzBTNdTsAAHJrtzG3AJ1waJMxOVH2kKzEyxnSCSz8wV91I1ozvqQoweFKlCZh6McgTNUFJBc3rnoWze+K1HERlzKIaxKXBocrZLmgJIcEbEVh8TElJWkirC9C4JLuASbX6eWacoux7xteAwRSeSaCxAqGra4c26H4QghSAoAX6JHqGvdm69RA8diiBQJUoEAOooDq5R5gnN0AL2BgPatmmFrMklSQk0dnIYmpYG9bUMO5PLHdoIOKP3U1dnozkm9HBA8anqYnPxygFWASKuWAY6+W12IDlhCmIStK8zhjzjMGIJDnmBdrAJI/CIE5lJUgLIJzICTZwHc0Idi9dau4i1GLyZtsv8DLmKVkcSwRzdpyOHDdS5ANAwpWzuzuDLSkqC5Km0TMqW2dNfWKBGJIJbKARmSBdT0bR1au+28EXiWyhR5lUqWBcaM9KXZvOM3Xgrcyw4XJViF5ENmyvlJZgDWu96fOr+J9m8QEqJlAhIUSxCqV894zap5AdgGUpKNXZzTRu87apN6w5JnAuUku4FQRpUW31+blUkuAcvJLs5f3R6D5R6Bflc77/AL1fKPQU/IUQl4QTkjs1d8Aga5TTN41atnSbUKfGcMpASlRQpajlf7SjqAlrlTWq77h/TZGJmz0ZPzQksoqUE5S1EjKCCoFyNAxNYnxWZJkKM1bLmyxyc62BYizFNXa716COtQSDaKzpvYBlILCWUrd0nMplgWqpkqbwFbxX4jFOgrlpOaY5ZZUSx5Us4YhiGqfeIseDTpgmTV4olK0t+bUkBqPnCdXGZPLVsz6MxgcH20xcxKgEAgozAaCvKbEkPpRt2h0ohQnw7iMzIXStCg4INqpKszNcsbdHFYjiMXMUVMFqflUGIoLai761vF7P4WpR+wkKZsobY2ar3qat6xRgUIOVknKWCilwwAdiQzAbWcxk1m0goFgcdNLBQUgWYJNeuaobqIsV4otVxtb69YiqcFMxNgQW190R7fckn99vSOd56DKCDF0dn+mgU/FIIIykAAm9LMfrpAp5OlLkkBvH0jiplQHfrXwhBuZV4lYyqUEMEpLBrkWFXvVLhgBm0jqpy1IP85rmBBbK2gHMKkUazs0WmOwSshWkOqjDzpUsBVr/AMa7haEqlU1SSTQkqDFspZ1FyRpQNW+sWpIKYuviaMhWogEMSVE8xBDJyfZPMA+gUYFiJmVKZys+UBlHMCFlQCK2ygNmyHNRZNGIiYXiEiY5VLDFKAQAxDBN3JcAczv3mYmvcPhc8shKU5UpRkCy/Zk5krmMUsSVBRAJ+zRswi6UciaAoxiFOp1ukDMVJUxILlLAh9bitTumIrmTVS1TJalkTEgJSARRwkA5crEkpZRdwDpFhxKWoSyVqDh+ZLhzmK0p5jlJoWoFAesB4lRLlJKn5UpptnDvloC+zgN3YUZIQOVOUJXaKdOqs9FUoSElgHyvvXWwlhMWVu2aWcwC6AqD/aCdzRrPYA0gHHJoSkpUlSRYpqCNMzEEBylg9mDMzQDhM5Il5JSe0JNc5yM9A7K2atnfdzSjcbCrLNM4ijjvHvAg2GQGjUqejjcwGZikySksnJQMlyquuV9HO9hQFoIKUExISGGQZaEgMA4YqFTUF60sIqsfjFIHadmuhIBmVA0qGBehGUszPpCjG3QUWyp5y8gKncsCg1YnmClJV8gAzgV5KkLUlMxKqqIWRlJoauNNPs23YPFXxDDqniTnWnNkOjZgVs4pa21xSLBfDlJly5ZmTMt1pFSHASCGqPCwBL2itqXeS4xaJYmaiYwSXs9CE6ZQCbEmtdqUj2DnhM0lRACCpNGZ7F8xZug0b+tzhKEzFTFlQCAsJSAzkJL60DgtrHZnDEodSdbhRLG4drOXts8LFOIOD5Hw4oFAggnKVIalfs+LUV+1EJS0rlghAKgS71KcqspdAGYixZy/ugvAuFLRLKFZTzZgrIQhiHy8zOASavVgIbRwkoSH/OKSSQvKE1U1WDuWHeNWiNj6JoUmzHcgd4jVLCgNwylAh72NqF4OkEpXnlqcE5OUuXo5YuQBe9AQ2kHkSpcsh8pXRnuk5izMNTWuredlLxqGVypDFsytSS1GNnfSBaaayNIp+wP/ABP7P/ZHYP8AyvM+4rzNf4x6NNgbUV2Bx2HM8zVYhKJplqkmWrlAqD3iCCpxoRp1gfG+Ccq1BSAhQGeYUklKQxccxzGgoGjM8Nl9oUFSQszJgRkIaiiXqHZINXZxkIsKaLE8JTKSsFapctYQhScxyIBHOohRyvlIFqKG2ZuhoY1wfDIRJly5SklWYlRp+cqSVZ7KDEA/q7AR6QS6y1yxJAsAcoK+j+QeF18MmSgqUmW8qWkAzVKlKJQ4UkBKVscwIroH3pTIxasRNMhE1pTDlIHOzEgqNgK1Gj3iasDQY5eImyk9mhipIKCVJGV2KVXoxrYxCViQEZpjZ099m7zvMSkCj5n5RV23oaepXaMsLUAFFKk5V2DM+aiXcNo5axgfshIZU95HKZhUCZYLOlgxqzHb5CF0MfxGG7GWCteZRPcAHKSe5Srp7r6kUaI1ZxYUru37or/bnFImmRJRMSpRmpSoBYLABjQE5Q6qe4Q1xbiEuRJoUJCU/m5YYEto1+lGub1jOekm8E0E7NxoALwWSgpqSG8oLw/iqVolqClhMyiNSl6MWLO9PEQDGzpi5gliqCVUSkkilFs9gQ1vtARm9H5jon+VqBDHwYs/zg+DKTMSSkEMbgEVSoWatzTwhGdi5JVLQmWrOubkKQkhgA5WygTlDp8Xi0kGVLqpAdNe8wHVm08BCWlJOxpsrcN7P4lWVSAez0JW6mYk1Kily/3RbWxjP4POV2ktSDLUuhWA1GFlMxAch+98S8v2lmonyVSZClYcgpmrSkFgpiMtqJISc55bxYYjj0tcsoQlS1KsopypS9y6jUt91xFuHzK2xfZmuNcHUiUT2iVlRcjsyQC2Uky0glQdyNQouaCiuKQlA5VKRnVQkhIUosLzAz/opDOVU2uZiApcuVOKUqZlAOylM6gkkVpYEWehZo5xbGGVKmKDEISWd8oIJYkgPau5Y7xSgTKMbwZnEYWevMESpi0FPOEKQolmKXTmOVjmqB+MLS+GzJag+HXLSQoJUtBmOphUkZSAxvUUoN96MZlTlSSS9wz1qfxI3udTCuE9opywEOJ6UzEhRWQxIY5QcqnVuNPOKXFIEkYjh+KWVBPZzQXJZSAtKOVlKGcAigFybOYueDcOmYxSgicQJa/ziVoYA/ZA5WJBFQ+pPK4EbPi3EVqQhMpISc3MHDBILWyuQKlm0HjFciehKsqUNmfNSlRW1iCGctcXgdPNDpFRxb2cnJLylIUscuqSHDi1Azux9Ing/ZiX+TqRMnTBPUAVqBoK1SR3lJalTWhYRYy8YldJcoApuxBIOt616veIrxKnydxZ0dJIbRgTzUPmYQheRwXDSwFCUkqSGBIqCNQSKF3Oor0hnAcQlqzFikIYOcwFKECgcCj0aAyJUsy1qnrUo5nyjMAMrlLjMyyXevRgGclxU8WJWVBTmlFN30liaEhmGhFYYiSeJEqFTcZSRRQsasaanYDxiqxuLmhSw5UknmYMxuHOhelj3fRqZMQpeYEAlQCUm5vTUUt72aI4vD9mUBdSrUJIAbKUVuXIsaWpeB8DQkVTMgxGZORCgClPeBsAQ1QT11dixhuWorGYOQom5uWzaahKj46Wp04WZVQWlJIAypQADRknMwO9Q2Z/Mu4KSQljMolsvIBlqSWIoCXbWzsIi0NpgvySXuT1rX3R6JSuFrYMmjBuV6aVJc+cdiqCzB8ImzJWJSoIJDskKpRgxGamYp9czPWH/aWdipqAlcjskJNbAEjlDh6HQP4u1luHzppWhRYhGtnvQ11JNR47PoZePE4FCCErNge6qgoC53qL0vQRruyQU+G4uVSZeElImKmBLEGinfMb2QLAH7ID7RY4XClOIkHEFKVKlzE5kkF1KnZgkb0UwHX1Rl45YmBFcoNBQFCszcqhYZbmochrQbEqSpYKjnynl5icrVc0AJF3ua3hSl0Oy4xsgPSYtqulUtwQaEWqRfyHhAOAL7ORNUrtVzM6zkCedrIS1spbMSAznygf8ppZSFTClb5XCXA1oyPfAcKhSWClgoFHAdwCO8cyWLa9IiLVDu8nuB4lGJnmYrDyylIKFdoylhVCggEUIqK7nUQz7TYCTLaamRKOZYQc6QwzKACiyasoMS1ifCGeGYbKpSAv/a5plaDQEZX8D4Gpo8C4twVU0KlzKIcZbguCaMCyjl1NtBFXkKBzilKpQADS2KcvKkMDmZIuRZzuKDVvgwliWrsMrdopyXcsxd6l2UzA6FmeBnDoK0qCEqWSEua5QSAOQuAweoHvNXJryiCCwJAIAY96pDaAPUbGBvAAcOSiesk51zQAkJQQE5cxUKEmo1/RG8D4tKnTJqTmZJftCWJZnSwU9XAD6RLEY/s5iZpHIkEbFjSr6i7Xt0EcxWJmFUxwEgqaWFAhRTyg0LXOY1NiLaJMCGFkdnKlplKVkTlGZJ5mrmOhelq1NqNBZGBQCoFgOZlMCXe5IqkN520ofYbLkBTPQqahyvmHKCva2Vy1tB5LSkLmkAzFS5S3PZpGRywISVvnygZnAIc9BCwuQ5K5UozsZKEkAGXzTFpcJAtly1AJqMoDh1DQgPcXE6alUrs1EqSEDKAUgE5iTMFE0oczGh6PY4jDskJkryFGUOPsVDnKPsizelYVwaViYJyllayCguWTzM4a7kBBc6AUh32OugfE52HklMpXaICgsJYLLMnlCS5saFIqHBasN8OmSjKAk8qUEAOnLUCpq1XJfqYjh+LzTMlJk5kpJWFKUUkrZ0lAAJIOYFTlqJDXifEZJXnLEGqFipJqCCGuCHFHps4MDdKgQU4wLQCh1ZSt1DlcZlBBBJD8rWehheU0tJUVAKKlPzZrqIDAl/7IF/UeM4uy8pQhIT3qkOapHKE1HK+hv4x0YhSUFBSCmqhl+0TbcggGgNLGJbQbbC/lJSHSoVUKu9Wct6iJ4NclBC1JZgoqU5oo8xLAsaPoO8WhLDSlTZRm9rMQkrIRYAhIYh1IJDkKDhrOxd4ZxeEnKUhQ7OVJQuXmSkqUohJe51LajUly8NYwHIpImzJnaTSCl2MqWs5QpvtkBsrmoBHi5aG8KpSQEKWo5mMwJCQCbhnsmjXcnWC8RSVTSlI5QBmWTRyRy7uwB6OK7r4yYhCitKiVFRAQGYHLTTTx+14REp5pFKOMhJssNpQZqhzSneNAakFnNaG0Fw0wzDLBfKCPn8QIlLnhcr9Igu1g4oH6U/fQwvNm0ZnGwDAU3+Q/CFLUSVGbaTB4mcEiYAoKWCAz3q+b9VzXwrAZKJpJUteW4ABzUBBDt4D1EFmMAWAHgBvvvEELJck6218CfSMnNvglzC9sreZ6iPQPIfvGPRO6XknezE4XFaHUhz6+61KWEWMhYUSSCzGm58i7CvrFNikJcVff+L/Xk8O4eYR6C9evwpWO6UeyyymSwolFU6A1c1dn3p87RIYUAkAHapf+B8zDOBlFIB1A7wrRQ6A+msEw2HzZvV/RzZy5N/hGN9IdCScKXUQHO+7PYdB7njiVKzULVv8Aw6Q8uSl2zZa11CvS2h8oH+Tixcl3s9jUve3x00Vk0QHEpiCir5SFi16ghxWoJDe6LD+WlTUBK2FnOZyAasD7nsNqRXLwjvlY1bXrfyG1YhMwCk8wYht9/o/GK3YGm0W5VmOVKhmJJ1AKS9KAkEUOjv5h/jWMyISeagSEmhUUkpBA0cuRU6pjPYSaoqBKg4Jym24pWzH60fxeJCuzVMZkHMGLh9CQ7AB7MKttCUq5KUkxnF4FKkELfICFFANC3dBa4fyJj3EuxGHUUyULIBKRkQKkjIS7OCope5vtSPEJxyBvtZWZWXqOYA6PodbXgcpCuyV2kxKyWS7EBkgtQklRza0rpBvzbLaXQ3hcAhJz5JaZ+V1LRLCeimAACQACKbeLexXEi8sTEvMWopdgLMXIsLu4FWVsHJNmG6nLhw1ailw+1vvdRCBQVKcksmqS7uXIYlq1I8vGHGTSt8iazgNMx5IUgcqlXJPdDkkgGj8uzWJj03EEuZNGIUCwJfIEFjmYJOUEULl33jkrKTmBOag9KdHF4fTkAAAJIJ+0daO1tbfKI3tu7BqxThnZywgUBl91z61duars1TZxDIJSvM7oWyhq7EDyMRRiTnKiHoA5eu1Ha4u371TKIUspbKVHKOj0u5+hBv2q7sVA8TJV2ilBIVmJcqYvRsx3dgLPDElGXvAZcwNC5PuBBvWtI4lSzYHzp9ax2Yk1BYRk5tiuuAk+e8vIScoLhyCQH7rs7NS3vicvGrysohYYJZgNXFmfasAyfqnYt8v4R4pJ2D2+fxtBvl5DIEynFLszMOpBpetYmqTTugkbuddjq3yiRSrp0arXbT6aIiQa0NjY/u8XhWyW2eUtxV3femrhm+XvEeCyxe3jt18Wjgl+Ir9X18/SOqCQ1L+n74RNAy3l4xxUurmh00iSVJDH4ghvdtA/yhiwGbpm+vhAINXc+kehftj9z3iPQwwZKbwlSVvQhy1Rozgj3eXhFtiVgrzBKUuQADWoDd4jMWT5ECjQVSXGYsAXI8U3JDfeZmPXSAplELIqbhi2hLA3cZtuhjq32smrGQoEggAhNEtWlGLMGNtfR6tyCDXQ7bingXo27wgTy6ULUG+73IPwHjBEzCU1DjUClH9NXiO75AalkEAqLFqUvpuRSlYlMkp25gz012axL1gUopYOKUYkm1GcCrDK7PDSG7pcqJe+o8aWL39YkFkAsAF3LMX3d6tvb6aITJ6iDllmgduj1o30Ibw8vOsIBa9TWzab6tb3wHGgS1MCTmcACgoHqCGbpW0FXlj4E81WIDkVYa1F9H6au8dKVA8poBYW0AZgb6j50cElOWxIGx8NzpSBzZLkGugAzFmfwaz6fhD6slrsIiwUWLkNprf08fxgoy7O1amm9A3TbxgeKTypJev2Q29egok+sLJeiLqID67PejZvc20S1Ymx6SxVlTd9raliQK9eh6ROgfXfVqlh4uPdAFIXLJFHBq250sHbf6DAxCkrypq7AAlrsDX0PkYNvTGn0zzgdDao3FWHXoRZvCcvN90+hb9r3/OFpWMVlGY0cfub0Pp4CDflAU5KlHeurOoxnQtwYAkOw9BZreFIkZVDUv40r+9/oQph5r5vB/wPvjqp24B9bs7QslMOmSHu7/ePhvEZxSAC710Y63r0jmR3bMNL/X17o4jCNpf46i7Q0xOw4nJbpW1oipZ0SWPiPWIICUsSHFqk+/6/cMGtDY+W/jBiicjCH2I8/poKJiTRRqdzeBKo923ubteOKI1D7val+sIE6DLkjf8AD3Nv12gS8Mk6n1bWOyVsO6Ppz6m/nvBghROhDBh41OuzwUVaF/yYVZlAWcdd/CIpAtRuhDeHhDJAAqG8CfK3lpHly0n8fr6/AhDaFu0G316R2C9nL+6PfHIdC3H/2Q==</t>
+  </si>
+  <si>
     <t>Veg7</t>
   </si>
   <si>
+    <t>Shire</t>
+  </si>
+  <si>
+    <t>Bag End</t>
+  </si>
+  <si>
+    <t>Bilbo Baggins inherited the home from his parents, Bungo and Belladonna (Took) Baggins. It was Bungo who built the smial for Belladonna around the year TA 2889. The hobbit hole was noted to have a green door with a round brass knob, all but countless rooms with round windows, and a garden. Although hobbits were of small stature, larger visitors were commonly seen. The grounds and home were kept by the Gamgee family, most notably Hamfast ("The Gaffer") and later his son, Samwise.</t>
+  </si>
+  <si>
+    <t>First Age</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/lotr/images/e/e4/Vlcsnap-2013-05-19-19h49m07s0.png/revision/latest?cb=20130519155935</t>
+  </si>
+  <si>
     <t>Item Type</t>
   </si>
   <si>
@@ -1127,9 +1169,6 @@
     <t>Surface</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Emissivity</t>
   </si>
   <si>
@@ -1217,6 +1256,24 @@
     <t>Sundsvall, Sweden</t>
   </si>
   <si>
+    <t>Em10</t>
+  </si>
+  <si>
+    <t>Cobblestone</t>
+  </si>
+  <si>
+    <t>sweden</t>
+  </si>
+  <si>
+    <t>Em11</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
     <t>Season</t>
   </si>
   <si>
@@ -1256,12 +1313,12 @@
     <t>Metal</t>
   </si>
   <si>
-    <t>Sweden</t>
-  </si>
-  <si>
     <t>Summer</t>
   </si>
   <si>
+    <t>OHM4</t>
+  </si>
+  <si>
     <t>Alb_min</t>
   </si>
   <si>
@@ -1370,262 +1427,304 @@
     <t>R5</t>
   </si>
   <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>Cnd1</t>
+  </si>
+  <si>
+    <t>Cnd2</t>
+  </si>
+  <si>
+    <t>Cnd3</t>
+  </si>
+  <si>
+    <t>Cnd4</t>
+  </si>
+  <si>
+    <t>Alb</t>
+  </si>
+  <si>
+    <t>Em</t>
+  </si>
+  <si>
+    <t>St</t>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>OHM</t>
+  </si>
+  <si>
+    <t>Cnd</t>
+  </si>
+  <si>
+    <t>LGP</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Submitter</t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t>LGP1</t>
+  </si>
+  <si>
+    <t>Dr1</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>LGP2</t>
+  </si>
+  <si>
+    <t>Dr2</t>
+  </si>
+  <si>
+    <t>Pine</t>
+  </si>
+  <si>
+    <t>Gothenburg</t>
+  </si>
+  <si>
+    <t>LGP3</t>
+  </si>
+  <si>
+    <t>Dr3</t>
+  </si>
+  <si>
+    <t>Birch</t>
+  </si>
+  <si>
     <t>St4</t>
   </si>
   <si>
+    <t>LAI4</t>
+  </si>
+  <si>
+    <t>LGP4</t>
+  </si>
+  <si>
+    <t>Dr4</t>
+  </si>
+  <si>
+    <t>Fir</t>
+  </si>
+  <si>
+    <t>Wild</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Wisley</t>
+  </si>
+  <si>
+    <t>Larch</t>
+  </si>
+  <si>
+    <t>Elm</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Vancouver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequoia </t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Brick</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Concrete</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Asphalt</t>
+  </si>
+  <si>
+    <t>NonVeg5</t>
+  </si>
+  <si>
+    <t>NonVeg6</t>
+  </si>
+  <si>
+    <t>NonVeg7</t>
+  </si>
+  <si>
+    <t>Granite</t>
+  </si>
+  <si>
+    <t>NonVeg8</t>
+  </si>
+  <si>
+    <t>NonVeg9</t>
+  </si>
+  <si>
+    <t>LeafGrowthPower1</t>
+  </si>
+  <si>
+    <t>LeafGrowthPower2</t>
+  </si>
+  <si>
+    <t>LeafOffPower1</t>
+  </si>
+  <si>
+    <t>LeafOffPower2</t>
+  </si>
+  <si>
+    <t>Swindon, Uk</t>
+  </si>
+  <si>
     <t>R1</t>
   </si>
   <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>Cnd1</t>
-  </si>
-  <si>
-    <t>Cnd2</t>
-  </si>
-  <si>
-    <t>Cnd3</t>
-  </si>
-  <si>
-    <t>Cnd4</t>
-  </si>
-  <si>
-    <t>Alb</t>
-  </si>
-  <si>
-    <t>Em</t>
-  </si>
-  <si>
-    <t>St</t>
-  </si>
-  <si>
-    <t>LAI</t>
-  </si>
-  <si>
-    <t>OHM</t>
-  </si>
-  <si>
-    <t>Cnd</t>
-  </si>
-  <si>
-    <t>LGP</t>
-  </si>
-  <si>
-    <t>Dr</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Submitter</t>
-  </si>
-  <si>
-    <t>Basel</t>
-  </si>
-  <si>
-    <t>LGP1</t>
-  </si>
-  <si>
-    <t>Dr1</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>LGP2</t>
-  </si>
-  <si>
-    <t>Dr2</t>
-  </si>
-  <si>
-    <t>Pine</t>
-  </si>
-  <si>
-    <t>Gothenburg</t>
-  </si>
-  <si>
-    <t>LGP3</t>
-  </si>
-  <si>
-    <t>Dr3</t>
-  </si>
-  <si>
-    <t>Birch</t>
-  </si>
-  <si>
-    <t>LAI4</t>
-  </si>
-  <si>
-    <t>OHM4</t>
-  </si>
-  <si>
-    <t>LGP4</t>
-  </si>
-  <si>
-    <t>Dr4</t>
-  </si>
-  <si>
-    <t>Fir</t>
-  </si>
-  <si>
-    <t>Wild</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Wisley</t>
-  </si>
-  <si>
-    <t>Larch</t>
-  </si>
-  <si>
-    <t>Elm</t>
-  </si>
-  <si>
-    <t>Ash</t>
-  </si>
-  <si>
-    <t>Vancouver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequoia </t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>Brick</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>Concrete</t>
-  </si>
-  <si>
-    <t>Cobblestone</t>
-  </si>
-  <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Asphalt</t>
-  </si>
-  <si>
-    <t>NonVeg5</t>
+    <t>Gothenburg, Sweden</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>veg</t>
+  </si>
+  <si>
+    <t>DrainageCoef1</t>
+  </si>
+  <si>
+    <t>DrainageCoef2</t>
+  </si>
+  <si>
+    <t>DrainageEq</t>
+  </si>
+  <si>
+    <t>WetThreshold</t>
+  </si>
+  <si>
+    <t>12341wq</t>
+  </si>
+  <si>
+    <t>afsd</t>
+  </si>
+  <si>
+    <t>sdaf</t>
+  </si>
+  <si>
+    <t>dsaf</t>
+  </si>
+  <si>
+    <t>Dr5</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>dsgfds</t>
+  </si>
+  <si>
+    <t>gfdsA</t>
+  </si>
+  <si>
+    <t>Dr6</t>
+  </si>
+  <si>
+    <t>fsda</t>
+  </si>
+  <si>
+    <t>afds</t>
+  </si>
+  <si>
+    <t>dsfafds</t>
+  </si>
+  <si>
+    <t>Dr7</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>342wre</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>436534</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>London,Uk</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>RoofWall</t>
+  </si>
+  <si>
+    <t>NonVeg10</t>
+  </si>
+  <si>
+    <t>Copacabanana</t>
+  </si>
+  <si>
+    <t>NonVeg11</t>
+  </si>
+  <si>
+    <t>Skogaryd, Sweden</t>
+  </si>
+  <si>
+    <t>NonVeg12</t>
   </si>
   <si>
     <t>Sand</t>
   </si>
   <si>
-    <t>NonVeg6</t>
-  </si>
-  <si>
-    <t>NonVeg7</t>
-  </si>
-  <si>
-    <t>Granite</t>
-  </si>
-  <si>
-    <t>NonVeg8</t>
-  </si>
-  <si>
-    <t>LeafGrowthPower1</t>
-  </si>
-  <si>
-    <t>LeafGrowthPower2</t>
-  </si>
-  <si>
-    <t>LeafOffPower1</t>
-  </si>
-  <si>
-    <t>LeafOffPower2</t>
-  </si>
-  <si>
-    <t>Swindon, Uk</t>
-  </si>
-  <si>
-    <t>Gothenburg, Sweden</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>veg</t>
-  </si>
-  <si>
-    <t>DrainageCoef1</t>
-  </si>
-  <si>
-    <t>DrainageCoef2</t>
-  </si>
-  <si>
-    <t>DrainageEq</t>
-  </si>
-  <si>
-    <t>WetThreshold</t>
-  </si>
-  <si>
-    <t>NonVeg9</t>
-  </si>
-  <si>
-    <t>Conductance</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/14/Sk%C3%B6nstaholm_2012.jpg/380px-Sk%C3%B6nstaholm_2012.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/1/13/Buckingham_Palace_from_gardens%2C_London%2C_UK_-_Diliff_%28cropped%29.jpg</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQbCMZkN0E3f6xsE66ckpf-5Rl1Wwrsnp3M6g&amp;usqp=CAU</t>
-  </si>
-  <si>
-    <t>https://996realty.com/_media/Images/Zones%20Images/CUL-DE-SAC.jpg</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoHCBQUEhgSFBQYGRgYGBkYGBgYGBgZGBkaGBkbGRgZGRgbIS4kGx0rIRoaJTclKi4xNDQ0GiM6Pzo1Pi0zNDEBCwsLEA8QHxISHTMqJCozMzM1MzM8MzMzMzUzMzMzMzMzMzM1MzMzMzMzMzMzMzMzMzMzMzMzMzMzMzMzMzMzM//AABEIALUBFgMBIgACEQEDEQH/xAAbAAACAgMBAAAAAAAAAAAAAAACBAMFAAEGB//EAEMQAAIBAwMBBAYHBQYGAwEAAAECEQADIQQSMUEFIlFhBhMycYGRI0JScqGx8BRissHRU2NzgsLhBxUzQ6LxJIOSNP/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACQRAAICAgICAwEBAQEAAAAAAAABAhESIQMxIkEEMlFhgXET/9oADAMBAAIRAxEAPwDnStCVqcrWite+eSQEVoipitaK0AQEVhWpitCVpiIStCVqYrQlaAIStAVpgrQlaAIStAVqcrQlaAICtDFTlaErQNEJFCVqYrWttAyErQlamIoYoEREUJFTFaEigLIorRFSEVoikWmRkUJFSkUJFIZERQkVMVoCKkCIisIoyK1FAyMitEUZFaIqGikwK1RxWiKQ7IyKEipaEipaGmRkVlFFZUlWd8UrRSmSlCUrps5qFilCUpkpQlKdhQsUoStMlKEpRYqFytCVpgpQlKLChcrQlaYKUJSiwoXK1orTBSgK0WAuVoStWNvRlk9YDjwIzMwB8T+dLabR3LihiyLuTeJJgrgmD1iQCKzfLFGi4pCpWtbadXs9ypYPbIHgaTQkkgiCD8wQCMdOaceRPQODW2AVoStTlam0Oia9dS0vLsFB8J5Y+QEn4VbddmdWIEUJWr/tSwnrGtphF7qjEQMKxM8mZPvNU5t0ozTKlHHTFytaK1MVoStOyCErQkVMUoStKyrISKEipitCVpAmQkUJFSlaErQURkUJFSlaEipAiIrRFSEVoipZVkZFDFSRWiKQ7IiKyjIrKQ7PR9lCUpkpQlK1sgWKUJSmSlaKUWAsUoSlMlKApRYqFilCUpkpWilFhQsVoCtMlKEpTsKKrXX2t3CsKMDxPSeaVbWvMAfgate2NdbS5sdWPdWYRMyoIhjn4jwoNB2g1w7bdl2dFXChAcDbuJaMRA+NcT5ZX2dy44/g1ogSlpTwyb298YHxmf8AJVRY0iNaRmWCFU7gBjGCSR7/AJmujKeqsi5cGw90BSQxEDCd2R9r5mqPQXbb7LYUDYigqYJdwO9lbfGBAM0k2xNIh0ttCxL2lkK0KQ4BnAcZxHQZjrNbS0FZwP3efuir652eGt+s9hgTEhp5J6W4IxBE1TWxLvPIKg88x0kDFXxPyoy5F4gla6r0N7PCzqm6C4iLB52Dc2PJ458a5wJmuxt6hRoLSLAEuGyJ3Escz8PnV/Jm4x17J+NBSlspL+lG/wBYQTvJUABskDAYkyB7PB684iqftO2BcbaIBMgQwiQCR3s9avb7Kbdpe4OoBKCZPIDeQmqjtGC7AZh2HnlUYefWs+HktpG3yOOlZWFa0VpgrQlK7LOGhcrQlanK0JWgYuVoStMFK0UoChcrQFaZKUBSpGLRQlaZKUJSgBYrWitTlKArSGQlaEipitCVpMZCRWqkIrKQHqJt0Jt02UoTbp5DoVKUBSnDboSlFhQmbdCUpspQm3RkFCZShNunClAUosKEylCUpw263a0zOdqiTExj+dGVDxsqO09Pba6N6AmF8eiL4KZq39FdDb9a5CbRtHEgmWPig8KU9IgbCjUXLfdUqoG5CxYrERGBgnmrL0S1IuI1xQADt6icScx1zXnz/TtVUa9MtOgtIkZLEj2vqiOQP3q4awm26pVd3fEL9oT03A9PGuz9Krq703CdqsYx9Yrn2D1Ty6+dclphFxCrAEmJEGAw2nBxwTW3H9TOX2LE6j1hItqu3MtsHd8V9gQ3wx8qitIA7gCANv5HyFNvYRQHtgAQQ6ghi5k9/OQ0c+PvqLTkM7kEEEIZH+anxvyJ5F4mbat+ymLWntgZT6QZgkYVh4+HHiaQKU52Q+y+ngx2H3ONh/OfhW3KsotGXE8ZJlcO2DbVZ8SwWAQSQEjI8V+U0mrM8uwG5zuO3iSAP5Cl+07eQp6M6/iT/qqx2VnwwS2a88m9CxShK00UoCldFnLQqUrRSmSla2UWFCxSh2U1srRt0WKhQpQslObOnj5UBSlY6FClAUpwpQG3RYCjJQMlNlKBkosBMpQMlOMlRlKAoUK1lMFKykOj1cpQlKcNuhNussjbETKVo26bKUJSnkGImUoClPG3QFKLDESNuhNum2K7tn1omPKitJ3qMh4FXqXS2Jc7RgSZAk8CeKsOwGV2dlYHaAD/AJs/yqo9NxOkI670/i8Kl/4f6d/2d7g2rvuEexMhFUAgLtAyWxFZT5H0aLjXYj/xPuxatW/Fyx/yiB/EflU/oJvOjEiRvYLkjAVR4+M1T/8AEjcbwDbiERYYLCbncyD5wBXTehXc0FnxIdj8XaPwiom/EIKpFd6R7je27UgIikkde83J8gB8T5VzVgH1ispCncAJbackwZny5q87b1dxtRcCGe8M7yNu0BQQA/M7uRVMobeqsu+GA2Alt3PdABzPHPWrhqIPsvLzlU3vcHekBFcNnd4esnx+GfOlez0PrLk8nYxzOTunMmePzrWnZ7cLcDTBVGIYqB/ZyWGes8tAnimuzxNy5923/r8zRB7Ca0SlKk0qfSJ99f4hUzJRaZPpE++v5it3LRhiUHb1oC+4/vn/ANFOG3UfpEPp2/xm/wBFPG3Ucb8TXlWxMpQG3Tpt1GUrTIxoVNutbaaKVr1dFixFvV1pkpv1dQ6tCLbkchWI+ANLIMRUgHj9YNYbdU/YN64bsEkgrmc+Hjx04ro/VUWwpehIpQMlPG3Qm3RYYiBt0DJTxt0DW6LFiItbqJkqwNuomt0WKhApWU2bdapWFHrJShKU2UoSlYZHXiKG3QlKDX64WyQUJgAk++q+56QKvtW2HvI/pRkPCyxKUBt02QInpzVD6Q9v2tOfVPv3sgYbVkBSSvM84NPIFEUv7jcNxeQYE8QMR+vGrZFW4Fkd05g+IxB/EVwXaPpU5UpZUKOjMDIHuiJqf0Z9JktWymod2YuXBgvghREnjI486z3T2aylFtJItfSPRWmuCVeQEA2EgwSYHskcknkdK63sPTC3p0VZjJyZPeJbmPP8K867Y7as6i6Aoba2xd0bWU7jJHcJ48Ir0u1o7du2oIMIgGWbhR4THSsY2m7KlTR5N6Zax31GoAWUFxU37TANsbY38TJPzFegejlkLpLAhsWUk45Kg/zrzHtcu1t3JtQzhyUneS0mCQI65nqtesaP6OwswNiAez9lPd5VpyvSMuNbZyGtuXAbrBWYOz43gbVJkcHve7pVYblwXNx3J3wQd2QZ+0AT8ffVsNPNsXHuKyq0A+pjvHaZEpxjxqg7Vuqzd1gWJnCQOY4jAxxVx/gpd2dAiNcDbidue4xcs2SJWUAJBzOI99Q9jMf2i8skoEQqW5I3PDEwJ6ieMVTaDUBmxbIXIeYbn94JIH5+VMdraxbb3lAK77VtVAjgPcJBIAHUdOMUQ20Keosi1XpNcGoO2PVqdu2B3hOWnx8K7LQsGKOpkEqwPkSCK8pBEz/T+ld36Ca8OBZPKMGWfskifkfzroklWjCLdqzXbxPrzH9sfzSKtylVfbY+nP8AjH/RV6bdZxdJG89sTZIyaW/aLZ4cU9qk+jf7jfkaoNMLcAdcAwAV98/PpVKS9mUkPnUW/titpftnhgfdNJrpUYH2hB6iOTzxUuk0aqjTPttmSF+EgCmpRbol2OoARIM+6otdb+jf7jfwmmOz07p9/iD0qTXJ9E/3H/hNJunQ1tHnfZupFphcgmJEY8OefOuj0va6PAYAT++kzIWNm/dM+XGa53s6+UDHcqqe6xKW3OQYAV87TGYxxM4qyftFQFBt6dpCOGS3aR1JBiTbPIIEqRPuok3ZMUv06Y2qBrVS6G96y36yIksIx9ViOhI6eNTlKnIuiva1QG3T5t0DJRkKivNqo3tVYMlRslGQYlabVZTxSsoyDE9QKUJSmSlKa7UerAO2Zn8I8vOuXI6sTlvSHVOl/aoBAVTkgZkxyM1y3akvG7iTI3q0kx0Aq79JdRZbUj1jsjMgAAQnqQJPma5d+09OON7e9OPD6wrWMfZDmurO87E7c/aS6er2bEmd0z08BFct6c6C5c1iIisWNoADv9GdjlgOgJovRf0htW7j790uoRAFnJPXPHFWPbbf/Psjb/22xtzMP02e/pRTTFafRwtjsm4/sDdg5BxiZ5oH7PcGCI95/wBvI1YabTOArKMOMts3AZZfsGeOnjTFm86dxDDMG3fRzIllJ2+rxxQ0hWyq0tjZcR2MQ6sTJiAQSYivXu2tYv7NcNsF2KEKqqxLFxtAGPMV5jb0/eG4DJIJNs9T/hmu99MGnRrbAYm41tBtmftzAUkgbQSAJieKidWqNIdOzzbW6K7sRXsm2HdADsChgx2LEDvHE/8A6Neg9pN9E5kxsYeQkR4VxdrQP62yncFtb1qP+ruMOSVUsirO3vHjBBHUV2fb18Jp2LEkHapnM94HqfKlN20VxpJM5HU2lFuSWA7gX7MNvlidkbuPhVEyruIBJG4gZXOcZiKvdVqLa2whLNBkiO6d2QI3kECqIupYmNoLeHA90/hWiZLRafsH0YuCZJIWQIgROAOsipNboQ9lbzrB7qKhIyE7zMYjGQvzNaXUWtu0AsyloMZfnaSu+FMGPLxq17UC2yllsBdNbeBJANws7YUjxA/zVfx6ctmXyJOMdHGDTgOVPQkDIzmOhxj31eeipW1r7RUnaz7MwCd0KJAJ6war9b6tLi3EEgHvJ3hx03TMESJHFWmmCtctG2oEMlwHeSRDgx3jzwOOtdTSpqjlzaaaei/7dt/T/wD3H/RXQG3Vd21bm9P99/Na6H1NcGekei47KjV2/o3+438JrjdIjwIe39XLXQCcnpv+eK9C1ln6N/uP/Ca840K2ygb1hxtBnYOfAG6J6VUZWjKcS30aMxZS6dJhwynvHH/UAj509bsjbAIjeeCOuSMMfzqs02q29y02w5BffsJAkiSL0T5RVhobrm3LXGMs2S8zx13mnB+RMl4j3Z9vun73TPT3mpNdb+jf7jfwmpey71sAo9xA7N3VZhuaYAgFjOcU72hY+if7j/wmlKVSCK8Ty3sS2Cmd0teVMMF9pGzyDOPdnms1qJsBgsYt5LE7ZDbhBbyjjr0kTH2Clud7sV2OpME7tgydq4BMhes+RyQWs09xV3MuCiQd3Ak7TtBxO3girl9+yElhZ1Hoq7vYJcknecnnMHofE1cG1XP+jfa1u1p4uMZZsAd4gKiDIHA/pSvbd24htKHP/SQyCQcSO8d3Oc/Coeuy00zpzaoGs1RWXuht3fjax6uCJWB7eDk11kKAAzrMDkgdPCalv8GqZWmzUbWqsmKSe8vSMikxrbJuerFwFpiMxMT7XHShNjpCps1urI2aylmGJ3RNUnpFqigtwCdz7TtGYMZ8qXPbDHgVVds9qz6susj1qrAI5Micg+H+9YqEkdDlE5r0vYHWIQD7Ce0ZPttXFz+Vdl6TXVfWIRBEIOMe2ZxTKdlqpa21nTmEAVzbALsSe7AbukKJ3eYFdcuRRiv+HHDjyk9+zkOzD9Ig/vE/Flx+H413vadk/t9mQPYfGz/EHBtfy/25rtbTBL1hgiJvZZRECwVdRmCZJ/U1edrWiNfa+jcDY3K/f5+jH5UnPKKZcYYyaOU1lkDZj6nh4u/XZR6PS71JFl32wWKcCZiQLZ5M0BsEm2RtA2Ew/Bi6/TbkH9eFSi+6QNqEMchEUzBPMpU5a0NrZH+zBx9Hac4ifbE4ni2PHx610XbXbqahLCvttBWcd92He2IqtItPAAZuRyfKqKwrXAWVFAU/2SmOIkhKj7W0dtNpV95ZYAg4aRMhkEg5gDNDVvYW0nQ12AN2ptEXFNtSTALk7hbOYKKJjaDHiPOun9J9eBaUesZe9ukAmNoOYDrxM/AYNc76K6b6QgpnYM7CArQu9Cdiw2VxPz5q07e06esQ3AdioQyhX7xcgKJGVylYyfkdHHHxE21SGzNu4zqATtO9AW3HGXkCVkGPLpXO6+6dxkESVMFmb6oPO7rP40/quxiwLJaZVzGHaFXAcmBzjEdR51V6vs9rSgvbK8czztBZeM5PPlVqvYpIs9HqrltxcJ3GWCqWklSMoYfcAQ3PXzg1d+nn/wDdddVIVStqBkAJbQ4x+/55BoOyez3fVWAy7j6633WBIjepIMuSIHSOldB6UWC9vUAWyzftDupVAT3SAPqExGOYp8E1GVow+RByjTOQvdm6pVKC28bZI2BpjvFg+3gc4PlUPYT3PWorDducMICkkhu8YA3AdelWfZl1LltlcIjEjv3FRUMQCo+gMFTAIXHfXmTWajQ7b9oiFDXEHJ7hVxuYpatKI7scHNdT5X7SORcfr0dZ2ik3B/jfzWuiNuuf7VwxYdLk/LbU3/NbmSYMjwHv/nXCk5LR6UpKPZYaq39E/wBxj/4mvMuzNdZRVtySCwOC+OhwDJ+fXpg13Oo7WbY6kfUP8JHh+prhrdu449YH2SV2qVfcVBgEBbYBgD8KJXFbI+z0XVq2hQPbvOhkqxCXiTkiCd/6j5taTWoE2HUF33nDblaTGILE1TabtBRbK+sDHcNrFGAwTnaUPGTyJg10Po9qUa05ZwR6widrIBO0iMT0PTxpcc3kEo+JRdvFjeQ7oO2Qx3YIYkGeRkVY+j+tuv6+3ccuBauHJJyMAycnr8/kv6UX0a7bCsp7pzuPG5gBJA/RoexNSEe9le9bu5BnnpPXj8ZruflA41qRyvZGlZ7blFaS2wsFdhBXdtIVGH1Z8cUfaNkjbuG0i0hHcI3bhM4QAHp4Y5NV+nJFsnbgtG8iVBCnu8ESZnyj400ttvVMBZMrtZ3Kudo4UexCTgyTn4xSa3YJ2qG+yINi7n/tgfK9bp30hcG5bhlBFtAZUyCvIMTnypTsdGFq8rCPokPBXDPaYYMdCM9eczJf7VtltguK9tAiky5IcKdoZYRvEx5VlyNJI141bNa/UiQo1Ac5G31IXyzuGIzP6hftG9b3sUfJBB3bSMjgDbg+YPxpz0VRUv7gC+0HKs67ZV5BJRcSF+Xvg9Fr7i6d1W05Xc5LoWEyQOisYESeOIniphOugnG9MprmpU21UsdykZi2BHdB4Enjk/Gj1AtuWe2SgZohohQ0ExsUAAZHxHFP2+0bpiLjKxGyCWUkmDvLbpJJbkjAjmMx6266gAXUcnDLO4EAA/aG62eOIwetaKTshx1Z1/o9qxqLO4KV2NsMmZKqsn8ayqj0D1bLaueBfjzgT/KsrNwNlMRTXmDBwBEEgAH3/wDutaXU+t2kRIvWsFwBguTB93ziuX1HaFxy9wIqq4AIX2FyDjOOOPOptNqNQyB00+5Vibi23IAQZYsJUEck485gVUpa6CHfZeelTgaxIM91CffvYnqaV7TvXrNwi45b1oRReNrYE2Md30bJLEBuke11IwiLty5cNy5vudzkAyApjJ2cf1qKz2Eot72Zgd4U7AjCSoYGSw8c4xUTelY4qm2hnXaz1lyz/wDIF6HADC0bW2WTG3aJ8ZrptYxbtOyLiwptu2E2zi5/dnqPsn+nGNpLdsht1xmQo8bBsOZjcCYGPCr9e0Bd1dm5sUD1b4KDEi4c92Ovh4VN6RaW2xHs09603eJVMKNu0xdY95WWSDwfGBmpNXft72ZrbDcZxbSB7U/U8ardNrypQFRtCTgR9c5kA1j6kMZUrGZVwSJ7xkAJgZqdjJtA63CyZUMYEKAcZHCYNWfa8PsLKsKp3bEAICkIC0J+f+1UOmvRuIVJGZC4wOndxz5VZvcNxLYFuWCEjYhDNLqWki024xgeE9eCRsJDfYtu2h9YHkso3CTIYkE4NtfIHJkg+VSdoWVv3Tufag2gmSBKtMBth6OPzil+ztIW9jaIARtzyCVJll+jXHIPOV5oWverZti2mYFtwuhSmGAUg4O+PHoaGlZcX4h6HsxkD3bbyVgo3fZCQ8EZtwcB4nxWqfXqQzb/AGi+6SCOeYBUGJn5VdaTUW2teruBV3gBtm0FS7nvNuMABQIPQg9Jqt7Rs28m2xKyAN7JvyWOQv3cnzHjTjVik3Q/2R2w1q6lw7sOrElm4DKTyeoEZpy36XSrgqzb7juSTkKThVyI91cvZ9oAcngjkHwACyffNSF+8SFACiQCpgwJ7wJP51fHGO2zLklK6Q4va1s72FtFZnDKCqFFAMuOC4nxB/KpbnpMjnc9sSrrsCKPZVgx3Mze13RwImaHW6ywLVvbafd5hAGhGQgkZ5Knj41zEVo69GKT9noOp9OrNwODbdCW3L7Lc+ORHH41Xf8AM2AAYlSJBAIAJHjHuHPWud0tgm2zmNoYZkSGALREzBAPlxVxqNWj6fTEEhraBCNoAnncCCSeOscDFEIqOkuy5Scu30TNfuspPeKwcwcYzkDyqXSdmOQBuSSwH/SOBwWlrHv+R8YpY9rXLa7UhyVTvFEO32mdZYNJBI73lEeCv/MnaN+2ZAICKDJmYUCIEfiKnl43PvQo8ij1suU7HVQbhuL3dwICupmWH9kBzNczdYu+0YXdCyygfeLEgfOOlW+s1LJbO5IFwdwsiCQDkg7B48g1T6FZYA3Ng3AkjMR19oGaz+NBpNsvnmm0l0TahF+ruMEglwoLQzBWG1iOBBzyDzzT/Y2pCllckAq0QQDJHAJOPeeKZ7X0F17guqblxLm8I2y8d257lwBWO6epIDH63vrn3vbCVOCCQQQZB4IIrsjPWzjnF3pFj2Pc9X3/AFe7axkFVYewedyOOAen9Q9qmJtPtVY2oCUQKvcYAlj6lTPQyw+NQdkacyfo3JDzG0Om1rbDvrtMmYj40HaAYKq+r2BlQeyVG+Wk+yIPE5n54527kbpVEb0TG361N6Ai0gUqyFWO60TBgBiRJ4PXJ5qPU3WfaNpG0Qv0luOhkqFHOMHNI6HUWVtOj+23sNsZisAEQ29Qs5B7rYqdNWFUQ0gEkhYXluJK9QZn933USi60hxkr2x3sq8y3Qbls3AFPd3rwcdJnp8vkXZYtm4fWWyUyG2m/3ySJE28blB93vqpXtXZc3bg0qRJEqN3Uqy5jwihbXFUKoAzbid0ArsI+zEhiYjPjihKlsG7dovjYtsRcW0qH1gBS491VKkdBu3n2Z568Unf7Pe2gDWdzNvI27yACq7ZO4RE4kTkzPRBrjzvGzvrChF3MC0bhEjzA+NVx7TuKeuD0MZB8DNUopb2JyvSo630cV1tuGBTvkjcCpIIHjzxWVyr6pb5m4hLAe0WJJEnECAOfCt08kKhnt/tW5qLge7s3AldqptKwFXJ2rMx1kyDgTmKxduR6u205wiq7O5KkmAEz1Hw8M0v2nd3GNiLDN3kEM0n60OwgdIx5nmiusiwLZbvIC+4oe/MsF28Lgc5zUKOqSou6d2avu+1lA3Ae0yqSAMZ3FZAlgOnNNaDtLZaNoq0K2/ckgrPj0HeKwaTFsm2zqRAKhsLzGOVHj/7qfQ6QG2Xh8ZIhTOD0kcGMHyNTTfZaf4OvrFFva6WnZnkO6uXCyQFJiNo28Dx+SVjtELdFzYsDd3VEDIPQiOv4Vb6Tsi3cRYv2vZU7WI3ZBbOeRuI+FUF1AbjoAg2FlnMGDG4edThvRTdK2NaNgWWQhlQpVlJPtkkgBSOn506lzShW9YjqdxCMkIBEgzKn7Jx51Veq8CgHMAt/Mk0LaUHllGPE/rrVvgZH/srLPQspdkFueFAKzwokxtmcTQ6i9sYIwQbRBDopOe8CA9tiPl8YNIdmF0dXQAnJWSpyJUSJnkcfHinta9y45uXEIZjEnaR3RtIgDoRFTGH6XKV9Fx2Lqk7zHu7mZgEQBYOfqqmOemBA6QKy4yEsy33B3b2ABBJPWS8YJjiYFVS6i5bY7Wwc9cDyn39KlGuvFNpckCAAQD3YgQSJHFPC+gzpUxqxqbYLF7l1gdsDbu3hcBXG8QIJHXnpUWq1dtwQpdfZgFcGN0z9ITORHOJ+JaEKbiJAHdJJxkjOfDw+NVm4bjEDkjI4E4wcU6RFssdBbVrioWgHqAoPH70D8ad1elFu27W2Zp7hMJEG2WiULCfLHvqu0Zt719YwCgyZWZx7MAj8xT2v1NtrLJbyAZEAwBsMwG3EZ5yP6yotFqSaE9beZksg5hTAAz05j3D9cqORsPMwvhHOf5VJqj3bfjtn4Hj9f+zCx7p+6vSOvuFaRejKa2SdnLNyD9l/4TUtkM6KkGIkbQSWYQIHiYPFR9loTdAkey5yQBhCeT1xx14pjSaiNrMwGxVAC8kTJJzAf300TIl0NoqovMqMikySpbvbSAp3DbMkGPcaElHcspRZdmGEBAksvdwox0mOgotRr96lBsC7TymZMnABIBwADjp4Ug9zJZQFE4AyRmcMRPWkru2DqqRc6ljuG9lYojMMWmByI3KrMsR4gcUelvKi7BZsbXDMGYI7gbvYJNwREiDg445ql9a5ICv0I646mDH5U3Y1FwAH16LEqJZpUHaGI2qcQAPd0oYJNMtbOtKn1Xq7TInBe2Lm4njcPXbTEkCCYE+dVWutMGS4ttUMeyiqANpwYDsZM9Y461Be1DyZfcYj27mNpie8RkxPh3unAOxduH66KMd53YAmM/WycgkR0HTkpdjtvRZLeYWiFLj6RRCErEJB9knnJ95qsNxsncZBOZM+BzTgDeoVn2ks6mQR9k89DVfOG95/OtYGM0QhiWEmff7qnnuMfMfjP9KgBEj8Z93Spifo2P7y/k365/2V6YNbQmOtOabta5bwpPswO++DiGADDIjrI8qRDVoH86yezZFz+2m44YjbCldss2Qp3NLA5J8vlzVLdOAI6kz1zGJ/XNPoiqdoYMYMlSCuV6Y599IOeKH0hRVSZLoSAxnGPLxrKismGPT4x194rKVltMsEfZDq+11O9SCQRGRtie9PXHSoLjAtJZSTJJk5JzBxzUg1/dhlRjAEsJIOZM7uTP4CoDqpJ+qG9oLgGMjE+OatysSjRbaewW01zYN8ug7gY94+ysQMmPDMUfZrxa2zyrN0wDuP2vIfMUlZ1ZWy6Axu2tjrBxkdc1LptQRZhT9SMH94kiJx/sfGkWtE2m1Q9YLXe6Ju3DoOdpBxiYnrSvaNtUuttJEiSSfE56fhW9E1s6xd77U395+SMHoTnOK12m6m4T7WBBBxznilobboJHtLt3QRs7y7nB3QOoHX5VPY1iKE3qHhCMl+ZWDmJOKrXddgMEPMcthQMQCYqMk5kfiCcZ8aQroa7NJkQ4EEAZWRvJyqk5jkwKd17sgXfc3d54G0DhyGOPE58uKrdM+0ztUxySMiPDwotRqg7ZBx7OcAkyTkGZNPoF+EbsDkY5nHPHX51NbeBlsCCe6CMALEhsg+MUSX1Z5KDGYIT6g7qnucd0AiIPUU1pbqHcURQwXBDpgxA4AiqjsmWmDoH+mSTHcbnAAgyOn59arrSjvMTEBviSGge+n9MuzUKs+yHE8cSJ6R86Rt+w/x8vtccfrpWZQxqTtCMh271Mx8Jyc8z16UD6om2UgYnM5zWa5/o7PGEI8Jz+v1gLFsck93r05MDJxM/wBKqyWMagQEkcrPvkeYNDbt7oVV52D4sYHTzFaujup5g/r9fhWkeB4+yfiCRiD5z0/qRYSVsetaBkuKLiuihxu7sHbPifFevn1qHUQHdQg2gsAQSRAMCD16UBXdJMnHWTnwmPL8KxdwXHBHTpBHl51qq6Mna2YNYAIFteCJIk8nOeuanJQwSozBIG0DgSM+YNbtXDyhaR3j3hGPGguJ6x2YsMgEzE8Cng10yck+0N6HV2kJFy0HBA2y2wrzJ3IRPtRHl5UDa20QQLLBgcEXHIjpAmMeZzNINZBB2xA6znp9o568Cm37MuW7a3chGwH3LEMvEAzBG6jd9Bqg0uBwYstMYbc5IJJMwGgmMfyqN7B2hgckbjlxjcVAzzx+PyktF7RKyASNpEnjunJAIiQOvhU964fU2hHQCIWTAGSSJnP/AJUYq6JbdWhY34thNnDbt3fIPTmfyqBhg+cnE9TUl7UOE2z3cDaYK9DG3jkzQpcO0sAJ+AgR0gVSSTE22kyGwH3YJUHltpIGPIGoHD5GSJ5AMHwqYX2AJBPiYYH3kgHzqK9eJAEnHOTHgPd1rFtfpul/CGDnn5UMHwPPhUlu27OFUSx4A5OJ/KtvbdSAQwPgQ2c4jxqSjaXCMknggSSYHhk++ofrASB5np8qO8xXutIInmoCRHnP4UpNLRUVeydYXvSMyIEzzz7qyljmsqMh4jH7S8hpyMDyGcfifnTOlvMSTMYwPAZMDyrKymil2R9oafY0TPwjoD/Oiu6P1ew7p3pu4iJHHOaysp1t/wCEp6X+gWrMrvJ68f70LttMD9YrdZRL0EXtg3GIM/yA/KhB3HNZWVIycnp0o9NqDbbiZ8yPyNZWU4jZLe1IPCgGWkgmT3fHn8a1o9UYIzgfaNZWVtH0Yy6ZJpr83Q5HRjGPA+UdfCldMki5mIUn3xOKysrL0aeyfVk7LUEiFaPLx+YxSpGD7p+c1qsqkSwis7RxINaGAfID8yK1WUkOQzdusYEmAKc1miKKnfncCeI8Mc5rKytYGUvZAL5C8CRABEgwfHOaXF9iRnkgfyrdZV2LFUWd7s8q5X1hI9wFKXdMQpO448h+utZWVVaMr8hcW2ADbzkkR8vPzq0uJFu23TiMjoM8x08K3WVnHtGs/qys1Ps/L+VauN3OMwDMnnfHE+FZWUT7YodI32X3geRiMGMGJB8QfCrE6K2FwDJzO4z7vP41lZRisUJyecl/BM6pgAQTMxkkjmJjxz+FOajs9mti41yTAjBxxx3qysoXYPSRRapNpEHmo7YBJnwJ/KtVlYT+zOmHSJLtoAwKysrKQz//2Q==</t>
-  </si>
-  <si>
-    <t>data:image/jpeg;base64,/9j/4AAQSkZJRgABAQAAAQABAAD/2wCEAAoGBxQUExYUFBQYGBYZGh0dGhoZGiIfIB0iIB0fHBodJBsiIisiHx0oHyEfIzQjKCwuMjExHyM3PDcvOyswMS4BCwsLDw4PHBERHTsoIigyMDkwMDkyMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMP/AABEIAN8A4gMBIgACEQEDEQH/xAAbAAACAwEBAQAAAAAAAAAAAAADBAIFBgEAB//EAE8QAAECBAQDBQUDBwgIBQUAAAECEQADITEEEkFRBSJhEzJxgZEGobHR8EJSwRQjYnKy4fEVQ1OCkpOi0gcWMzVjc8LiJCU0hLNUZKPD8v/EABkBAAMBAQEAAAAAAAAAAAAAAAABAgMEBf/EACwRAAICAQQBAgQHAQEAAAAAAAABAhEhAxIxQVEEEyJhccEyQlKBobHwIzP/2gAMAwEAAhEDEQA/APmc2eBzBer9ToBoza/g0J9rmIc0HW/VzaDTMIpxlqGZydgHDswG340cK8PzlOr1cim9Sb+msISoL+WuA9K94XbajP8AJoekmmblIUSQCxOg16N9AwNeHQlNUg7kCrs7Udmo3wiS5QRLyh1P9mtbXFaipel4CcAp+HzLACho4ceel3+N4IiYEukJytbK5NRdyxLFvUQgMWQXFBsAALNUBhHEzCpRL9Q9Re1X0ep2godD8ueFKALgg0JLPd/leusNKCUihA2FaklqkFyH0Gm8I4chS0sQqhcMSE7EOGf3eMPolpWWLgnQDbY+DX9bxLEyeJw3ZgFk2LtcKzEbVFhYW8hHD4d1PpqTceG/jTVrQ1jcRlAVdQSwo5J0tY94sNhHVTMoGYMWckH1NfNrfExLbEQxBmBCjLZvAF922BtSu5hEKWAnOMoFVNUm+3gB4bQ4MUoqKS9rPW++311gfZFSqNl0DBT6DvUJfd/DcT8lILgJRCSpiHLAEF2Cmd6guNQ9tTUTWs/ZcAZh40Sw91/FgXgxJJTctVyNBTZmP40ERxE4pSCQ9SLszVIPobbxN2xCs1JCXNAxtUuWYilqsfhUmG+LSD2s4vmJmzCWplBUSm7MWcOK/gniVJZAUHJVuxDFnHw6g+MNcSmAzZoNHWu5ADBRsLkUdvAGgDPoD0uWAmiQCLBg9mtezHqlhsYLLllNTchnA9Tu30+sCwyqFzX3jbS16ltRuYKpw5SoD/CH0q1fda8Q30VFXkTTMKzc3dmILA7+besOokhkuOY8rEvr6ByoWHXpEpKy6Q6dHrUhw7O43vr4RBBICVKukKLUL0ofUA+cF2XRCYpycpcEu9qVa9TvfaPTauLuA9j8QSdPdCsmUAWUsktViSCxD6Uq1DUvtB5ijTu1SK23ccx6dB4xVZIYniQQQl3Ia6WJoDS516Ve0DmS85CATYEgJ0Z61u9Pw29iXLELItTl2FO8Pe7Q1hMOHKj3lBNSxsAwYUNOml4u6QBJcoAhgWSWZ2BBDPu/mPGz8nTmNBYWY1vXXqz/AMDJADEqLh2oRdt67enlEJySpLpAVXWrh9ailXeuvnFksrp01XKkGqjvRy1Hrq9PChaGpExieYEZXcsQHdwT06tYeTOIk0fMSfmaFqUGg8IWVLcEpYEsQSS5LAiuvndzRqF2mBL8oRsI9EfJXp/3R6CkBXTpyEm1xSlD1bWtfO0ElodSiQlXXvGgs1aAN5PWjCuxEtT3JZ6+DFgTcgFPrbfqByJW7qzEANtlNT/WjSh0WKhtzdC7Fwdks7tc3aJUcgAb38diza208ISGJ7WYB9kVGlgTbd21hleCCuYGrgAlwOlW5ixG3lohUFmSBU5GA2Dm/Tyoem8JYqSkjMilKgitLk76Oa+sTxE5aVAqAAOoF+YvSoBd3+jCsydV00BI5fBtHOsNIaQ1gJaQkkXpUsR0DesWWGkrBzZUsLNWupNKD013hLAzyVVbLWzJ6ta9w9XtDnaoKw1VOw5Q51ahA9b9dZYmeSkgvmJIJommalRSpHU7b0gOJxRIz6NlSCK1JJ1Jqz16Wg8zEBOUOFTALAB/xIPT4xTT5y1liHvlYevjb3QIaVjkiYQbsVVfp4+X8Is8G/ZULEhgp827GmlQBrfrFRhApnEt2SbgmlnA2vWGcHgJikO8xNc2XLsaM9RZ3tClRVMsEzswc1LFiHqLUchxbcWrAAvIguNU+bvU2dgE0+UdncLnPyoUxBNASA9XDWqGY7DcMYcMnlCgqUpTqTQIINpjgJNjUVfUbiFjyGx+BJDZ0EjMXDMmlwH/AH7v0MbjhXs9JxCBPUjIVKXcrLstST3ZydQ7ZQATRwHOTwXBcRnQDJKXLOtkpTrzFRGUdSa6Vofo/AhLlSJaFzpLgEsJiAxUorUHCiCxU0TKXg009PPxIouI+ziUFQSEqSwPeWitSr7S0sfCkY9c3Mch5XYjxdVCSL0vuNo+k8VnyyaTZZBDHKsFtK+tI+en2fmmygzEgBabmv3qipubDrApLsqem0/hQCctQUGFHsWF70Fh7r0g05H5t1AkOpKQTRJ7SWTWznMNtdbFRwTEZMrpeoBzjwBLV6ai3WLLE8MUQ47wUpQo7BeQkuAa8rAWhqUV2S9OXgoQpVE7WYtqafg3zieImhOXMlvzcslhZ5aVEe+nSLH+Q5wcApT4ZzowB5KU6+UEXwSaq6g2VKSGU7pAT91moDoQBC3xJ9qfgzePnS85oSabEFwDZqtFgmbQAlyRp+qCaAbFvfF5gvY9c5eXOBtylgpj9osWDOaUA+1aM/jcL2M1QmUWksUn7JSADVtSH6v1i8NEtVhkkICk5iKPYbc5PlRPg4hxJ0AaltG8CfqmsLYdYIuWpq1m0Jv1H7icLHi16fXh/CM5kshPDJbwLb2Jbe7U1pCfbcyCXqkbCupJu3WgtoIcxChlU5JIBBHrbX6EJLWxSyi2U6V7yrV0GlBrrFQ4AYzfon1P+WPQoJkv+kP9lXzjsOhFTPmgmooRTcbbOQwG1LR5WFIGiv1f4daeB8DxUqlXYenk41q34waTNCmSQWALUD0YgJI112jUoX/KVMkPRJcCjDelj19IJ+WzAXKq1DbOxP4ekDnBQZKkgG7kcxetfrxieEwyphCakJuXHKHqanxgYBcyijMSCOlx402/DpHRKcp0Ju9Pdd7+hhleHKQBzhnoBtuQNn0ox6xLhcpUyYMpUtVks/RgBRz0+UKwDoSAEhKVLUVcv3nOzXqQ1HtGr4HwtUnmmLKputaS9wnQzN1WTYVrHeD8LEhlKIXNZipx+bFlJSrf7y/IQ6o0br97zt4aaXMc+rqViJ06OhfxSJEAfxPl/DzMTM0/eVv3l+Xl8TaALrtbc6kadfU+ESArff7R9X33I8BHMdoXOrdTeKvOu+5sI8CTvd7Kvuz329TEXo3hv5U+A9Y9k366Hz/eYBncr3HhT1Lk+p8ogJQuE/4RTaj32HV47l8GpdB8j62Edy1t/hOtf7R1OkKxUdysLEeSdLh/Vz84IlZbVv6o820GwgS0aMLj7J008Bf6rEoGz0N0FtK+A0gHkKVEfeHpTr+sfxgaiT971FP0fHcxACh9XyH+0epsI9loeVh+qaDXzMFBZIk+PmKnbokR4E7jxKr9T0GkczEXBoGLJ9Ej8Y8rUMetL7JH4wxWeBG481nzUfGJoS5ABDtqTQan62gZRu9L0FToPAfh0i2w4RhpKsTOPKiodqqBAAA1YsG1XlFMpjTThvdGWrqbYintNxxPDZCQlIViJlkKslIIJCh1pmG5SmoSYrPbjh0vF4eVxDDjlUkCYBcAcof9KWr82enZmMHx7ikzEzlzpneVYPRIFkv031JJ1jVf6NOOJkz1YKarNJnnKyxlCZhGXKQbJWOQnfIdI7apUjgabyyjwUvIAFav4fZHqbs+kMhQZwfX529x90Ne0HA1YefNlrJKU5VSyR30qmoSknRwnMCGDKSdKQmmWJisyboCnBoCAM2U+FCPWMpLJLRDtCjMSWTUhhagfxs3h0hefhAoBYJBvSpAzTAQwufOr0rd2akrSQBmKkkAC5cUbx/DWATO6eXlZTEhwbHu0LfvhxYFF+b/AEvQfOPR6ZhC5ua7D5R6NMAOKmMkN30mgcqobvoT4DWnSWBlAOtZylQAs1HAWTqCQKtoowNGJK1sMoUQ79WJfcEXF6gWg2Ys5AdJdVQpty41NPdvDA7iClXOUAgm6gxawtWw3q2sEwk1IV2colSTXWpbrUDT+MdnYggXJe9HF67PpXSmsT9nMOqavJLlpJBfbzrQJapJt1iHlAODhy1kJSCVKUwQDUhmZy3iX2cxpeFcPEhJA5lnvrFtsqP0dCq6tGDCDyJKZacqauGUtiQofdTqJfvWdhHlD6y7Xr01P2dKxzz1OkdWlofmkFJP6XqB+75RxvFvEfD8NbmBhI6eaD5U+A1uYKR0/wAPrX4nyEYcHZycFf8A+vWvxPkI6fqvpT4J01iJFK/sHy8thHW2/Zr1HjudIQzgT9Zvc++58okT1/xH4bbC5jz+m2Whb/pHvjhLVf1T7z8AIAJN1H9o66/rH3COgU93ePoOvX6HD4mle7b/ALj9deD65bdB1+tKAEQfP+satp4Df6PmPj/WLeP6ojrhq5dqD0SPnHC1yU7UFz90Vt9bwCPNt6lX+I9On0IhyzOBcOr1UfrUx1QGuU70vsBsPrd/BKd0XrS528B9awxM8E+I/rWGqj1iQTYgNSjqNBufGOFI/RvVhc7XsPrWDYXC51AAA1GbKKk6AfXWwMNZdIJNJWxvg/D86goulKdbsHZ2P2iaAb6HKYouPcWk42YqUyuwlLSiXkUwJyrdT6pABAOvMr7VGP8ASH7QDDSRhJCvziw8xSfspIamzh0p/RzKuoGM57AySs5Al801CT0GRZJ/Dzju04KCo83Vm5Ow+M9npUtMqchCglRWRmUS5TlFjpV/TrFRx7AZlZ0Dmo7a9fERvfbqR2eGwSQ1UTiW6rQW8gW8oyM9IU4IoUtGc5NTs7NHTUtKn2aaTiTxLAFRD4vD0mJbmXR3Zv5wJe3fQofbjM+zC0zEr0OUkuSaMU96rtmF61F4S9nOLr4fi0zHJlqGVYF1IJq36aSAodUjeNX7Q8LRInCfJCOznJUpK0DlJUHUNWSSpMwdCB9kxpKqs43FqVGVw+DecJKVEuO0mKOqQe63U0/rG5MWnYAMMgOagUMoAs5Kqt5kUEH4bKYgpcTTqzgBwEh7k3Pn5l9HD5lGLNW//TdN3pGTbfILBVfkCvvL/ty/lHIv/wCT/wDiK/vP+yPQDwfLkFUtRIA7rVqzgEmnXzYwbDYmrF1BqjRg7ne1fI7x2fKynNQjxGuhGo8x6RySGWFIUUqDECzk0KXFqULbq2joMyYl9ogspi/duAA9XZxQE+XWm54dhE4dBlSpSi7dos3mauAH/N2ypdjcvrh0yiEkXT+sAAXG9NukdlzFTVJSAFlgkFRBIRQZQCXCQ7O+pZqxLSayEW07Rv0Yos/ZzDq4J+Pg1euke7c6ypmmn4OzDQeZeM4rgpnImAkFKJeZBNklw6dyCHIuO90eo/1aV95HoflGOzT7OrTlrTVxyb5M4n+am+QOp3e53jvbED/Zzf7NNrPYbRgP9WVfeR6H5R3/AFdmffT7/lC2aXk1r1Hg35n0fs5t9q+N79dI4Z4f/ZzbbG3rbf6EZPhPslPnJMmSAtZmIUGJoMswKJLUD5amPpHs9/o/weBl9rjJqFqPKVzF5JaSaZUvdT6w1owfBlLW1IupUUasSkfYm/2T8HoB8THE4tGgmX+4u/3iW9B9DV8Y4CqQM0qXKmS7uJSMwG5ZLEfpCm4Gua4rhhPSywRsqWQgjbmTfzcecROEIvNlw1NSfFfyA/LUbrA6oVTr3ak19Y4MdK/pCPEGl/0aqLfC7h6HiHsxiEl8PiVkfdXNUFeoofQecVEyRjh/Ozf74/5oa09OXEh7tVP8P9m1OPl2EzoOlxtUn6uHkMYj77ULdB0bU9PlGEMvGn+cnf3p/wA8RyY3+knf3p/zQe1p/q/ofuav6f4Zvk8QQ1JiRtWwr6q0p8ngnGo/pEDaqaDU371IwoGOH85O/vT/AJo7/wCO/pJ/96r/ADQ/ah+r+ifc1f0/wb2VikqKUomJKjRKQRTye/yPWLTHcQl4HCmetlLUGlptmJBDjUZmNbhAUbqY4ngeAxnYzcTMM5cuQcykqmEgskLYjMaW0b3xV+2PtErGTyvmEtLiWlTOH7xLUzFhawCRo50hpxi7WTHU1JT+FqirxuLXNmKmzFZlrJKj1PTQaAaAAR9D/wBGkmRKllc8pzomhYClIT/NLQKqIonOTrVow3CMJmOc2Fupr8Gi7RR/P4CCepTo109DdG2ar2+4hJmowyJK0q7JC0nKpCrmWx5FEB2N4yqxWOrN/AR43jCTt2dmnDZHacn4QKw85TJK0qlBJUHHN2mYdHYV6CLb2OxapmGmYKczoGaSoF2ucj6FJJID91UwUpCmFLYaeSKdpJv4TtqwTBYqgUEyyl+YEd5tn0FncecaRnSo4PUyvUaITJC5bhZcpsEEtoO+ALP9CLHDzcRMSMqyl7WVqD5DSK/iBBKipKQSAXc7gnlehIcAClDFpwqegpQAlJZ6OzsXHTS8Cowtgh+Vf0w/sj/NHosfypP9CB0zW/wx6KpBbPnE2WkgAh2diAQKO4v0Ow9KiQuYVMJZJYsSLODrTrV61vDC5SdUh9K6tWr+PQM2xgiEBOXuqLEMbW3GlmvYRdmVikrhjqdRsQHSzNrTo3vtpFjKQlKgQEAhznqwoKhmzV12iMpqkFKk35aGp+8CT1cD4VnLmAgjKxUW6tceg19DRomTbAvfZ9WaXidggMH6TAXqQ9BX3wu3wg/syAE4oN/Ntr92a2g90CIjHUXB6noX8D+oTC4ZUxaUIGZSiyQ4DlrOaRo+A+w86Yv8+FSkJajOpXRLculzaKn2d/8AVSP+dL/aTH0LD4X/AMXMV2ihVQKBMGUvLDDI/idN4NOCeWV6rXlDEeyu4/7SyOGo7CRJ7SbT82miQS7KmTD3jQ0D9WvHzzH4idipgnYuZnWO6gUly+iUW+epN41OMzK4XKmLWVqVMllTrSsBQlzAsBSaEONzBZCZMrASJysLKmrWuYg5jkNFKynMAdA1o0m3e1YMdJQjHfJW7K72Y9qp2EZI/OSQ35olsvWWr7B/RPKW+y5Ma1WAw2OQZ+FUlKx30KDMrZSboV+kmhvV3jNyOKYdakoPDpQzKSCU4hVHLO3ZdbR3geECeJiWhS5YE2cgFKqhKc7Bz3hQUUCCwcGJTwlLKHJRm3KGGsnsShUuYZczkWGdBFehDEgpOhFKaRCfhO0BJSuwrlI9XFfpoXnYyYvE4yZPzLKJvZpShSkpZAWkMjMwcSwS71MLcS4KJnEsFKMsJlrQhR5RZS5oUX+0SlKQCdwdYXsR5sleondVkryBmOUuA4fdix99PLUVjhR8I+pTsI84yxg8OZYUlIWpnYsCcnZ6EsBmrS2iPDESJ8+ZKGBllMqaqUtYSgNl1y5nYitAddoHoPo1j65VlHzsprHgn68hDXEkATpoSGSJiwBsAsgD0hdvryjCjvTtWaz2aH/lXEPBX/xiPlE/h57RKU2U3lZ/R/hH1f2d/wB1cQ/rf/GIwCU1B8P/ANXyjeM3FI4dinKV+TklASABYAfEwwmQpirKoJY1YtZOsaH2PwvaCUh8pmTwgqDvlEqYtQFWfl1eG/anhgl8Pw01YBnTZmZSmqxlLIS+zGvWDb8O4XvVNQSMidfD8Y7r5fKOfKJbRB0jGHSfyablv2sn9mef3+ED7VKUlzo50KW5np4F9GBuLtcPlA4eaoqZpsq5AFprX9d7mE1T0B6Bi5JI60JOxAuXFIbt0eX6hf8ARgJiwosSQdb73D+6nkKxa+zuOKJpKgSCGLkMCC4JLq08L6MYRCZYAKGIZ2SRyv067/CDIlE5WUG0QBXR3PuFm60YbrgxNH/LCf8A6dJ6sa/4I9GX/I+k3+8Hzj0PfIqijlAE2IBcXBFql9LFjTyjyw6gSAEpB1cWcgdQaaW2aLKXwsvVSQCRrpdRFHLPobt4xEYBaipyWLBWYGlTm6UcHSwrWNd8fJCiwM12HStWuzGrM+/h0pKRJmZnFEk7nc5aENc/CDzcIlPUl9QWG/vLPHFrW2cJJGiUilqPs3SjMbCJ3eCXgueCp5J5BqZaiWev5te+jWaFCdoN7LKUfygKSpP5lVxc9lM1/CkQ+RiNRUl/uz0/Q/gf1HfZ9bYqQT/Syv20xq8T7QJ/lROE/OBfalROUFJHYkgZs+Yb0ToOpOQ4dOCJ0tanIRMQotflUFUfwjaf6y8NVPGJVhlpngkiYUJzUTluldeWkPSlFch6uEpNNKzJcJRl4atCTMUkTkLBXL7M8yFhqLVmFHene9LjFf7rw23azPiuG+Oz8GrAlOETlSiZLSoFJB7qylyXKjU1cwrP/wB1Yb/nr/6zFSdydeCUq00mqz9inwCvzsv9dH7Qi74P/vf/ANxP/amRR4L/AGiL99P7Qi74V/vf/wBxO/amRC6+o4d/RgkJJViQADm4iU1JFD21iFJrQXLfhacflZeM4MU5ZUsU6TFi20KYORNWvF9lmzJx+Y5Hdh2oNtHIeHPaQNxrCM/+zlj/APIuNZcL6mUf/SX0+xpOJzjKOc1zTpSEgJqSuYhN7sHzE6BJjFey/G8nG8VhiEJ7VcwggqdSkLWUiqiHyFdgHMaT2v4FiJuIwc6SpTSp4VNSF5QUZ5ZKiCoAsEKDByQoiKaTwLHji3bqXNGH7UqCUzFFCgVkAFGdgAlQVZqRs2cxk+IP2s179ov9owtu31SHeJ/7ab/zF/tmFzf62Eee+T3VwjS8BU3Csd/WH+BIjCgU+v8Ahxv+Bj/ynHfrH9lMYTMyWeru3kitm031100f4Uc0MSl9TUew5U+HZTD8pVmGfLmaRNYX5ubLyh7dCYt/9IiWwWEDvz1PUSVP9dIS/wBH+GzJRMq0qepZZClEvJXLFEijZ3f5wT2+xsv8mkSErSpUpbHnSVH82oOUgkpr95jXW8a/kOav+5igLeBjw0jw/Ax56CMDuDrSo4aZlSpX56U+UPTs5/ppWKYrzEagnuksXL0FWra+nnGt9npaTKmZv6WUxex7OaH2N9f3FmbgMKQEmYVTFUClEZe8DmLBRQWBADhy1wC2sWkjy/UK5sy+DwK1IUtigBqE6FxatSSapLW1eLTDT5slCVLDuXJIqACCzNUOALGhLmsW/GMBJcoQpCitGZKAgKTZaUqCysJIIc9093Xumu4zgmlqTmzlKc9SzMTnOUEklknmLEMKDKGTyZ0qBfy9M3/wfvj0UP5BMNc8utdD72rHorb8zPJqyFaEt4H690TS41J8S3utHCpmbUtQk3fQOW6wSVUm9C1xHJYkdlK2byaCBR2hZcxlZeY7BmA6k1atnbo7iGUIY95W931iordJLyDbo8Jqcsx8oUUTABQEvKWKDWpApvFA+/X4xqMdLw80JMzGJkrlqFDKUqqFcpzAgOWB6Exo5shB/nkkAMcyVVpsXpaOvW0oqlF4Or0us9OLTR82Pyjqrf2o36uBSS9MOTeuUGpoe7+MAmezMotyS2r3Jher6ZhqfoRh7bOxerj2jO4L/wBFP/50r9hcWUz/AHVhx/8AcL+C4jxjhv5PKKAnKJhSrLmcKKHBLHMoMFbsxNCziuxmOUiSjDrcZT2jJ5kjMkl2S57qgTcijAPDWHXy+5hqa8ZLHn7AZCWWkk/aHxEWmBnAcUKgxHbzSK0LqW1a3cb31tFXMQoJJSrM1e4oWI3AOo6Bw9w4JOP7VSprXWQTXK6wSXcEZS+qiDXzTdELWUbXlFgOMz5c3FJlKlhM2apThlO6ld0mhSxoSg3BasVasXOXOz9ooqlulK0cpSOUgDLYupVidam0ezkOpJdwDcOxvVJZqAuaXuwjmFACFMQpSlKJAIZxlHMKM9bCrnwiXNtGa1mnfZcDjE9SMi561BTUUoLSRR6KCi4ULe7WDSfanFy1ZhMckOolAOpIBJ7oZqBtXJamdxK0sUlRcpUkt3hUZmDsSKC7XBy1c0maUAJC1MA50IZwE6hgKvUUIHQ3SXZXvJy3NftR2esrWtZZySpVQmpJJYE+6IrSxINxf06QwtYoEsSHplN6q7w7oIKRQXr0IJmIzi6mH3i/4n0oekZpts7tP1CnKksGp4OW4Rjf1z8Exgl/h/kja4HGJTw7FSj9okoU/eIAzJAu4DHz3EZLEraUkFADAHPqwAo/Wh9I2bwqJhNOUmu2CRMOXI5ykklL0Jdnaz9Y4LAfXcEDE4aOqp7of7X74YxJHLlDAUN9qM5oB5uxMPa26HLWhHsGnSC4bCTJg5EKUNwKetvJ4e4JgQJoUt2S5Y7kctLEVBr7ou+3QyUqLhIukgXd32pA0lyzGXqvCM/iFLkSkjLVc0LDEGiZa0b3zLBA2B2qPEzQU9okh1BiKa1D1Z23cmnm97RylzRL7NCORwUmgysBVQBUatX5kFY4BK0sUISoCyVklNraG22juKGCW3BxTnuk2xOfiRdZIAcCuUgd5Ts7VLgA16wth8ScpBSVObABQFizVBNt+tGh+ZwxS0ATA29gaU+ySHFdbqcNERhAKpMwLSwzM7eiXv8ATGHFxI4OyJpypaXRgzAszU8o7C/8mH7w9Ff5Y7BjyK2XM+aSkgACm5LvflpRtY4MSrKoEqoo1Aq2xoAGfLUgW3DrJ7zB6Mw9BcVbrAp05zzaEkFSiGyhlc/mzVsYzUQHJQdlKL5jQvUszVBp5FutWic3MSEukOQApyG89a+PpSEpJZQJA5UuasC+ofmU5L2oxMLonZlAKUKqysQ7O1yHaxYGlqOSIajkEXaeGSpyikKSUualWUAZiwF3YBNmv4tajg+JHdUFObpmgk6atFJh+HKSoqTUEcwzBhsQHceFYllX9xF9VKB1/RBbrbrDlO3nP7lU10XQ4bixUy1s1woH4H3dIVnYaeXBSsdSCQfIO4HlFemXOBfK3h8+0Hq0MSeI4hBoqYWLsVqamjDMW6RGP8yk32Gn4FeSiSARUgAP66a7Wilx2EZiSlT0IvUMSxLvoagtq7gxbjjOIasyYWfvDMahvtIS9n9XeFOMYlZlKmr3IsKkB7Je+/TpDvISaZXYfEqYjtVlLkFyQCEkscvKCKbMwZyxYMoJlqCcxCSTkdTgBOoDuGIVWt9BQzwbBJSWS6gdMzsSkEmjsB4PDEuVlBJG4BABJrYNQkswqWDw5SyyaBYhBnBkEJCXCFAOWqWzPzBj9lgSSQRElLcVy1DDMGCqAFxZTF3SFbAu4bktYFMtbhVNaFlOCWLAJIYsq7PAQXJISEosaF1AA8rZgvKCEhmOtALz8gIpUiZMUkJKiGWQpRLaa5iLZWFPIwWXjgVAJcBlUYJSoHKCdCUukuTqCOhApIRzEtmBcZTVyH7tHDtS1PMGGxDk9m6kpbKSoJAJJrVWUGpLEF828XSYxzEKcKIS4YigIUK2yguKKJJc0OjtDciakywhSASoUKaMGI+zWmlSCyRQsRVIChRKQpRBsetaWQlzcl3JoAYnLxKMqFpmtMNTlFMzBTNdTsAAHJrtzG3AJ1waJMxOVH2kKzEyxnSCSz8wV91I1ozvqQoweFKlCZh6McgTNUFJBc3rnoWze+K1HERlzKIaxKXBocrZLmgJIcEbEVh8TElJWkirC9C4JLuASbX6eWacoux7xteAwRSeSaCxAqGra4c26H4QghSAoAX6JHqGvdm69RA8diiBQJUoEAOooDq5R5gnN0AL2BgPatmmFrMklSQk0dnIYmpYG9bUMO5PLHdoIOKP3U1dnozkm9HBA8anqYnPxygFWASKuWAY6+W12IDlhCmIStK8zhjzjMGIJDnmBdrAJI/CIE5lJUgLIJzICTZwHc0Idi9dau4i1GLyZtsv8DLmKVkcSwRzdpyOHDdS5ANAwpWzuzuDLSkqC5Km0TMqW2dNfWKBGJIJbKARmSBdT0bR1au+28EXiWyhR5lUqWBcaM9KXZvOM3Xgrcyw4XJViF5ENmyvlJZgDWu96fOr+J9m8QEqJlAhIUSxCqV894zap5AdgGUpKNXZzTRu87apN6w5JnAuUku4FQRpUW31+blUkuAcvJLs5f3R6D5R6Bflc77/AL1fKPQU/IUQl4QTkjs1d8Aga5TTN41atnSbUKfGcMpASlRQpajlf7SjqAlrlTWq77h/TZGJmz0ZPzQksoqUE5S1EjKCCoFyNAxNYnxWZJkKM1bLmyxyc62BYizFNXa716COtQSDaKzpvYBlILCWUrd0nMplgWqpkqbwFbxX4jFOgrlpOaY5ZZUSx5Us4YhiGqfeIseDTpgmTV4olK0t+bUkBqPnCdXGZPLVsz6MxgcH20xcxKgEAgozAaCvKbEkPpRt2h0ohQnw7iMzIXStCg4INqpKszNcsbdHFYjiMXMUVMFqflUGIoLai761vF7P4WpR+wkKZsobY2ar3qat6xRgUIOVknKWCilwwAdiQzAbWcxk1m0goFgcdNLBQUgWYJNeuaobqIsV4otVxtb69YiqcFMxNgQW190R7fckn99vSOd56DKCDF0dn+mgU/FIIIykAAm9LMfrpAp5OlLkkBvH0jiplQHfrXwhBuZV4lYyqUEMEpLBrkWFXvVLhgBm0jqpy1IP85rmBBbK2gHMKkUazs0WmOwSshWkOqjDzpUsBVr/AMa7haEqlU1SSTQkqDFspZ1FyRpQNW+sWpIKYuviaMhWogEMSVE8xBDJyfZPMA+gUYFiJmVKZys+UBlHMCFlQCK2ygNmyHNRZNGIiYXiEiY5VLDFKAQAxDBN3JcAczv3mYmvcPhc8shKU5UpRkCy/Zk5krmMUsSVBRAJ+zRswi6UciaAoxiFOp1ukDMVJUxILlLAh9bitTumIrmTVS1TJalkTEgJSARRwkA5crEkpZRdwDpFhxKWoSyVqDh+ZLhzmK0p5jlJoWoFAesB4lRLlJKn5UpptnDvloC+zgN3YUZIQOVOUJXaKdOqs9FUoSElgHyvvXWwlhMWVu2aWcwC6AqD/aCdzRrPYA0gHHJoSkpUlSRYpqCNMzEEBylg9mDMzQDhM5Il5JSe0JNc5yM9A7K2atnfdzSjcbCrLNM4ijjvHvAg2GQGjUqejjcwGZikySksnJQMlyquuV9HO9hQFoIKUExISGGQZaEgMA4YqFTUF60sIqsfjFIHadmuhIBmVA0qGBehGUszPpCjG3QUWyp5y8gKncsCg1YnmClJV8gAzgV5KkLUlMxKqqIWRlJoauNNPs23YPFXxDDqniTnWnNkOjZgVs4pa21xSLBfDlJly5ZmTMt1pFSHASCGqPCwBL2itqXeS4xaJYmaiYwSXs9CE6ZQCbEmtdqUj2DnhM0lRACCpNGZ7F8xZug0b+tzhKEzFTFlQCAsJSAzkJL60DgtrHZnDEodSdbhRLG4drOXts8LFOIOD5Hw4oFAggnKVIalfs+LUV+1EJS0rlghAKgS71KcqspdAGYixZy/ugvAuFLRLKFZTzZgrIQhiHy8zOASavVgIbRwkoSH/OKSSQvKE1U1WDuWHeNWiNj6JoUmzHcgd4jVLCgNwylAh72NqF4OkEpXnlqcE5OUuXo5YuQBe9AQ2kHkSpcsh8pXRnuk5izMNTWuredlLxqGVypDFsytSS1GNnfSBaaayNIp+wP/ABP7P/ZHYP8AyvM+4rzNf4x6NNgbUV2Bx2HM8zVYhKJplqkmWrlAqD3iCCpxoRp1gfG+Ccq1BSAhQGeYUklKQxccxzGgoGjM8Nl9oUFSQszJgRkIaiiXqHZINXZxkIsKaLE8JTKSsFapctYQhScxyIBHOohRyvlIFqKG2ZuhoY1wfDIRJly5SklWYlRp+cqSVZ7KDEA/q7AR6QS6y1yxJAsAcoK+j+QeF18MmSgqUmW8qWkAzVKlKJQ4UkBKVscwIroH3pTIxasRNMhE1pTDlIHOzEgqNgK1Gj3iasDQY5eImyk9mhipIKCVJGV2KVXoxrYxCViQEZpjZ099m7zvMSkCj5n5RV23oaepXaMsLUAFFKk5V2DM+aiXcNo5axgfshIZU95HKZhUCZYLOlgxqzHb5CF0MfxGG7GWCteZRPcAHKSe5Srp7r6kUaI1ZxYUru37or/bnFImmRJRMSpRmpSoBYLABjQE5Q6qe4Q1xbiEuRJoUJCU/m5YYEto1+lGub1jOekm8E0E7NxoALwWSgpqSG8oLw/iqVolqClhMyiNSl6MWLO9PEQDGzpi5gliqCVUSkkilFs9gQ1vtARm9H5jon+VqBDHwYs/zg+DKTMSSkEMbgEVSoWatzTwhGdi5JVLQmWrOubkKQkhgA5WygTlDp8Xi0kGVLqpAdNe8wHVm08BCWlJOxpsrcN7P4lWVSAez0JW6mYk1Kily/3RbWxjP4POV2ktSDLUuhWA1GFlMxAch+98S8v2lmonyVSZClYcgpmrSkFgpiMtqJISc55bxYYjj0tcsoQlS1KsopypS9y6jUt91xFuHzK2xfZmuNcHUiUT2iVlRcjsyQC2Uky0glQdyNQouaCiuKQlA5VKRnVQkhIUosLzAz/opDOVU2uZiApcuVOKUqZlAOylM6gkkVpYEWehZo5xbGGVKmKDEISWd8oIJYkgPau5Y7xSgTKMbwZnEYWevMESpi0FPOEKQolmKXTmOVjmqB+MLS+GzJag+HXLSQoJUtBmOphUkZSAxvUUoN96MZlTlSSS9wz1qfxI3udTCuE9opywEOJ6UzEhRWQxIY5QcqnVuNPOKXFIEkYjh+KWVBPZzQXJZSAtKOVlKGcAigFybOYueDcOmYxSgicQJa/ziVoYA/ZA5WJBFQ+pPK4EbPi3EVqQhMpISc3MHDBILWyuQKlm0HjFciehKsqUNmfNSlRW1iCGctcXgdPNDpFRxb2cnJLylIUscuqSHDi1Azux9Ing/ZiX+TqRMnTBPUAVqBoK1SR3lJalTWhYRYy8YldJcoApuxBIOt616veIrxKnydxZ0dJIbRgTzUPmYQheRwXDSwFCUkqSGBIqCNQSKF3Oor0hnAcQlqzFikIYOcwFKECgcCj0aAyJUsy1qnrUo5nyjMAMrlLjMyyXevRgGclxU8WJWVBTmlFN30liaEhmGhFYYiSeJEqFTcZSRRQsasaanYDxiqxuLmhSw5UknmYMxuHOhelj3fRqZMQpeYEAlQCUm5vTUUt72aI4vD9mUBdSrUJIAbKUVuXIsaWpeB8DQkVTMgxGZORCgClPeBsAQ1QT11dixhuWorGYOQom5uWzaahKj46Wp04WZVQWlJIAypQADRknMwO9Q2Z/Mu4KSQljMolsvIBlqSWIoCXbWzsIi0NpgvySXuT1rX3R6JSuFrYMmjBuV6aVJc+cdiqCzB8ImzJWJSoIJDskKpRgxGamYp9czPWH/aWdipqAlcjskJNbAEjlDh6HQP4u1luHzppWhRYhGtnvQ11JNR47PoZePE4FCCErNge6qgoC53qL0vQRruyQU+G4uVSZeElImKmBLEGinfMb2QLAH7ID7RY4XClOIkHEFKVKlzE5kkF1KnZgkb0UwHX1Rl45YmBFcoNBQFCszcqhYZbmochrQbEqSpYKjnynl5icrVc0AJF3ua3hSl0Oy4xsgPSYtqulUtwQaEWqRfyHhAOAL7ORNUrtVzM6zkCedrIS1spbMSAznygf8ppZSFTClb5XCXA1oyPfAcKhSWClgoFHAdwCO8cyWLa9IiLVDu8nuB4lGJnmYrDyylIKFdoylhVCggEUIqK7nUQz7TYCTLaamRKOZYQc6QwzKACiyasoMS1ifCGeGYbKpSAv/a5plaDQEZX8D4Gpo8C4twVU0KlzKIcZbguCaMCyjl1NtBFXkKBzilKpQADS2KcvKkMDmZIuRZzuKDVvgwliWrsMrdopyXcsxd6l2UzA6FmeBnDoK0qCEqWSEua5QSAOQuAweoHvNXJryiCCwJAIAY96pDaAPUbGBvAAcOSiesk51zQAkJQQE5cxUKEmo1/RG8D4tKnTJqTmZJftCWJZnSwU9XAD6RLEY/s5iZpHIkEbFjSr6i7Xt0EcxWJmFUxwEgqaWFAhRTyg0LXOY1NiLaJMCGFkdnKlplKVkTlGZJ5mrmOhelq1NqNBZGBQCoFgOZlMCXe5IqkN520ofYbLkBTPQqahyvmHKCva2Vy1tB5LSkLmkAzFS5S3PZpGRywISVvnygZnAIc9BCwuQ5K5UozsZKEkAGXzTFpcJAtly1AJqMoDh1DQgPcXE6alUrs1EqSEDKAUgE5iTMFE0oczGh6PY4jDskJkryFGUOPsVDnKPsizelYVwaViYJyllayCguWTzM4a7kBBc6AUh32OugfE52HklMpXaICgsJYLLMnlCS5saFIqHBasN8OmSjKAk8qUEAOnLUCpq1XJfqYjh+LzTMlJk5kpJWFKUUkrZ0lAAJIOYFTlqJDXifEZJXnLEGqFipJqCCGuCHFHps4MDdKgQU4wLQCh1ZSt1DlcZlBBBJD8rWehheU0tJUVAKKlPzZrqIDAl/7IF/UeM4uy8pQhIT3qkOapHKE1HK+hv4x0YhSUFBSCmqhl+0TbcggGgNLGJbQbbC/lJSHSoVUKu9Wct6iJ4NclBC1JZgoqU5oo8xLAsaPoO8WhLDSlTZRm9rMQkrIRYAhIYh1IJDkKDhrOxd4ZxeEnKUhQ7OVJQuXmSkqUohJe51LajUly8NYwHIpImzJnaTSCl2MqWs5QpvtkBsrmoBHi5aG8KpSQEKWo5mMwJCQCbhnsmjXcnWC8RSVTSlI5QBmWTRyRy7uwB6OK7r4yYhCitKiVFRAQGYHLTTTx+14REp5pFKOMhJssNpQZqhzSneNAakFnNaG0Fw0wzDLBfKCPn8QIlLnhcr9Igu1g4oH6U/fQwvNm0ZnGwDAU3+Q/CFLUSVGbaTB4mcEiYAoKWCAz3q+b9VzXwrAZKJpJUteW4ABzUBBDt4D1EFmMAWAHgBvvvEELJck6218CfSMnNvglzC9sreZ6iPQPIfvGPRO6XknezE4XFaHUhz6+61KWEWMhYUSSCzGm58i7CvrFNikJcVff+L/Xk8O4eYR6C9evwpWO6UeyyymSwolFU6A1c1dn3p87RIYUAkAHapf+B8zDOBlFIB1A7wrRQ6A+msEw2HzZvV/RzZy5N/hGN9IdCScKXUQHO+7PYdB7njiVKzULVv8Aw6Q8uSl2zZa11CvS2h8oH+Tixcl3s9jUve3x00Vk0QHEpiCir5SFi16ghxWoJDe6LD+WlTUBK2FnOZyAasD7nsNqRXLwjvlY1bXrfyG1YhMwCk8wYht9/o/GK3YGm0W5VmOVKhmJJ1AKS9KAkEUOjv5h/jWMyISeagSEmhUUkpBA0cuRU6pjPYSaoqBKg4Jym24pWzH60fxeJCuzVMZkHMGLh9CQ7AB7MKttCUq5KUkxnF4FKkELfICFFANC3dBa4fyJj3EuxGHUUyULIBKRkQKkjIS7OCope5vtSPEJxyBvtZWZWXqOYA6PodbXgcpCuyV2kxKyWS7EBkgtQklRza0rpBvzbLaXQ3hcAhJz5JaZ+V1LRLCeimAACQACKbeLexXEi8sTEvMWopdgLMXIsLu4FWVsHJNmG6nLhw1ailw+1vvdRCBQVKcksmqS7uXIYlq1I8vGHGTSt8iazgNMx5IUgcqlXJPdDkkgGj8uzWJj03EEuZNGIUCwJfIEFjmYJOUEULl33jkrKTmBOag9KdHF4fTkAAAJIJ+0daO1tbfKI3tu7BqxThnZywgUBl91z61duars1TZxDIJSvM7oWyhq7EDyMRRiTnKiHoA5eu1Ha4u371TKIUspbKVHKOj0u5+hBv2q7sVA8TJV2ilBIVmJcqYvRsx3dgLPDElGXvAZcwNC5PuBBvWtI4lSzYHzp9ax2Yk1BYRk5tiuuAk+e8vIScoLhyCQH7rs7NS3vicvGrysohYYJZgNXFmfasAyfqnYt8v4R4pJ2D2+fxtBvl5DIEynFLszMOpBpetYmqTTugkbuddjq3yiRSrp0arXbT6aIiQa0NjY/u8XhWyW2eUtxV3femrhm+XvEeCyxe3jt18Wjgl+Ir9X18/SOqCQ1L+n74RNAy3l4xxUurmh00iSVJDH4ghvdtA/yhiwGbpm+vhAINXc+kehftj9z3iPQwwZKbwlSVvQhy1Rozgj3eXhFtiVgrzBKUuQADWoDd4jMWT5ECjQVSXGYsAXI8U3JDfeZmPXSAplELIqbhi2hLA3cZtuhjq32smrGQoEggAhNEtWlGLMGNtfR6tyCDXQ7bingXo27wgTy6ULUG+73IPwHjBEzCU1DjUClH9NXiO75AalkEAqLFqUvpuRSlYlMkp25gz012axL1gUopYOKUYkm1GcCrDK7PDSG7pcqJe+o8aWL39YkFkAsAF3LMX3d6tvb6aITJ6iDllmgduj1o30Ibw8vOsIBa9TWzab6tb3wHGgS1MCTmcACgoHqCGbpW0FXlj4E81WIDkVYa1F9H6au8dKVA8poBYW0AZgb6j50cElOWxIGx8NzpSBzZLkGugAzFmfwaz6fhD6slrsIiwUWLkNprf08fxgoy7O1amm9A3TbxgeKTypJev2Q29egok+sLJeiLqID67PejZvc20S1Ymx6SxVlTd9raliQK9eh6ROgfXfVqlh4uPdAFIXLJFHBq250sHbf6DAxCkrypq7AAlrsDX0PkYNvTGn0zzgdDao3FWHXoRZvCcvN90+hb9r3/OFpWMVlGY0cfub0Pp4CDflAU5KlHeurOoxnQtwYAkOw9BZreFIkZVDUv40r+9/oQph5r5vB/wPvjqp24B9bs7QslMOmSHu7/ePhvEZxSAC710Y63r0jmR3bMNL/X17o4jCNpf46i7Q0xOw4nJbpW1oipZ0SWPiPWIICUsSHFqk+/6/cMGtDY+W/jBiicjCH2I8/poKJiTRRqdzeBKo923ubteOKI1D7val+sIE6DLkjf8AD3Nv12gS8Mk6n1bWOyVsO6Ppz6m/nvBghROhDBh41OuzwUVaF/yYVZlAWcdd/CIpAtRuhDeHhDJAAqG8CfK3lpHly0n8fr6/AhDaFu0G316R2C9nL+6PfHIdC3H/2Q==</t>
-  </si>
-  <si>
-    <t>Shire</t>
-  </si>
-  <si>
-    <t>Bag End</t>
-  </si>
-  <si>
-    <t>https://static.wikia.nocookie.net/lotr/images/e/e4/Vlcsnap-2013-05-19-19h49m07s0.png/revision/latest?cb=20130519155935</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins inherited the home from his parents, Bungo and Belladonna (Took) Baggins. It was Bungo who built the smial for Belladonna around the year TA 2889. The hobbit hole was noted to have a green door with a round brass knob, all but countless rooms with round windows, and a garden. Although hobbits were of small stature, larger visitors were commonly seen. The grounds and home were kept by the Gamgee family, most notably Hamfast ("The Gaffer") and later his son, Samwise.</t>
-  </si>
-  <si>
-    <t>First Age</t>
+    <t>Hindås, Sweden</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1734,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,6 +1747,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1657,7 +1762,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1680,17 +1785,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1701,7 +1795,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2006,793 +2100,844 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="29.08984375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>520</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>521</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>521</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>525</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="N9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="N11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
-      </c>
       <c r="L12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>524</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="N17" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>523</v>
+        <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>522</v>
+        <v>63</v>
       </c>
       <c r="I19" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
         <v>22</v>
       </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>526</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>527</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>528</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>530</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>531</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="N21" t="s">
+        <v>560</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2802,164 +2947,475 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>510</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>448</v>
+        <v>557</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>367</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>454</v>
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>13.8</v>
-      </c>
-      <c r="G2">
-        <v>104.47</v>
-      </c>
-      <c r="H2">
-        <v>0.79</v>
-      </c>
-      <c r="I2">
-        <v>0.59</v>
-      </c>
-      <c r="J2">
-        <v>37.24</v>
-      </c>
-      <c r="K2">
-        <v>25</v>
+        <v>511</v>
+      </c>
+      <c r="D2" t="s">
+        <v>512</v>
+      </c>
+      <c r="F2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K2" t="s">
+        <v>471</v>
       </c>
       <c r="L2" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>455</v>
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>16.8</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>34523</v>
-      </c>
-      <c r="I3">
-        <v>521</v>
-      </c>
-      <c r="J3">
-        <v>2345</v>
-      </c>
-      <c r="K3">
-        <v>562356</v>
+        <v>513</v>
+      </c>
+      <c r="D3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H3" t="s">
+        <v>385</v>
+      </c>
+      <c r="I3" t="s">
+        <v>461</v>
+      </c>
+      <c r="J3" t="s">
+        <v>423</v>
+      </c>
+      <c r="K3" t="s">
+        <v>471</v>
       </c>
       <c r="L3" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>456</v>
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>34</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <v>125</v>
-      </c>
-      <c r="I4">
-        <v>76</v>
-      </c>
-      <c r="J4">
-        <v>4467</v>
-      </c>
-      <c r="K4">
-        <v>2345234</v>
+        <v>409</v>
+      </c>
+      <c r="D4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F4" t="s">
+        <v>552</v>
+      </c>
+      <c r="G4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I4" t="s">
+        <v>463</v>
+      </c>
+      <c r="J4" t="s">
+        <v>425</v>
+      </c>
+      <c r="K4" t="s">
+        <v>472</v>
       </c>
       <c r="L4" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>457</v>
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>1234</v>
-      </c>
-      <c r="G5">
-        <v>104.47</v>
-      </c>
-      <c r="H5">
-        <v>4576</v>
-      </c>
-      <c r="I5">
-        <v>567</v>
-      </c>
-      <c r="J5">
-        <v>465</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
+        <v>515</v>
+      </c>
+      <c r="D5" t="s">
+        <v>512</v>
+      </c>
+      <c r="F5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H5" t="s">
+        <v>393</v>
+      </c>
+      <c r="I5" t="s">
+        <v>496</v>
+      </c>
+      <c r="J5" t="s">
+        <v>428</v>
+      </c>
+      <c r="K5" t="s">
+        <v>473</v>
       </c>
       <c r="L5" t="s">
-        <v>443</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D6" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" t="s">
+        <v>554</v>
+      </c>
+      <c r="G6" t="s">
+        <v>440</v>
+      </c>
+      <c r="H6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J6" t="s">
+        <v>428</v>
+      </c>
+      <c r="K6" t="s">
+        <v>473</v>
+      </c>
+      <c r="L6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>513</v>
+      </c>
+      <c r="D7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I7" t="s">
+        <v>496</v>
+      </c>
+      <c r="J7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K7" t="s">
+        <v>473</v>
+      </c>
+      <c r="L7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D8" t="s">
+        <v>514</v>
+      </c>
+      <c r="F8" t="s">
+        <v>436</v>
+      </c>
+      <c r="G8" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8" t="s">
+        <v>393</v>
+      </c>
+      <c r="I8" t="s">
+        <v>496</v>
+      </c>
+      <c r="J8" t="s">
+        <v>428</v>
+      </c>
+      <c r="K8" t="s">
+        <v>473</v>
+      </c>
+      <c r="L8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>511</v>
+      </c>
+      <c r="D9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F9" t="s">
+        <v>555</v>
+      </c>
+      <c r="G9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" t="s">
+        <v>381</v>
+      </c>
+      <c r="I9" t="s">
+        <v>459</v>
+      </c>
+      <c r="J9" t="s">
+        <v>418</v>
+      </c>
+      <c r="K9" t="s">
+        <v>471</v>
+      </c>
+      <c r="L9" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" t="s">
+        <v>514</v>
+      </c>
+      <c r="F10" t="s">
+        <v>556</v>
+      </c>
+      <c r="G10" t="s">
+        <v>437</v>
+      </c>
+      <c r="H10" t="s">
+        <v>381</v>
+      </c>
+      <c r="I10" t="s">
+        <v>459</v>
+      </c>
+      <c r="J10" t="s">
+        <v>418</v>
+      </c>
+      <c r="K10" t="s">
+        <v>471</v>
+      </c>
+      <c r="L10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F11" t="s">
+        <v>559</v>
+      </c>
+      <c r="G11" t="s">
+        <v>440</v>
+      </c>
+      <c r="H11" t="s">
+        <v>393</v>
+      </c>
+      <c r="I11" t="s">
+        <v>496</v>
+      </c>
+      <c r="J11" t="s">
+        <v>428</v>
+      </c>
+      <c r="K11" t="s">
+        <v>473</v>
+      </c>
+      <c r="L11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12" t="s">
+        <v>512</v>
+      </c>
+      <c r="F12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G12" t="s">
+        <v>440</v>
+      </c>
+      <c r="H12" t="s">
+        <v>393</v>
+      </c>
+      <c r="I12" t="s">
+        <v>496</v>
+      </c>
+      <c r="J12" t="s">
+        <v>428</v>
+      </c>
+      <c r="K12" t="s">
+        <v>473</v>
+      </c>
+      <c r="L12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" t="s">
+        <v>563</v>
+      </c>
+      <c r="D13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F13" t="s">
+        <v>564</v>
+      </c>
+      <c r="G13" t="s">
+        <v>440</v>
+      </c>
+      <c r="H13" t="s">
+        <v>393</v>
+      </c>
+      <c r="I13" t="s">
+        <v>496</v>
+      </c>
+      <c r="J13" t="s">
+        <v>428</v>
+      </c>
+      <c r="K13" t="s">
+        <v>473</v>
+      </c>
+      <c r="L13" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -2980,45 +3436,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>507</v>
+        <v>523</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="F2">
         <v>0.04</v>
@@ -3033,21 +3489,21 @@
         <v>1.5E-3</v>
       </c>
       <c r="J2" t="s">
-        <v>447</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F3">
         <v>0.24</v>
@@ -3062,21 +3518,21 @@
         <v>0.20150000000000001</v>
       </c>
       <c r="J3" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="F4">
         <v>0.44000000000000011</v>
@@ -3091,21 +3547,21 @@
         <v>0.40150000000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="F5">
         <v>0.64000000000000012</v>
@@ -3120,7 +3576,7 @@
         <v>0.60150000000000003</v>
       </c>
       <c r="J5" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3130,7 +3586,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3141,31 +3597,192 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>367</v>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1234</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>535</v>
+      </c>
+      <c r="J3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E4" t="s">
+        <v>537</v>
+      </c>
+      <c r="J4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>540</v>
+      </c>
+      <c r="E6" t="s">
+        <v>541</v>
+      </c>
+      <c r="F6" t="s">
+        <v>540</v>
+      </c>
+      <c r="G6" t="s">
+        <v>542</v>
+      </c>
+      <c r="J6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>544</v>
+      </c>
+      <c r="E7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F7" t="s">
+        <v>546</v>
+      </c>
+      <c r="J7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C8" t="s">
+        <v>548</v>
+      </c>
+      <c r="D8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E8" t="s">
+        <v>550</v>
+      </c>
+      <c r="F8" t="s">
+        <v>551</v>
+      </c>
+      <c r="J8" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3174,859 +3791,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="18.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G2" t="s">
-        <v>440</v>
-      </c>
-      <c r="H2" t="s">
-        <v>434</v>
-      </c>
-      <c r="I2" t="s">
-        <v>399</v>
-      </c>
-      <c r="J2" t="s">
-        <v>454</v>
-      </c>
-      <c r="K2" t="s">
-        <v>469</v>
-      </c>
-      <c r="L2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G3" t="s">
-        <v>442</v>
-      </c>
-      <c r="H3" t="s">
-        <v>435</v>
-      </c>
-      <c r="I3" t="s">
-        <v>404</v>
-      </c>
-      <c r="J3" t="s">
-        <v>454</v>
-      </c>
-      <c r="K3" t="s">
-        <v>472</v>
-      </c>
-      <c r="L3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>474</v>
-      </c>
-      <c r="D4" t="s">
-        <v>475</v>
-      </c>
-      <c r="E4" t="s">
-        <v>416</v>
-      </c>
-      <c r="F4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H4" t="s">
-        <v>436</v>
-      </c>
-      <c r="I4" t="s">
-        <v>406</v>
-      </c>
-      <c r="J4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K4" t="s">
-        <v>476</v>
-      </c>
-      <c r="L4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>478</v>
-      </c>
-      <c r="D5" t="s">
-        <v>475</v>
-      </c>
-      <c r="E5" t="s">
-        <v>418</v>
-      </c>
-      <c r="F5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G5" t="s">
-        <v>446</v>
-      </c>
-      <c r="H5" t="s">
-        <v>479</v>
-      </c>
-      <c r="I5" t="s">
-        <v>480</v>
-      </c>
-      <c r="J5" t="s">
-        <v>456</v>
-      </c>
-      <c r="K5" t="s">
-        <v>481</v>
-      </c>
-      <c r="L5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" t="s">
-        <v>475</v>
-      </c>
-      <c r="E6" t="s">
-        <v>420</v>
-      </c>
-      <c r="F6" t="s">
-        <v>380</v>
-      </c>
-      <c r="G6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H6" t="s">
-        <v>479</v>
-      </c>
-      <c r="I6" t="s">
-        <v>480</v>
-      </c>
-      <c r="J6" t="s">
-        <v>456</v>
-      </c>
-      <c r="K6" t="s">
-        <v>481</v>
-      </c>
-      <c r="L6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>483</v>
-      </c>
-      <c r="D7" t="s">
-        <v>475</v>
-      </c>
-      <c r="E7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H7" t="s">
-        <v>436</v>
-      </c>
-      <c r="I7" t="s">
-        <v>406</v>
-      </c>
-      <c r="J7" t="s">
-        <v>455</v>
-      </c>
-      <c r="K7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L7" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>484</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" t="s">
-        <v>416</v>
-      </c>
-      <c r="F8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G8" t="s">
-        <v>440</v>
-      </c>
-      <c r="H8" t="s">
-        <v>434</v>
-      </c>
-      <c r="I8" t="s">
-        <v>399</v>
-      </c>
-      <c r="J8" t="s">
-        <v>454</v>
-      </c>
-      <c r="K8" t="s">
-        <v>469</v>
-      </c>
-      <c r="L8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>485</v>
-      </c>
-      <c r="D9" t="s">
-        <v>486</v>
-      </c>
-      <c r="E9" t="s">
-        <v>418</v>
-      </c>
-      <c r="F9" t="s">
-        <v>372</v>
-      </c>
-      <c r="G9" t="s">
-        <v>442</v>
-      </c>
-      <c r="H9" t="s">
-        <v>435</v>
-      </c>
-      <c r="I9" t="s">
-        <v>404</v>
-      </c>
-      <c r="J9" t="s">
-        <v>454</v>
-      </c>
-      <c r="K9" t="s">
-        <v>472</v>
-      </c>
-      <c r="L9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D10" t="s">
-        <v>417</v>
-      </c>
-      <c r="E10" t="s">
-        <v>416</v>
-      </c>
-      <c r="F10" t="s">
-        <v>377</v>
-      </c>
-      <c r="G10" t="s">
-        <v>444</v>
-      </c>
-      <c r="H10" t="s">
-        <v>436</v>
-      </c>
-      <c r="I10" t="s">
-        <v>406</v>
-      </c>
-      <c r="J10" t="s">
-        <v>455</v>
-      </c>
-      <c r="K10" t="s">
-        <v>476</v>
-      </c>
-      <c r="L10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>488</v>
-      </c>
-      <c r="D11" t="s">
-        <v>417</v>
-      </c>
-      <c r="E11" t="s">
-        <v>421</v>
-      </c>
-      <c r="F11" t="s">
-        <v>380</v>
-      </c>
-      <c r="G11" t="s">
-        <v>446</v>
-      </c>
-      <c r="H11" t="s">
-        <v>479</v>
-      </c>
-      <c r="I11" t="s">
-        <v>480</v>
-      </c>
-      <c r="J11" t="s">
-        <v>456</v>
-      </c>
-      <c r="K11" t="s">
-        <v>481</v>
-      </c>
-      <c r="L11" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E12" t="s">
-        <v>420</v>
-      </c>
-      <c r="F12" t="s">
-        <v>380</v>
-      </c>
-      <c r="G12" t="s">
-        <v>446</v>
-      </c>
-      <c r="H12" t="s">
-        <v>479</v>
-      </c>
-      <c r="I12" t="s">
-        <v>480</v>
-      </c>
-      <c r="J12" t="s">
-        <v>456</v>
-      </c>
-      <c r="K12" t="s">
-        <v>481</v>
-      </c>
-      <c r="L12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>491</v>
-      </c>
-      <c r="D13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E13" t="s">
-        <v>424</v>
-      </c>
-      <c r="F13" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" t="s">
-        <v>444</v>
-      </c>
-      <c r="H13" t="s">
-        <v>436</v>
-      </c>
-      <c r="I13" t="s">
-        <v>406</v>
-      </c>
-      <c r="J13" t="s">
-        <v>455</v>
-      </c>
-      <c r="K13" t="s">
-        <v>476</v>
-      </c>
-      <c r="L13" t="s">
-        <v>477</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D2" t="s">
-        <v>495</v>
-      </c>
-      <c r="E2" t="s">
-        <v>416</v>
-      </c>
-      <c r="F2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G2" t="s">
-        <v>440</v>
-      </c>
-      <c r="H2" t="s">
-        <v>399</v>
-      </c>
-      <c r="I2" t="s">
-        <v>454</v>
-      </c>
-      <c r="J2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G3" t="s">
-        <v>442</v>
-      </c>
-      <c r="H3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I3" t="s">
-        <v>454</v>
-      </c>
-      <c r="J3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>497</v>
-      </c>
-      <c r="D4" t="s">
-        <v>498</v>
-      </c>
-      <c r="E4" t="s">
-        <v>420</v>
-      </c>
-      <c r="F4" t="s">
-        <v>377</v>
-      </c>
-      <c r="G4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H4" t="s">
-        <v>406</v>
-      </c>
-      <c r="I4" t="s">
-        <v>455</v>
-      </c>
-      <c r="J4" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>499</v>
-      </c>
-      <c r="D5" t="s">
-        <v>495</v>
-      </c>
-      <c r="E5" t="s">
-        <v>421</v>
-      </c>
-      <c r="F5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G5" t="s">
-        <v>446</v>
-      </c>
-      <c r="H5" t="s">
-        <v>480</v>
-      </c>
-      <c r="I5" t="s">
-        <v>456</v>
-      </c>
-      <c r="J5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D6" t="s">
-        <v>498</v>
-      </c>
-      <c r="E6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F6" t="s">
-        <v>380</v>
-      </c>
-      <c r="G6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H6" t="s">
-        <v>480</v>
-      </c>
-      <c r="I6" t="s">
-        <v>456</v>
-      </c>
-      <c r="J6" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>496</v>
-      </c>
-      <c r="D7" t="s">
-        <v>495</v>
-      </c>
-      <c r="E7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G7" t="s">
-        <v>446</v>
-      </c>
-      <c r="H7" t="s">
-        <v>480</v>
-      </c>
-      <c r="I7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J7" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" t="s">
-        <v>498</v>
-      </c>
-      <c r="E8" t="s">
-        <v>418</v>
-      </c>
-      <c r="F8" t="s">
-        <v>380</v>
-      </c>
-      <c r="G8" t="s">
-        <v>446</v>
-      </c>
-      <c r="H8" t="s">
-        <v>480</v>
-      </c>
-      <c r="I8" t="s">
-        <v>456</v>
-      </c>
-      <c r="J8" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>494</v>
-      </c>
-      <c r="D9" t="s">
-        <v>498</v>
-      </c>
-      <c r="E9" t="s">
-        <v>418</v>
-      </c>
-      <c r="F9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G9" t="s">
-        <v>440</v>
-      </c>
-      <c r="H9" t="s">
-        <v>399</v>
-      </c>
-      <c r="I9" t="s">
-        <v>454</v>
-      </c>
-      <c r="J9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D10" t="s">
-        <v>498</v>
-      </c>
-      <c r="E10" t="s">
-        <v>418</v>
-      </c>
-      <c r="F10" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" t="s">
-        <v>440</v>
-      </c>
-      <c r="H10" t="s">
-        <v>399</v>
-      </c>
-      <c r="I10" t="s">
-        <v>454</v>
-      </c>
-      <c r="J10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
@@ -4039,118 +3803,118 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>1987</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>2016</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I3">
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C4">
         <v>1991</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -4159,30 +3923,30 @@
         <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>2003</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -4191,56 +3955,56 @@
         <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>2011</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="I6">
         <v>50</v>
       </c>
       <c r="M6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>2013</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2">
         <v>44211</v>
@@ -4249,30 +4013,30 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>2012</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -4281,30 +4045,30 @@
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>2011</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H9">
         <v>13</v>
@@ -4313,59 +4077,59 @@
         <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>1991</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="I10">
         <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H11">
         <v>7</v>
@@ -4374,27 +4138,27 @@
         <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C12">
         <v>2002</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G12">
         <v>19</v>
@@ -4403,30 +4167,30 @@
         <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C13">
         <v>2017</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="H13">
         <v>7</v>
@@ -4435,30 +4199,30 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>2005</v>
       </c>
       <c r="D14" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -4467,30 +4231,30 @@
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>1986</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -4499,30 +4263,30 @@
         <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>2014</v>
       </c>
       <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" t="s">
         <v>150</v>
       </c>
-      <c r="E16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" t="s">
-        <v>136</v>
-      </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -4531,27 +4295,27 @@
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C17">
         <v>2001</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G17" s="2">
         <v>44227</v>
@@ -4563,27 +4327,27 @@
         <v>98</v>
       </c>
       <c r="M17" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>2015</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G18" s="2">
         <v>44219</v>
@@ -4592,82 +4356,82 @@
         <v>11</v>
       </c>
       <c r="M18" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C19">
         <v>2018</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M19" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <v>2014</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M20" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C21">
         <v>1974</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="E21" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -4676,30 +4440,30 @@
         <v>7</v>
       </c>
       <c r="M21" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <v>1985</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="H22">
         <v>11</v>
@@ -4708,53 +4472,53 @@
         <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>2012</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M23" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <v>1971</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -4763,53 +4527,53 @@
         <v>28</v>
       </c>
       <c r="M24" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C25">
         <v>2000</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="M25" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>2009</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -4818,30 +4582,30 @@
         <v>48</v>
       </c>
       <c r="M26" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C27">
         <v>2007</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="H27">
         <v>7</v>
@@ -4850,30 +4614,30 @@
         <v>46</v>
       </c>
       <c r="M27" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" t="s">
         <v>211</v>
       </c>
-      <c r="F28" t="s">
-        <v>197</v>
-      </c>
       <c r="G28" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H28">
         <v>9</v>
@@ -4882,30 +4646,30 @@
         <v>38</v>
       </c>
       <c r="M28" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C29">
         <v>1998</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="H29">
         <v>11</v>
@@ -4914,91 +4678,91 @@
         <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>1978</v>
       </c>
       <c r="D30" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E30" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="M30" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C31">
         <v>1979</v>
       </c>
       <c r="D31" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F31" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="I31">
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="K31" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C32">
         <v>2003</v>
       </c>
       <c r="D32" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -5007,30 +4771,30 @@
         <v>169</v>
       </c>
       <c r="M32" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C33">
         <v>1986</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E33" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -5039,30 +4803,30 @@
         <v>22</v>
       </c>
       <c r="M33" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C34">
         <v>1976</v>
       </c>
       <c r="D34" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="E34" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G34" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H34">
         <v>927</v>
@@ -5071,30 +4835,30 @@
         <v>273</v>
       </c>
       <c r="M34" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C35">
         <v>1974</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="E35" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F35" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="G35" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -5103,30 +4867,30 @@
         <v>27</v>
       </c>
       <c r="M35" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C36">
         <v>2006</v>
       </c>
       <c r="D36" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F36" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="H36">
         <v>5</v>
@@ -5135,27 +4899,27 @@
         <v>21</v>
       </c>
       <c r="M36" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C37">
         <v>2013</v>
       </c>
       <c r="D37" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E37" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="G37" s="2">
         <v>44210</v>
@@ -5164,27 +4928,27 @@
         <v>117</v>
       </c>
       <c r="M37" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C38">
         <v>1990</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E38" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="F38" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="G38" s="2">
         <v>44203</v>
@@ -5196,30 +4960,30 @@
         <v>45</v>
       </c>
       <c r="M38" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C39">
         <v>2012</v>
       </c>
       <c r="D39" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E39" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="F39" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="G39" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -5228,30 +4992,30 @@
         <v>51</v>
       </c>
       <c r="M39" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C40">
         <v>1988</v>
       </c>
       <c r="D40" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E40" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="F40" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G40" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -5260,30 +5024,30 @@
         <v>42</v>
       </c>
       <c r="M40" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C41">
         <v>2017</v>
       </c>
       <c r="D41" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E41" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F41" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G41" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -5292,111 +5056,111 @@
         <v>164</v>
       </c>
       <c r="M41" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C42">
         <v>2017</v>
       </c>
       <c r="D42" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="E42" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="G42" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="I42">
         <v>169</v>
       </c>
       <c r="L42" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="M42" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C43">
         <v>2000</v>
       </c>
       <c r="D43" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="E43" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G43" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="I43">
         <v>103</v>
       </c>
       <c r="M43" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C44">
         <v>1995</v>
       </c>
       <c r="D44" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="E44" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="M44" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C45">
         <v>2004</v>
       </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="E45" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F45" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="G45" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="H45">
         <v>17</v>
@@ -5405,59 +5169,59 @@
         <v>38</v>
       </c>
       <c r="M45" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <v>2017</v>
       </c>
       <c r="D46" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="E46" t="s">
+        <v>328</v>
+      </c>
+      <c r="F46" t="s">
         <v>314</v>
       </c>
-      <c r="F46" t="s">
-        <v>300</v>
-      </c>
       <c r="G46" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="I46">
         <v>236</v>
       </c>
       <c r="M46" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C47">
         <v>2002</v>
       </c>
       <c r="D47" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="E47" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="F47" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="G47" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="H47">
         <v>7</v>
@@ -5466,30 +5230,30 @@
         <v>8</v>
       </c>
       <c r="M47" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C48">
         <v>2012</v>
       </c>
       <c r="D48" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="E48" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="G48" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="H48">
         <v>18</v>
@@ -5498,56 +5262,56 @@
         <v>12</v>
       </c>
       <c r="M48" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>2005</v>
       </c>
       <c r="D49" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="E49" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="K49" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="L49" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="M49" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C50">
         <v>2007</v>
       </c>
       <c r="D50" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="E50" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="F50" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G50" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -5556,30 +5320,30 @@
         <v>123</v>
       </c>
       <c r="M50" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C51">
         <v>2019</v>
       </c>
       <c r="D51" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="E51" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="F51" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G51" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5588,30 +5352,30 @@
         <v>173</v>
       </c>
       <c r="M51" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C52">
         <v>2019</v>
       </c>
       <c r="D52" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="E52" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F52" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="G52" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="H52">
         <v>15</v>
@@ -5620,59 +5384,59 @@
         <v>124</v>
       </c>
       <c r="M52" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C53">
         <v>2011</v>
       </c>
       <c r="D53" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="E53" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="F53" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="G53" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="I53">
         <v>105</v>
       </c>
       <c r="M53" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C54">
         <v>2008</v>
       </c>
       <c r="D54" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="E54" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="F54" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="G54" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="H54">
         <v>7</v>
@@ -5681,7 +5445,7 @@
         <v>52</v>
       </c>
       <c r="M54" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -5689,13 +5453,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -5704,285 +5466,286 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F2">
         <v>0.96</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C3" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="D3" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="E3" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="F3">
         <v>0.97599999999999998</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="E4" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="F4">
         <v>0.74</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="E5" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="F5">
         <v>0.66</v>
       </c>
       <c r="G5" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="E6" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="F6">
         <v>0.98</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" t="s">
         <v>386</v>
       </c>
-      <c r="B7" t="s">
-        <v>373</v>
-      </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="E7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="F7">
         <v>0.2</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="F8">
         <v>0.89</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="E9" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F9">
         <v>0.996</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E10" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F10">
         <v>0.96</v>
       </c>
       <c r="G10" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11">
+        <v>0.77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E12" t="s">
+        <v>412</v>
+      </c>
+      <c r="F12" t="s">
+        <v>413</v>
+      </c>
+      <c r="G12" t="s">
+        <v>266</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5993,51 +5756,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D2" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="E2" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="F2" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -6049,27 +5812,27 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D3" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="E3" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="F3" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="G3">
         <v>7.0000000000000007E-2</v>
@@ -6081,27 +5844,27 @@
         <v>-6</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="E4" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F4" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="G4">
         <v>7.0000000000000007E-2</v>
@@ -6113,7 +5876,21 @@
         <v>-6</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C5" t="s">
+        <v>394</v>
+      </c>
+      <c r="J5" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6121,7 +5898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -6134,51 +5911,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="F2">
         <v>0.09</v>
@@ -6187,21 +5964,21 @@
         <v>0.09</v>
       </c>
       <c r="L2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C3" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="E3" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="F3">
         <v>0.15</v>
@@ -6210,21 +5987,21 @@
         <v>0.15</v>
       </c>
       <c r="L3" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="F4">
         <v>0.19</v>
@@ -6233,21 +6010,21 @@
         <v>0.19</v>
       </c>
       <c r="L4" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="F5">
         <v>0.12</v>
@@ -6256,21 +6033,21 @@
         <v>0.12</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C6" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="E6" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="F6">
         <v>0.15</v>
@@ -6279,21 +6056,21 @@
         <v>0.15</v>
       </c>
       <c r="L6" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="F7">
         <v>0.21</v>
@@ -6302,18 +6079,18 @@
         <v>0.21</v>
       </c>
       <c r="L7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -6322,18 +6099,18 @@
         <v>0.1</v>
       </c>
       <c r="L8" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>0.12</v>
@@ -6342,18 +6119,18 @@
         <v>0.12</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>0.18</v>
@@ -6362,21 +6139,21 @@
         <v>0.18</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -6385,21 +6162,21 @@
         <v>0.1</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="F12">
         <v>0.16</v>
@@ -6408,21 +6185,21 @@
         <v>0.16</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="F13">
         <v>0.19</v>
@@ -6431,7 +6208,7 @@
         <v>0.19</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -6439,7 +6216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -6452,39 +6229,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -6496,18 +6273,18 @@
         <v>0.77</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -6519,24 +6296,24 @@
         <v>0.7</v>
       </c>
       <c r="I3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="E4" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6548,7 +6325,7 @@
         <v>0.66</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -6556,9 +6333,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6569,99 +6346,765 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>365</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>1.3</v>
+      </c>
+      <c r="G2">
+        <v>1.3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>0.3</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1.9</v>
+      </c>
+      <c r="G4">
+        <v>1.9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>471</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>13.8</v>
       </c>
       <c r="G2">
-        <v>1.3</v>
+        <v>104.47</v>
+      </c>
+      <c r="H2">
+        <v>0.79</v>
+      </c>
+      <c r="I2">
+        <v>0.59</v>
+      </c>
+      <c r="J2">
+        <v>37.24</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>16.8</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>34523</v>
+      </c>
+      <c r="I3">
+        <v>521</v>
+      </c>
+      <c r="J3">
+        <v>2345</v>
+      </c>
+      <c r="K3">
+        <v>562356</v>
+      </c>
+      <c r="L3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <v>125</v>
+      </c>
+      <c r="I4">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>4467</v>
+      </c>
+      <c r="K4">
+        <v>2345234</v>
+      </c>
+      <c r="L4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>1234</v>
+      </c>
+      <c r="G5">
+        <v>104.47</v>
+      </c>
+      <c r="H5">
+        <v>4576</v>
+      </c>
+      <c r="I5">
+        <v>567</v>
+      </c>
+      <c r="J5">
+        <v>465</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2" t="s">
+        <v>459</v>
       </c>
       <c r="H2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+      <c r="I2" t="s">
+        <v>418</v>
+      </c>
+      <c r="J2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K2" t="s">
+        <v>486</v>
+      </c>
+      <c r="L2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>369</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
-      <c r="G3">
-        <v>0.8</v>
+        <v>488</v>
+      </c>
+      <c r="D3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G3" t="s">
+        <v>461</v>
       </c>
       <c r="H3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J3" t="s">
+        <v>471</v>
+      </c>
+      <c r="K3" t="s">
+        <v>489</v>
+      </c>
+      <c r="L3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" t="s">
+        <v>463</v>
+      </c>
+      <c r="H4" t="s">
+        <v>455</v>
+      </c>
+      <c r="I4" t="s">
+        <v>425</v>
+      </c>
+      <c r="J4" t="s">
+        <v>472</v>
+      </c>
+      <c r="K4" t="s">
+        <v>493</v>
+      </c>
+      <c r="L4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H5" t="s">
+        <v>497</v>
+      </c>
+      <c r="I5" t="s">
+        <v>428</v>
+      </c>
+      <c r="J5" t="s">
+        <v>473</v>
+      </c>
+      <c r="K5" t="s">
+        <v>498</v>
+      </c>
+      <c r="L5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D6" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G6" t="s">
+        <v>496</v>
+      </c>
+      <c r="H6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J6" t="s">
+        <v>473</v>
+      </c>
+      <c r="K6" t="s">
+        <v>498</v>
+      </c>
+      <c r="L6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
+      <c r="D7" t="s">
+        <v>492</v>
+      </c>
+      <c r="E7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I7" t="s">
+        <v>425</v>
+      </c>
+      <c r="J7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>435</v>
+      </c>
+      <c r="F8" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H8" t="s">
+        <v>453</v>
+      </c>
+      <c r="I8" t="s">
+        <v>418</v>
+      </c>
+      <c r="J8" t="s">
+        <v>471</v>
+      </c>
+      <c r="K8" t="s">
+        <v>486</v>
+      </c>
+      <c r="L8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E9" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G9" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" t="s">
+        <v>454</v>
+      </c>
+      <c r="I9" t="s">
+        <v>423</v>
+      </c>
+      <c r="J9" t="s">
+        <v>471</v>
+      </c>
+      <c r="K9" t="s">
+        <v>489</v>
+      </c>
+      <c r="L9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F10" t="s">
+        <v>390</v>
+      </c>
+      <c r="G10" t="s">
+        <v>463</v>
+      </c>
+      <c r="H10" t="s">
+        <v>455</v>
+      </c>
+      <c r="I10" t="s">
+        <v>425</v>
+      </c>
+      <c r="J10" t="s">
+        <v>472</v>
+      </c>
+      <c r="K10" t="s">
+        <v>493</v>
+      </c>
+      <c r="L10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" t="s">
+        <v>393</v>
+      </c>
+      <c r="G11" t="s">
+        <v>496</v>
+      </c>
+      <c r="H11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I11" t="s">
+        <v>428</v>
+      </c>
+      <c r="J11" t="s">
+        <v>473</v>
+      </c>
+      <c r="K11" t="s">
+        <v>498</v>
+      </c>
+      <c r="L11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>506</v>
+      </c>
+      <c r="D12" t="s">
+        <v>507</v>
+      </c>
+      <c r="E12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" t="s">
+        <v>496</v>
+      </c>
+      <c r="H12" t="s">
+        <v>497</v>
+      </c>
+      <c r="I12" t="s">
+        <v>428</v>
+      </c>
+      <c r="J12" t="s">
+        <v>473</v>
+      </c>
+      <c r="K12" t="s">
+        <v>498</v>
+      </c>
+      <c r="L12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>508</v>
+      </c>
+      <c r="D13" t="s">
+        <v>509</v>
+      </c>
+      <c r="E13" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>1.9</v>
-      </c>
-      <c r="G4">
-        <v>1.9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B5" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>447</v>
+      <c r="F13" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" t="s">
+        <v>463</v>
+      </c>
+      <c r="H13" t="s">
+        <v>455</v>
+      </c>
+      <c r="I13" t="s">
+        <v>425</v>
+      </c>
+      <c r="J13" t="s">
+        <v>472</v>
+      </c>
+      <c r="K13" t="s">
+        <v>493</v>
+      </c>
+      <c r="L13" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/database_copy.xlsx
+++ b/database_copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="1000" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="1000" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Lod1_Types" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="673">
   <si>
     <t>ID</t>
   </si>
@@ -1185,9 +1185,6 @@
     <t>Em11</t>
   </si>
   <si>
-    <t>0.77</t>
-  </si>
-  <si>
     <t>Season</t>
   </si>
   <si>
@@ -1338,9 +1335,6 @@
     <t>LAI</t>
   </si>
   <si>
-    <t>OHM</t>
-  </si>
-  <si>
     <t>LGP</t>
   </si>
   <si>
@@ -2056,6 +2050,12 @@
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>MVCND</t>
+  </si>
+  <si>
+    <t>Em11243</t>
   </si>
 </sst>
 </file>
@@ -2526,26 +2526,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="34.54296875" customWidth="1"/>
-    <col min="7" max="7" width="66.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="66.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2581,10 +2581,10 @@
         <v>371</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -2622,13 +2622,13 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N2" t="s">
         <v>492</v>
       </c>
-      <c r="N2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -2666,13 +2666,13 @@
         <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -2710,13 +2710,13 @@
         <v>19</v>
       </c>
       <c r="M4" t="s">
+        <v>490</v>
+      </c>
+      <c r="N4" t="s">
         <v>492</v>
       </c>
-      <c r="N4" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2724,19 +2724,19 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D5" t="s">
         <v>657</v>
       </c>
-      <c r="D5" t="s">
-        <v>659</v>
-      </c>
       <c r="E5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -2754,13 +2754,13 @@
         <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N5" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -2795,14 +2795,13 @@
         <v>19</v>
       </c>
       <c r="M6" t="s">
+        <v>490</v>
+      </c>
+      <c r="N6" t="s">
         <v>492</v>
       </c>
-      <c r="N6" t="s">
-        <v>494</v>
-      </c>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2834,13 +2833,13 @@
         <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N7" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2857,7 +2856,7 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
@@ -2875,13 +2874,13 @@
         <v>23</v>
       </c>
       <c r="M8" t="s">
+        <v>490</v>
+      </c>
+      <c r="N8" t="s">
         <v>492</v>
       </c>
-      <c r="N8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2913,13 +2912,13 @@
         <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N9" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2951,13 +2950,13 @@
         <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N10" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H11" t="s">
         <v>36</v>
@@ -2992,13 +2991,13 @@
         <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N11" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -3030,13 +3029,13 @@
         <v>23</v>
       </c>
       <c r="M12" t="s">
+        <v>490</v>
+      </c>
+      <c r="N12" t="s">
         <v>492</v>
       </c>
-      <c r="N12" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -3071,13 +3070,13 @@
         <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N13" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -3109,13 +3108,13 @@
         <v>23</v>
       </c>
       <c r="M14" t="s">
+        <v>490</v>
+      </c>
+      <c r="N14" t="s">
         <v>492</v>
       </c>
-      <c r="N14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -3147,13 +3146,13 @@
         <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N15" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -3185,13 +3184,13 @@
         <v>23</v>
       </c>
       <c r="M16" t="s">
+        <v>490</v>
+      </c>
+      <c r="N16" t="s">
         <v>492</v>
       </c>
-      <c r="N16" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -3229,13 +3228,13 @@
         <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N17" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -3246,16 +3245,16 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H18" t="s">
         <v>51</v>
@@ -3273,13 +3272,13 @@
         <v>22</v>
       </c>
       <c r="M18" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N18" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H19" t="s">
         <v>54</v>
@@ -3317,10 +3316,10 @@
         <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -3334,16 +3333,16 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3357,21 +3356,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>367</v>
@@ -3380,10 +3379,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F2">
         <v>0.09</v>
@@ -3395,9 +3394,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
         <v>367</v>
@@ -3406,10 +3405,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F3">
         <v>0.15</v>
@@ -3421,9 +3420,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
@@ -3432,7 +3431,7 @@
         <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
@@ -3447,9 +3446,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
         <v>367</v>
@@ -3458,10 +3457,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F5">
         <v>0.12</v>
@@ -3473,9 +3472,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
         <v>367</v>
@@ -3484,10 +3483,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F6">
         <v>0.15</v>
@@ -3499,9 +3498,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
         <v>367</v>
@@ -3510,10 +3509,10 @@
         <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F7">
         <v>0.21</v>
@@ -3525,9 +3524,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>363</v>
@@ -3536,10 +3535,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F8">
         <v>0.1</v>
@@ -3551,9 +3550,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
         <v>363</v>
@@ -3562,10 +3561,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F9">
         <v>0.12</v>
@@ -3577,9 +3576,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
         <v>363</v>
@@ -3588,10 +3587,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F10">
         <v>0.18</v>
@@ -3603,9 +3602,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B11" t="s">
         <v>363</v>
@@ -3614,10 +3613,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -3629,9 +3628,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s">
         <v>363</v>
@@ -3640,10 +3639,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F12">
         <v>0.16</v>
@@ -3655,9 +3654,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B13" t="s">
         <v>363</v>
@@ -3666,10 +3665,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F13">
         <v>0.19</v>
@@ -3681,21 +3680,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B14" t="s">
         <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F14">
         <v>0.1</v>
@@ -3707,21 +3706,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B15" t="s">
         <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F15">
         <v>0.1</v>
@@ -3733,21 +3732,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B16" t="s">
         <v>367</v>
       </c>
       <c r="C16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D16" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F16">
         <v>0.1</v>
@@ -3772,9 +3771,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3788,27 +3787,27 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>592</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B2" t="s">
         <v>367</v>
@@ -3817,13 +3816,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -3838,9 +3837,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B3" t="s">
         <v>367</v>
@@ -3849,13 +3848,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G3">
         <v>7.0000000000000007E-2</v>
@@ -3870,9 +3869,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
@@ -3881,13 +3880,13 @@
         <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G4">
         <v>7.0000000000000007E-2</v>
@@ -3902,9 +3901,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B5" t="s">
         <v>367</v>
@@ -3913,13 +3912,13 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G5">
         <v>7.0000000000000007E-2</v>
@@ -3934,9 +3933,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B6" t="s">
         <v>367</v>
@@ -3945,13 +3944,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G6">
         <v>0.06</v>
@@ -3966,9 +3965,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B7" t="s">
         <v>367</v>
@@ -3977,13 +3976,13 @@
         <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G7">
         <v>5.3999999999999999E-2</v>
@@ -3998,9 +3997,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B8" t="s">
         <v>363</v>
@@ -4009,13 +4008,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G8">
         <v>4.8000000000000001E-2</v>
@@ -4030,9 +4029,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B9" t="s">
         <v>363</v>
@@ -4041,13 +4040,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G9">
         <v>4.2000000000000003E-2</v>
@@ -4062,9 +4061,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B10" t="s">
         <v>363</v>
@@ -4073,13 +4072,13 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G10">
         <v>3.5999999999999997E-2</v>
@@ -4094,9 +4093,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B11" t="s">
         <v>363</v>
@@ -4105,13 +4104,13 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G11">
         <v>0.03</v>
@@ -4126,9 +4125,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B12" t="s">
         <v>363</v>
@@ -4137,13 +4136,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G12">
         <v>2.4E-2</v>
@@ -4158,9 +4157,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B13" t="s">
         <v>363</v>
@@ -4169,13 +4168,13 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G13">
         <v>1.7999999999999999E-2</v>
@@ -4190,24 +4189,24 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B14" t="s">
         <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G14">
         <v>1.2E-2</v>
@@ -4222,24 +4221,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B15" t="s">
         <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G15">
         <v>6.0000000000000097E-3</v>
@@ -4265,12 +4264,12 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4284,39 +4283,39 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" t="s">
         <v>603</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" t="s">
         <v>604</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>605</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>606</v>
-      </c>
-      <c r="L1" t="s">
-        <v>607</v>
-      </c>
-      <c r="M1" t="s">
-        <v>608</v>
       </c>
       <c r="N1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B2" t="s">
         <v>363</v>
@@ -4325,10 +4324,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F2">
         <v>1.75833333333333</v>
@@ -4358,9 +4357,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B3" t="s">
         <v>363</v>
@@ -4369,10 +4368,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F3">
         <v>1.86</v>
@@ -4402,9 +4401,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B4" t="s">
         <v>363</v>
@@ -4413,10 +4412,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F4">
         <v>1.96166666666667</v>
@@ -4446,9 +4445,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B5" t="s">
         <v>363</v>
@@ -4457,10 +4456,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F5">
         <v>2.0633333333333299</v>
@@ -4490,9 +4489,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B6" t="s">
         <v>363</v>
@@ -4501,10 +4500,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F6">
         <v>2.165</v>
@@ -4534,9 +4533,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B7" t="s">
         <v>363</v>
@@ -4545,10 +4544,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F7">
         <v>2.2666666666666702</v>
@@ -4578,10 +4577,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
   </sheetData>
@@ -4597,9 +4596,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4613,24 +4612,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B2" t="s">
         <v>367</v>
@@ -4639,10 +4638,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -4657,9 +4656,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s">
         <v>367</v>
@@ -4668,10 +4667,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -4686,9 +4685,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
@@ -4697,7 +4696,7 @@
         <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
@@ -4715,9 +4714,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>367</v>
@@ -4726,10 +4725,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4744,9 +4743,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B6" t="s">
         <v>367</v>
@@ -4755,10 +4754,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4773,9 +4772,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B7" t="s">
         <v>367</v>
@@ -4784,10 +4783,10 @@
         <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4802,9 +4801,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
         <v>363</v>
@@ -4813,10 +4812,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4831,9 +4830,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B9" t="s">
         <v>363</v>
@@ -4842,10 +4841,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4860,9 +4859,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B10" t="s">
         <v>363</v>
@@ -4871,10 +4870,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -4889,9 +4888,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B11" t="s">
         <v>363</v>
@@ -4900,10 +4899,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -4918,9 +4917,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B12" t="s">
         <v>363</v>
@@ -4929,10 +4928,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4947,9 +4946,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B13" t="s">
         <v>363</v>
@@ -4958,10 +4957,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -4976,21 +4975,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B14" t="s">
         <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -5005,21 +5004,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B15" t="s">
         <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -5043,18 +5042,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5068,21 +5067,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
         <v>367</v>
@@ -5091,10 +5090,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F2">
         <v>1.3</v>
@@ -5106,9 +5105,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
         <v>367</v>
@@ -5117,10 +5116,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F3">
         <v>0.3</v>
@@ -5132,9 +5131,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
@@ -5143,7 +5142,7 @@
         <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
@@ -5158,9 +5157,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
         <v>367</v>
@@ -5169,10 +5168,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F5">
         <v>1.7666666666666699</v>
@@ -5184,9 +5183,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B6" t="s">
         <v>367</v>
@@ -5195,10 +5194,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F6">
         <v>2.06666666666667</v>
@@ -5210,9 +5209,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B7" t="s">
         <v>367</v>
@@ -5221,10 +5220,10 @@
         <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F7">
         <v>2.3666666666666698</v>
@@ -5236,9 +5235,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
         <v>363</v>
@@ -5247,10 +5246,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F8">
         <v>2.6666666666666701</v>
@@ -5262,9 +5261,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B9" t="s">
         <v>363</v>
@@ -5273,10 +5272,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F9">
         <v>2.9666666666666699</v>
@@ -5288,9 +5287,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B10" t="s">
         <v>363</v>
@@ -5299,10 +5298,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F10">
         <v>3.2666666666666702</v>
@@ -5314,9 +5313,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B11" t="s">
         <v>363</v>
@@ -5325,10 +5324,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F11">
         <v>3.56666666666667</v>
@@ -5340,9 +5339,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B12" t="s">
         <v>363</v>
@@ -5351,10 +5350,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F12">
         <v>3.8666666666666698</v>
@@ -5366,9 +5365,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B13" t="s">
         <v>363</v>
@@ -5377,10 +5376,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F13">
         <v>4.1666666666666696</v>
@@ -5392,21 +5391,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B14" t="s">
         <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F14">
         <v>4.4666666666666703</v>
@@ -5418,21 +5417,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B15" t="s">
         <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F15">
         <v>4.7666666666666702</v>
@@ -5457,9 +5456,9 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5473,51 +5472,51 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="L1" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="8" t="s">
         <v>639</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>641</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -5562,9 +5561,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -5609,9 +5608,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -5656,9 +5655,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -5703,7 +5702,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
@@ -5719,18 +5718,18 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="29.54296875" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5744,27 +5743,27 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
         <v>363</v>
@@ -5773,10 +5772,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F2">
         <v>0.04</v>
@@ -5794,9 +5793,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
         <v>363</v>
@@ -5805,7 +5804,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E3" t="s">
         <v>365</v>
@@ -5826,9 +5825,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
         <v>363</v>
@@ -5837,10 +5836,10 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F4">
         <v>0.44000000000000011</v>
@@ -5858,21 +5857,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F5">
         <v>0.64000000000000012</v>
@@ -5890,9 +5889,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B6" t="s">
         <v>363</v>
@@ -5901,10 +5900,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F6">
         <v>0.44000000000000011</v>
@@ -5922,21 +5921,21 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F7">
         <v>0.88</v>
@@ -5967,12 +5966,12 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="28.81640625" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5986,27 +5985,27 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>367</v>
@@ -6015,10 +6014,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -6036,9 +6035,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
         <v>367</v>
@@ -6047,10 +6046,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -6068,9 +6067,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
@@ -6079,7 +6078,7 @@
         <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
@@ -6100,9 +6099,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
         <v>367</v>
@@ -6111,10 +6110,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -6132,9 +6131,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B6" t="s">
         <v>367</v>
@@ -6143,10 +6142,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -6164,9 +6163,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B7" t="s">
         <v>367</v>
@@ -6175,10 +6174,10 @@
         <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -6196,9 +6195,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B8" t="s">
         <v>363</v>
@@ -6207,10 +6206,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -6228,9 +6227,9 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B9" t="s">
         <v>363</v>
@@ -6239,10 +6238,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -6260,9 +6259,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B10" t="s">
         <v>363</v>
@@ -6271,10 +6270,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -6292,9 +6291,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B11" t="s">
         <v>363</v>
@@ -6303,10 +6302,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -6324,9 +6323,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B12" t="s">
         <v>363</v>
@@ -6335,10 +6334,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -6356,9 +6355,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B13" t="s">
         <v>363</v>
@@ -6367,10 +6366,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -6388,21 +6387,21 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B14" t="s">
         <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -6420,21 +6419,21 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B15" t="s">
         <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -6465,13 +6464,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="17.90625" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="1" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6485,18 +6484,18 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B2" t="s">
         <v>363</v>
@@ -6505,21 +6504,21 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F2">
         <v>7.4</v>
       </c>
       <c r="G2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B3" t="s">
         <v>363</v>
@@ -6528,21 +6527,21 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F3">
         <v>11.7</v>
       </c>
       <c r="G3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B4" t="s">
         <v>363</v>
@@ -6554,18 +6553,18 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F4">
         <v>33.1</v>
       </c>
       <c r="G4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B5" t="s">
         <v>363</v>
@@ -6577,13 +6576,13 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F5">
         <v>33.1</v>
       </c>
       <c r="G5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6596,12 +6595,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" activeCellId="1" sqref="H6 E9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6615,21 +6614,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B2" t="s">
         <v>363</v>
@@ -6638,7 +6637,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E2" t="s">
         <v>71</v>
@@ -6653,9 +6652,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B3" t="s">
         <v>363</v>
@@ -6664,7 +6663,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E3" t="s">
         <v>71</v>
@@ -6679,9 +6678,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B4" t="s">
         <v>363</v>
@@ -6690,10 +6689,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F4">
         <v>0.6</v>
@@ -6705,9 +6704,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B5" t="s">
         <v>363</v>
@@ -6719,7 +6718,7 @@
         <v>374</v>
       </c>
       <c r="E5" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F5">
         <v>0.99</v>
@@ -6744,17 +6743,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C1" t="s">
         <v>361</v>
@@ -6763,76 +6762,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
@@ -6845,20 +6844,20 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K1" sqref="K1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="11" max="11" width="20.36328125" customWidth="1"/>
-    <col min="12" max="12" width="15.08984375" customWidth="1"/>
-    <col min="13" max="13" width="17.54296875" customWidth="1"/>
-    <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6866,49 +6865,49 @@
         <v>359</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>613</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>614</v>
+        <v>671</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -6916,49 +6915,49 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
         <v>364</v>
       </c>
       <c r="E2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F2" t="s">
         <v>362</v>
       </c>
       <c r="G2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -6966,49 +6965,49 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F3" t="s">
         <v>366</v>
       </c>
       <c r="G3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="P3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -7016,49 +7015,49 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F4" t="s">
         <v>368</v>
       </c>
       <c r="G4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -7066,49 +7065,49 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F5" t="s">
         <v>370</v>
       </c>
       <c r="G5" t="s">
+        <v>445</v>
+      </c>
+      <c r="H5" t="s">
+        <v>446</v>
+      </c>
+      <c r="I5" t="s">
         <v>447</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>448</v>
       </c>
-      <c r="I5" t="s">
-        <v>449</v>
-      </c>
-      <c r="J5" t="s">
-        <v>450</v>
-      </c>
       <c r="K5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P5" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -7116,49 +7115,49 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D6" t="s">
         <v>374</v>
       </c>
       <c r="E6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F6" t="s">
         <v>370</v>
       </c>
       <c r="G6" t="s">
+        <v>445</v>
+      </c>
+      <c r="H6" t="s">
+        <v>446</v>
+      </c>
+      <c r="I6" t="s">
         <v>447</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>448</v>
       </c>
-      <c r="I6" t="s">
-        <v>449</v>
-      </c>
-      <c r="J6" t="s">
-        <v>450</v>
-      </c>
       <c r="K6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -7166,49 +7165,49 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F7" t="s">
         <v>368</v>
       </c>
       <c r="G7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="N7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P7" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -7219,46 +7218,46 @@
         <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F8" t="s">
         <v>362</v>
       </c>
       <c r="G8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="J8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -7266,49 +7265,49 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F9" t="s">
         <v>366</v>
       </c>
       <c r="G9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="P9" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -7316,49 +7315,49 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F10" t="s">
         <v>368</v>
       </c>
       <c r="G10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P10" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -7366,49 +7365,49 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F11" t="s">
         <v>370</v>
       </c>
       <c r="G11" t="s">
+        <v>445</v>
+      </c>
+      <c r="H11" t="s">
+        <v>446</v>
+      </c>
+      <c r="I11" t="s">
         <v>447</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>448</v>
       </c>
-      <c r="I11" t="s">
-        <v>449</v>
-      </c>
-      <c r="J11" t="s">
-        <v>450</v>
-      </c>
       <c r="K11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P11" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -7416,49 +7415,49 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F12" t="s">
         <v>370</v>
       </c>
       <c r="G12" t="s">
+        <v>445</v>
+      </c>
+      <c r="H12" t="s">
+        <v>446</v>
+      </c>
+      <c r="I12" t="s">
         <v>447</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>448</v>
       </c>
-      <c r="I12" t="s">
-        <v>449</v>
-      </c>
-      <c r="J12" t="s">
-        <v>450</v>
-      </c>
       <c r="K12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="O12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P12" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -7466,46 +7465,46 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F13" t="s">
         <v>368</v>
       </c>
       <c r="G13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O13" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P13" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -7515,99 +7514,126 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C1" t="s">
-        <v>499</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F2" t="s">
         <v>366</v>
       </c>
       <c r="G2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="J2" t="s">
+        <v>386</v>
+      </c>
+      <c r="K2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="I3" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+      <c r="J3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L3" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -7617,20 +7643,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="N1" sqref="N1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7638,31 +7664,40 @@
         <v>359</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -7670,31 +7705,40 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G2" t="s">
         <v>362</v>
       </c>
       <c r="H2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="K2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" t="s">
+        <v>386</v>
+      </c>
+      <c r="M2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -7702,31 +7746,40 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G3" t="s">
         <v>366</v>
       </c>
       <c r="H3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+      <c r="K3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L3" t="s">
+        <v>388</v>
+      </c>
+      <c r="M3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -7734,31 +7787,40 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D4" t="s">
         <v>380</v>
       </c>
       <c r="E4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G4" t="s">
         <v>368</v>
       </c>
       <c r="H4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+      <c r="K4" t="s">
+        <v>389</v>
+      </c>
+      <c r="L4" t="s">
+        <v>389</v>
+      </c>
+      <c r="M4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -7766,252 +7828,324 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G5" t="s">
         <v>370</v>
       </c>
       <c r="H5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="K5" t="s">
+        <v>391</v>
+      </c>
+      <c r="L5" t="s">
+        <v>391</v>
+      </c>
+      <c r="M5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G6" t="s">
         <v>370</v>
       </c>
       <c r="H6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="K6" t="s">
+        <v>391</v>
+      </c>
+      <c r="L6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G7" t="s">
         <v>370</v>
       </c>
       <c r="H7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J7" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="K7" t="s">
+        <v>391</v>
+      </c>
+      <c r="L7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F8" t="s">
         <v>396</v>
-      </c>
-      <c r="D8" t="s">
-        <v>470</v>
-      </c>
-      <c r="E8" t="s">
-        <v>465</v>
-      </c>
-      <c r="F8" t="s">
-        <v>397</v>
       </c>
       <c r="G8" t="s">
         <v>370</v>
       </c>
       <c r="H8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="K8" t="s">
+        <v>391</v>
+      </c>
+      <c r="L8" t="s">
+        <v>391</v>
+      </c>
+      <c r="M8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E9" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G9" t="s">
         <v>362</v>
       </c>
       <c r="H9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="K9" t="s">
+        <v>386</v>
+      </c>
+      <c r="L9" t="s">
+        <v>386</v>
+      </c>
+      <c r="M9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D10" t="s">
         <v>369</v>
       </c>
       <c r="E10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G10" t="s">
         <v>362</v>
       </c>
       <c r="H10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J10" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="K10" t="s">
+        <v>386</v>
+      </c>
+      <c r="L10" t="s">
+        <v>386</v>
+      </c>
+      <c r="M10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G11" t="s">
         <v>370</v>
       </c>
       <c r="H11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="K11" t="s">
+        <v>391</v>
+      </c>
+      <c r="L11" t="s">
+        <v>391</v>
+      </c>
+      <c r="M11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B12" t="s">
         <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D12" t="s">
         <v>372</v>
       </c>
       <c r="E12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G12" t="s">
         <v>370</v>
       </c>
       <c r="H12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J12" t="s">
-        <v>450</v>
+        <v>391</v>
+      </c>
+      <c r="K12" t="s">
+        <v>391</v>
+      </c>
+      <c r="L12" t="s">
+        <v>391</v>
+      </c>
+      <c r="M12" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -8023,13 +8157,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8070,7 +8204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -8096,7 +8230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -8125,7 +8259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -8157,7 +8291,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -8189,7 +8323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -8218,7 +8352,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
@@ -8247,7 +8381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>101</v>
       </c>
@@ -8279,7 +8413,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -8311,7 +8445,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
@@ -8340,7 +8474,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -8372,7 +8506,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -8401,7 +8535,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>128</v>
       </c>
@@ -8433,7 +8567,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
@@ -8465,7 +8599,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>139</v>
       </c>
@@ -8497,7 +8631,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>144</v>
       </c>
@@ -8529,7 +8663,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>149</v>
       </c>
@@ -8561,7 +8695,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>154</v>
       </c>
@@ -8590,7 +8724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>158</v>
       </c>
@@ -8610,7 +8744,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -8642,7 +8776,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>168</v>
       </c>
@@ -8674,7 +8808,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>173</v>
       </c>
@@ -8706,7 +8840,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>178</v>
       </c>
@@ -8729,7 +8863,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>183</v>
       </c>
@@ -8761,7 +8895,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>189</v>
       </c>
@@ -8784,7 +8918,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>194</v>
       </c>
@@ -8816,7 +8950,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>199</v>
       </c>
@@ -8848,7 +8982,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>204</v>
       </c>
@@ -8880,7 +9014,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>209</v>
       </c>
@@ -8912,7 +9046,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>215</v>
       </c>
@@ -8938,7 +9072,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>221</v>
       </c>
@@ -8973,7 +9107,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>230</v>
       </c>
@@ -9005,7 +9139,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>236</v>
       </c>
@@ -9037,7 +9171,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>241</v>
       </c>
@@ -9069,7 +9203,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>247</v>
       </c>
@@ -9101,7 +9235,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>253</v>
       </c>
@@ -9133,7 +9267,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>259</v>
       </c>
@@ -9162,7 +9296,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>264</v>
       </c>
@@ -9194,7 +9328,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>269</v>
       </c>
@@ -9226,7 +9360,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>275</v>
       </c>
@@ -9258,7 +9392,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>280</v>
       </c>
@@ -9290,7 +9424,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>285</v>
       </c>
@@ -9322,7 +9456,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>292</v>
       </c>
@@ -9351,7 +9485,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>298</v>
       </c>
@@ -9371,7 +9505,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>302</v>
       </c>
@@ -9403,7 +9537,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>307</v>
       </c>
@@ -9432,7 +9566,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>312</v>
       </c>
@@ -9464,7 +9598,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>318</v>
       </c>
@@ -9496,7 +9630,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>324</v>
       </c>
@@ -9522,7 +9656,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>330</v>
       </c>
@@ -9554,7 +9688,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>335</v>
       </c>
@@ -9586,7 +9720,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>340</v>
       </c>
@@ -9618,7 +9752,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>346</v>
       </c>
@@ -9647,7 +9781,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>352</v>
       </c>
@@ -9679,9 +9813,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B55" t="s">
         <v>74</v>
@@ -9690,16 +9824,16 @@
         <v>2011</v>
       </c>
       <c r="D55" t="s">
+        <v>614</v>
+      </c>
+      <c r="E55" t="s">
+        <v>615</v>
+      </c>
+      <c r="F55" t="s">
         <v>616</v>
       </c>
-      <c r="E55" t="s">
-        <v>617</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="M55" t="s">
         <v>618</v>
-      </c>
-      <c r="M55" t="s">
-        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -9709,15 +9843,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9731,7 +9865,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>360</v>
@@ -9740,7 +9874,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>362</v>
       </c>
@@ -9751,10 +9885,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F2">
         <v>0.96</v>
@@ -9763,7 +9897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>366</v>
       </c>
@@ -9774,10 +9908,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F3">
         <v>0.97599999999999998</v>
@@ -9786,7 +9920,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>368</v>
       </c>
@@ -9797,7 +9931,7 @@
         <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
@@ -9809,7 +9943,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>370</v>
       </c>
@@ -9820,10 +9954,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F5">
         <v>0.66</v>
@@ -9832,7 +9966,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>373</v>
       </c>
@@ -9843,10 +9977,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F6">
         <v>0.98</v>
@@ -9855,7 +9989,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>375</v>
       </c>
@@ -9866,10 +10000,10 @@
         <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -9878,7 +10012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>376</v>
       </c>
@@ -9889,10 +10023,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F8">
         <v>0.89</v>
@@ -9901,7 +10035,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>377</v>
       </c>
@@ -9912,10 +10046,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F9">
         <v>0.996</v>
@@ -9924,7 +10058,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>378</v>
       </c>
@@ -9935,10 +10069,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F10">
         <v>0.96</v>
@@ -9947,7 +10081,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>379</v>
       </c>
@@ -9958,10 +10092,10 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F11">
         <v>0.77</v>
@@ -9970,7 +10104,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>381</v>
       </c>
@@ -9981,21 +10115,21 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
-      </c>
-      <c r="F12" t="s">
-        <v>382</v>
+        <v>520</v>
+      </c>
+      <c r="F12">
+        <v>0.77</v>
       </c>
       <c r="G12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B13" t="s">
         <v>363</v>
@@ -10004,10 +10138,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F13">
         <v>0.81</v>
@@ -10016,21 +10150,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B14" t="s">
         <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F14">
         <v>0.79213333333333302</v>
@@ -10039,26 +10173,72 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B15" t="s">
         <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F15">
         <v>0.78830303030303095</v>
       </c>
       <c r="G15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B16" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" t="s">
+        <v>482</v>
+      </c>
+      <c r="D16" t="s">
+        <v>518</v>
+      </c>
+      <c r="E16" t="s">
+        <v>523</v>
+      </c>
+      <c r="F16">
+        <v>0.78830303030303095</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C17" t="s">
+        <v>482</v>
+      </c>
+      <c r="D17" t="s">
+        <v>664</v>
+      </c>
+      <c r="E17" t="s">
+        <v>523</v>
+      </c>
+      <c r="F17">
+        <v>0.78830303030303095</v>
+      </c>
+      <c r="G17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -10075,9 +10255,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10091,27 +10271,27 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>574</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>576</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B2" t="s">
         <v>363</v>
@@ -10120,10 +10300,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F2" s="7">
         <v>6</v>
@@ -10141,9 +10321,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B3" t="s">
         <v>363</v>
@@ -10152,10 +10332,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F3" s="7">
         <v>7</v>
@@ -10173,9 +10353,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B4" t="s">
         <v>363</v>
@@ -10184,10 +10364,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F4" s="7">
         <v>3</v>
@@ -10205,9 +10385,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B5" t="s">
         <v>363</v>
@@ -10216,10 +10396,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F5" s="7">
         <v>4</v>
@@ -10247,12 +10427,12 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10266,27 +10446,27 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B2" t="s">
         <v>367</v>
@@ -10295,13 +10475,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G2">
         <v>0.09</v>
@@ -10316,9 +10496,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
         <v>367</v>
@@ -10327,13 +10507,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G3">
         <v>7.0000000000000007E-2</v>
@@ -10348,9 +10528,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
@@ -10359,13 +10539,13 @@
         <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E4" t="s">
         <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G4">
         <v>7.0000000000000007E-2</v>
@@ -10380,9 +10560,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>367</v>
@@ -10391,13 +10571,13 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G5">
         <v>7.0000000000000007E-2</v>
@@ -10412,9 +10592,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
         <v>367</v>
@@ -10423,13 +10603,13 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G6">
         <v>0.06</v>
@@ -10444,9 +10624,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s">
         <v>367</v>
@@ -10455,13 +10635,13 @@
         <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G7">
         <v>5.3999999999999999E-2</v>
@@ -10476,9 +10656,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B8" t="s">
         <v>363</v>
@@ -10487,13 +10667,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E8" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G8">
         <v>4.8000000000000001E-2</v>
@@ -10508,9 +10688,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B9" t="s">
         <v>363</v>
@@ -10519,13 +10699,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G9">
         <v>4.2000000000000003E-2</v>
@@ -10540,9 +10720,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
         <v>363</v>
@@ -10551,13 +10731,13 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G10">
         <v>3.5999999999999997E-2</v>
@@ -10572,9 +10752,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
         <v>363</v>
@@ -10583,13 +10763,13 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G11">
         <v>0.03</v>
@@ -10604,9 +10784,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B12" t="s">
         <v>363</v>
@@ -10615,13 +10795,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G12">
         <v>2.4E-2</v>
@@ -10636,9 +10816,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B13" t="s">
         <v>363</v>
@@ -10647,13 +10827,13 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G13">
         <v>1.7999999999999999E-2</v>
@@ -10668,24 +10848,24 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B14" t="s">
         <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G14">
         <v>1.2E-2</v>
@@ -10700,24 +10880,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B15" t="s">
         <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E15" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G15">
         <v>6.0000000000000097E-3</v>

--- a/database_copy.xlsx
+++ b/database_copy.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="673">
   <si>
     <t>ID</t>
   </si>
@@ -7517,7 +7517,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9843,10 +9843,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10198,7 +10198,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>535</v>
+        <v>672</v>
       </c>
       <c r="B16" t="s">
         <v>367</v>
@@ -10207,7 +10207,7 @@
         <v>482</v>
       </c>
       <c r="D16" t="s">
-        <v>518</v>
+        <v>664</v>
       </c>
       <c r="E16" t="s">
         <v>523</v>
@@ -10216,29 +10216,6 @@
         <v>0.78830303030303095</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B17" t="s">
-        <v>367</v>
-      </c>
-      <c r="C17" t="s">
-        <v>482</v>
-      </c>
-      <c r="D17" t="s">
-        <v>664</v>
-      </c>
-      <c r="E17" t="s">
-        <v>523</v>
-      </c>
-      <c r="F17">
-        <v>0.78830303030303095</v>
-      </c>
-      <c r="G17" t="s">
         <v>73</v>
       </c>
     </row>

--- a/database_copy.xlsx
+++ b/database_copy.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="1000" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="1000"/>
   </bookViews>
   <sheets>
-    <sheet name="Lod1_Types" sheetId="1" r:id="rId1"/>
-    <sheet name="Lod1_Region" sheetId="21" r:id="rId2"/>
+    <sheet name="Lod0_Region" sheetId="21" r:id="rId1"/>
+    <sheet name="Lod1_Types" sheetId="1" r:id="rId2"/>
     <sheet name="Lod2_Veg" sheetId="9" r:id="rId3"/>
     <sheet name="Lod2_Water" sheetId="14" r:id="rId4"/>
     <sheet name="Lod2_NonVeg" sheetId="10" r:id="rId5"/>
@@ -35,14 +35,16 @@
     <sheet name="Lod3_ESTM" sheetId="22" r:id="rId21"/>
     <sheet name="Lod3_Profiles" sheetId="23" r:id="rId22"/>
     <sheet name="Lod3_Irrigation" sheetId="24" r:id="rId23"/>
-    <sheet name="Lod3_Soil" sheetId="25" r:id="rId24"/>
+    <sheet name="Lod3_Snow" sheetId="28" r:id="rId24"/>
+    <sheet name="Lod3_Soil" sheetId="25" r:id="rId25"/>
+    <sheet name="Lod3_AnthropogenicEmission" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="980">
   <si>
     <t>ID</t>
   </si>
@@ -1979,18 +1981,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Reg1</t>
-  </si>
-  <si>
-    <t>Reg2</t>
-  </si>
-  <si>
-    <t>Reg3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Europe </t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/3/37/Suburbia_by_David_Shankbone.jpg</t>
   </si>
   <si>
@@ -2375,9 +2365,6 @@
     <t>Swindon, UK</t>
   </si>
   <si>
-    <t>Water use</t>
-  </si>
-  <si>
     <t>Los Angeles, USA</t>
   </si>
   <si>
@@ -2643,6 +2630,360 @@
   </si>
   <si>
     <t>Uganda</t>
+  </si>
+  <si>
+    <t>BIOGEN</t>
+  </si>
+  <si>
+    <t>BaseT_HC</t>
+  </si>
+  <si>
+    <t>QF_A_WD</t>
+  </si>
+  <si>
+    <t>QF_B_WD</t>
+  </si>
+  <si>
+    <t>QF_C_WD</t>
+  </si>
+  <si>
+    <t>QF_A_WE</t>
+  </si>
+  <si>
+    <t>QF_B_WE</t>
+  </si>
+  <si>
+    <t>QF_C_WE</t>
+  </si>
+  <si>
+    <t>AHMin_WD</t>
+  </si>
+  <si>
+    <t>AHMin_WE</t>
+  </si>
+  <si>
+    <t>AHSlope_Heating_WD</t>
+  </si>
+  <si>
+    <t>AHSlope_Heating_WE</t>
+  </si>
+  <si>
+    <t>AHSlope_Cooling_WD</t>
+  </si>
+  <si>
+    <t>AHSlope_Cooling_WE</t>
+  </si>
+  <si>
+    <t>TCritic_Heating_WD</t>
+  </si>
+  <si>
+    <t>TCritic_Heating_WE</t>
+  </si>
+  <si>
+    <t>TCritic_Cooling_WD</t>
+  </si>
+  <si>
+    <t>TCritic_Cooling_WE</t>
+  </si>
+  <si>
+    <t>EnergyUseProfWD</t>
+  </si>
+  <si>
+    <t>EnergyUseProfWE</t>
+  </si>
+  <si>
+    <t>ActivityProfWD</t>
+  </si>
+  <si>
+    <t>ActivityProfWE</t>
+  </si>
+  <si>
+    <t>TraffProfWD</t>
+  </si>
+  <si>
+    <t>TraffProfWE</t>
+  </si>
+  <si>
+    <t>PopProfWD</t>
+  </si>
+  <si>
+    <t>PopProfWE</t>
+  </si>
+  <si>
+    <t>MinQFMetab</t>
+  </si>
+  <si>
+    <t>MaxQFMetab</t>
+  </si>
+  <si>
+    <t>MinFCMetab</t>
+  </si>
+  <si>
+    <t>MaxFCMetab</t>
+  </si>
+  <si>
+    <t>FrPDDwe</t>
+  </si>
+  <si>
+    <t>FrFossilFuel_Heat</t>
+  </si>
+  <si>
+    <t>FrFossilFuel_NonHeat</t>
+  </si>
+  <si>
+    <t>EF_umolCO2perJ</t>
+  </si>
+  <si>
+    <t>EnEF_v_Jkm</t>
+  </si>
+  <si>
+    <t>FcEF_v_kgkmWD</t>
+  </si>
+  <si>
+    <t>FcEF_v_kgkmWE</t>
+  </si>
+  <si>
+    <t>CO2PointSource</t>
+  </si>
+  <si>
+    <t>TrafficUnits</t>
+  </si>
+  <si>
+    <t>ANEM10</t>
+  </si>
+  <si>
+    <t>ANEM551</t>
+  </si>
+  <si>
+    <t>ANEM11</t>
+  </si>
+  <si>
+    <t>ANEM5511</t>
+  </si>
+  <si>
+    <t>ANEM661</t>
+  </si>
+  <si>
+    <t>ANEM51</t>
+  </si>
+  <si>
+    <t>ANEM52</t>
+  </si>
+  <si>
+    <t>ANEM53</t>
+  </si>
+  <si>
+    <t>ANEM100</t>
+  </si>
+  <si>
+    <t>ANEM771</t>
+  </si>
+  <si>
+    <t>Something</t>
+  </si>
+  <si>
+    <t>Another</t>
+  </si>
+  <si>
+    <t>Yet another</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Copenhagen?</t>
+  </si>
+  <si>
+    <t>Disco ANEM</t>
+  </si>
+  <si>
+    <t>Pub</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>TrafficRate_WD</t>
+  </si>
+  <si>
+    <t>TrafficRate_WE</t>
+  </si>
+  <si>
+    <t>CondCode</t>
+  </si>
+  <si>
+    <t>SnowCode</t>
+  </si>
+  <si>
+    <t>SnowClearingProfWD</t>
+  </si>
+  <si>
+    <t>SnowClearingProfWE</t>
+  </si>
+  <si>
+    <t>AnthropogenicCode</t>
+  </si>
+  <si>
+    <t>IrrigationCode</t>
+  </si>
+  <si>
+    <t>WaterUseProfManuWD</t>
+  </si>
+  <si>
+    <t>WaterUseProfManuWE</t>
+  </si>
+  <si>
+    <t>WaterUseProfAutoWD</t>
+  </si>
+  <si>
+    <t>WaterUseProfAutoWE</t>
+  </si>
+  <si>
+    <t>Snow1</t>
+  </si>
+  <si>
+    <t>Snow2</t>
+  </si>
+  <si>
+    <t>RadMeltFactor</t>
+  </si>
+  <si>
+    <t>TempMeltFactor</t>
+  </si>
+  <si>
+    <t>AlbedoMin</t>
+  </si>
+  <si>
+    <t>AlbedoMax</t>
+  </si>
+  <si>
+    <t>tau_a</t>
+  </si>
+  <si>
+    <t>tau_f</t>
+  </si>
+  <si>
+    <t>PrecipLimAlb</t>
+  </si>
+  <si>
+    <t>SnowDensMin</t>
+  </si>
+  <si>
+    <t>SnowDensMax</t>
+  </si>
+  <si>
+    <t>tau_r</t>
+  </si>
+  <si>
+    <t>CRWMin</t>
+  </si>
+  <si>
+    <t>CRWMax</t>
+  </si>
+  <si>
+    <t>PrecipLimSnow</t>
+  </si>
+  <si>
+    <t>OHMCode_SummerWet</t>
+  </si>
+  <si>
+    <t>OHMCode_SummerDry</t>
+  </si>
+  <si>
+    <t>OHMCode_WinterWet</t>
+  </si>
+  <si>
+    <t>OHMCode_WinterDry</t>
+  </si>
+  <si>
+    <t>OHMThresh_SW</t>
+  </si>
+  <si>
+    <t>OHMThresh_WD</t>
+  </si>
+  <si>
+    <t>ESTMCode</t>
+  </si>
+  <si>
+    <t>Snow3</t>
+  </si>
+  <si>
+    <t>Snow4</t>
+  </si>
+  <si>
+    <t>Brooklyn, USA</t>
+  </si>
+  <si>
+    <t>Irkutsk, Russia</t>
+  </si>
+  <si>
+    <t>Kyoto, Japan</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>Powdersnow</t>
+  </si>
+  <si>
+    <t>BuidlingA</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Water use (manual)</t>
+  </si>
+  <si>
+    <t>Water use (automatic)</t>
+  </si>
+  <si>
+    <t>Reg1634655290</t>
+  </si>
+  <si>
+    <t>Edinburough</t>
+  </si>
+  <si>
+    <t>British Isles</t>
+  </si>
+  <si>
+    <t>Reg1634656732</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>ISS</t>
+  </si>
+  <si>
+    <t>SPace is the PLace</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Reg1634657877</t>
+  </si>
+  <si>
+    <t>Northern Europe</t>
+  </si>
+  <si>
+    <t>Coastal large City</t>
   </si>
 </sst>
 </file>
@@ -2697,7 +3038,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2758,19 +3099,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2785,7 +3113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2806,9 +3134,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3114,805 +3439,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="34.54296875" customWidth="1"/>
-    <col min="7" max="7" width="66.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+    <col min="5" max="8" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="19.90625" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" customWidth="1"/>
+    <col min="11" max="11" width="21.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" customWidth="1"/>
+    <col min="13" max="13" width="23.1796875" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="20.1796875" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D1" t="s">
+        <v>922</v>
+      </c>
+      <c r="E1" t="s">
+        <v>923</v>
+      </c>
+      <c r="F1" t="s">
+        <v>924</v>
+      </c>
+      <c r="G1" t="s">
+        <v>925</v>
+      </c>
+      <c r="H1" t="s">
+        <v>926</v>
+      </c>
+      <c r="I1" t="s">
+        <v>927</v>
+      </c>
+      <c r="J1" t="s">
+        <v>928</v>
+      </c>
+      <c r="K1" t="s">
+        <v>929</v>
+      </c>
+      <c r="L1" t="s">
+        <v>930</v>
+      </c>
+      <c r="M1" t="s">
+        <v>931</v>
+      </c>
+      <c r="N1" t="s">
+        <v>932</v>
+      </c>
+      <c r="O1" t="s">
+        <v>933</v>
+      </c>
+      <c r="P1" t="s">
+        <v>934</v>
+      </c>
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>968</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>629</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>969</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>782</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>782</v>
       </c>
       <c r="G2" t="s">
-        <v>650</v>
+        <v>424</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>935</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>781</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>781</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>901</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>822</v>
       </c>
       <c r="M2" t="s">
-        <v>489</v>
+        <v>775</v>
       </c>
       <c r="N2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
+        <v>775</v>
+      </c>
+      <c r="O2" t="s">
+        <v>776</v>
+      </c>
+      <c r="P2" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>971</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>972</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>973</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>974</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>783</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>783</v>
       </c>
       <c r="G3" t="s">
-        <v>651</v>
+        <v>427</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>935</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>788</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>784</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>902</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>825</v>
       </c>
       <c r="M3" t="s">
-        <v>489</v>
+        <v>775</v>
       </c>
       <c r="N3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
+        <v>775</v>
+      </c>
+      <c r="O3" t="s">
+        <v>776</v>
+      </c>
+      <c r="P3" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>977</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>978</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>631</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>441</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>782</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>782</v>
       </c>
       <c r="G4" t="s">
-        <v>652</v>
+        <v>427</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>936</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>787</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>781</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>907</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>823</v>
       </c>
       <c r="M4" t="s">
-        <v>489</v>
+        <v>775</v>
       </c>
       <c r="N4" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>654</v>
-      </c>
-      <c r="D5" t="s">
-        <v>656</v>
-      </c>
-      <c r="E5" t="s">
-        <v>655</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>657</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>490</v>
-      </c>
-      <c r="N5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>653</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" t="s">
-        <v>489</v>
-      </c>
-      <c r="N6" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" t="s">
-        <v>489</v>
-      </c>
-      <c r="N7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>659</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" t="s">
-        <v>489</v>
-      </c>
-      <c r="N8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" t="s">
-        <v>489</v>
-      </c>
-      <c r="N9" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>490</v>
-      </c>
-      <c r="N10" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>658</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" t="s">
-        <v>489</v>
-      </c>
-      <c r="N11" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" t="s">
-        <v>489</v>
-      </c>
-      <c r="N12" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>649</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s">
-        <v>489</v>
-      </c>
-      <c r="N13" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" t="s">
-        <v>489</v>
-      </c>
-      <c r="N14" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" t="s">
-        <v>489</v>
-      </c>
-      <c r="N15" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" t="s">
-        <v>489</v>
-      </c>
-      <c r="N16" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" t="s">
-        <v>489</v>
-      </c>
-      <c r="N17" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>494</v>
-      </c>
-      <c r="E18" t="s">
-        <v>495</v>
-      </c>
-      <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>661</v>
-      </c>
-      <c r="H18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" t="s">
-        <v>490</v>
-      </c>
-      <c r="N18" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>660</v>
-      </c>
-      <c r="H19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" t="s">
-        <v>489</v>
-      </c>
-      <c r="N19" t="s">
-        <v>567</v>
+        <v>775</v>
+      </c>
+      <c r="O4" t="s">
+        <v>776</v>
+      </c>
+      <c r="P4" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>979</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4817,7 +4578,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B16" t="s">
         <v>367</v>
@@ -4826,7 +4587,7 @@
         <v>482</v>
       </c>
       <c r="D16" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E16" t="s">
         <v>487</v>
@@ -5347,7 +5108,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6533,10 +6294,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6578,13 +6339,13 @@
       <c r="L1" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>636</v>
       </c>
       <c r="P1" s="8" t="s">
@@ -6601,8 +6362,17 @@
       <c r="A2" s="1" t="s">
         <v>424</v>
       </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
       <c r="C2" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E2" t="s">
+        <v>475</v>
       </c>
       <c r="F2">
         <v>13.8</v>
@@ -6648,8 +6418,17 @@
       <c r="A3" s="1" t="s">
         <v>425</v>
       </c>
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E3" t="s">
+        <v>365</v>
       </c>
       <c r="F3">
         <v>16.8</v>
@@ -6695,8 +6474,17 @@
       <c r="A4" s="1" t="s">
         <v>426</v>
       </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E4" t="s">
+        <v>476</v>
       </c>
       <c r="F4">
         <v>34</v>
@@ -6742,9 +6530,18 @@
       <c r="A5" s="1" t="s">
         <v>427</v>
       </c>
+      <c r="B5" t="s">
+        <v>367</v>
+      </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>964</v>
+      </c>
+      <c r="E5" t="s">
+        <v>476</v>
+      </c>
       <c r="F5">
         <v>1234</v>
       </c>
@@ -6784,9 +6581,6 @@
       <c r="R5" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6798,7 +6592,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E2" sqref="D2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7046,7 +6840,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7544,7 +7338,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7675,105 +7469,805 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" customWidth="1"/>
+    <col min="3" max="3" width="34.54296875" customWidth="1"/>
+    <col min="7" max="7" width="66.453125" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>645</v>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>646</v>
       </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>489</v>
+      </c>
+      <c r="N2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>647</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>489</v>
+      </c>
+      <c r="N3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>648</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>489</v>
+      </c>
+      <c r="N4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>653</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>490</v>
+      </c>
+      <c r="N5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>649</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>489</v>
+      </c>
+      <c r="N6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>489</v>
+      </c>
+      <c r="N7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>655</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>489</v>
+      </c>
+      <c r="N8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>489</v>
+      </c>
+      <c r="N9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>490</v>
+      </c>
+      <c r="N10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>654</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>489</v>
+      </c>
+      <c r="N11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>489</v>
+      </c>
+      <c r="N12" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>645</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>489</v>
+      </c>
+      <c r="N13" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>489</v>
+      </c>
+      <c r="N14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>489</v>
+      </c>
+      <c r="N15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
+        <v>489</v>
+      </c>
+      <c r="N16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>489</v>
+      </c>
+      <c r="N17" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>494</v>
+      </c>
+      <c r="E18" t="s">
+        <v>495</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>657</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>490</v>
+      </c>
+      <c r="N18" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>656</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" t="s">
+        <v>489</v>
+      </c>
+      <c r="N19" t="s">
+        <v>567</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7782,7 +8276,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7841,7 +8335,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B3" t="s">
         <v>363</v>
@@ -7867,7 +8361,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B4" t="s">
         <v>363</v>
@@ -7876,10 +8370,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F4">
         <v>0.6</v>
@@ -7893,7 +8387,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B5" t="s">
         <v>363</v>
@@ -7905,7 +8399,7 @@
         <v>374</v>
       </c>
       <c r="E5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F5">
         <v>0.99</v>
@@ -7926,8 +8420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7952,157 +8446,157 @@
         <v>496</v>
       </c>
       <c r="F1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I1" t="s">
+        <v>685</v>
+      </c>
+      <c r="J1" t="s">
         <v>686</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>687</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>688</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>689</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>690</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>691</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>692</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>693</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>694</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>695</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>696</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>697</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>698</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>699</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>700</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>701</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>702</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>703</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>704</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>705</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>706</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>707</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>708</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>709</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>710</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>711</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>712</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>713</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>714</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>715</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>716</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>717</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>718</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>719</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>720</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" t="s">
         <v>721</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>722</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>723</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>724</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>725</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>726</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>727</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>728</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>729</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>730</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>731</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" t="s">
         <v>732</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>733</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>734</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>735</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>736</v>
       </c>
       <c r="BE1" t="s">
         <v>361</v>
@@ -8110,7 +8604,7 @@
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B2" t="s">
         <v>367</v>
@@ -8119,10 +8613,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F2">
         <v>0.03</v>
@@ -8283,7 +8777,7 @@
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B3" t="s">
         <v>367</v>
@@ -8292,10 +8786,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="E3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F3">
         <v>0.2</v>
@@ -8453,7 +8947,7 @@
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
@@ -8462,10 +8956,10 @@
         <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E4" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F4">
         <v>0.1</v>
@@ -8626,7 +9120,7 @@
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B5" t="s">
         <v>367</v>
@@ -8635,10 +9129,10 @@
         <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E5" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F5">
         <v>0.1</v>
@@ -8796,7 +9290,7 @@
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B6" t="s">
         <v>367</v>
@@ -8805,10 +9299,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E6" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F6">
         <v>0.2</v>
@@ -8816,7 +9310,7 @@
       <c r="G6">
         <v>0.93</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>1500000</v>
       </c>
       <c r="I6">
@@ -8825,7 +9319,7 @@
       <c r="J6">
         <v>0.19</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>1520000</v>
       </c>
       <c r="L6">
@@ -8834,7 +9328,7 @@
       <c r="M6">
         <v>0.05</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>290000</v>
       </c>
       <c r="O6">
@@ -8861,7 +9355,7 @@
       <c r="V6">
         <v>1.3728</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="10">
         <v>1640000</v>
       </c>
       <c r="X6">
@@ -8870,7 +9364,7 @@
       <c r="Y6">
         <v>1.3728</v>
       </c>
-      <c r="Z6" s="11">
+      <c r="Z6" s="10">
         <v>1640000</v>
       </c>
       <c r="AA6">
@@ -8879,7 +9373,7 @@
       <c r="AB6">
         <v>1.3728</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="10">
         <v>1640000</v>
       </c>
       <c r="AD6">
@@ -8906,7 +9400,7 @@
       <c r="AK6">
         <v>0.93</v>
       </c>
-      <c r="AL6" s="11">
+      <c r="AL6" s="10">
         <v>1500000</v>
       </c>
       <c r="AM6">
@@ -8915,7 +9409,7 @@
       <c r="AN6">
         <v>0.93</v>
       </c>
-      <c r="AO6" s="11">
+      <c r="AO6" s="10">
         <v>1500000</v>
       </c>
       <c r="AP6">
@@ -8924,7 +9418,7 @@
       <c r="AQ6">
         <v>0.93</v>
       </c>
-      <c r="AR6" s="11">
+      <c r="AR6" s="10">
         <v>1500000</v>
       </c>
       <c r="AS6">
@@ -8966,7 +9460,7 @@
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B7" t="s">
         <v>367</v>
@@ -8975,10 +9469,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E7" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F7">
         <v>0.03</v>
@@ -8986,7 +9480,7 @@
       <c r="G7">
         <v>0.74</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>1900000</v>
       </c>
       <c r="I7">
@@ -8995,7 +9489,7 @@
       <c r="J7">
         <v>0.93</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>1500000</v>
       </c>
       <c r="L7">
@@ -9004,7 +9498,7 @@
       <c r="M7">
         <v>0.06</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>70000</v>
       </c>
       <c r="O7">
@@ -9031,7 +9525,7 @@
       <c r="V7">
         <v>0.95</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="10">
         <v>1600000</v>
       </c>
       <c r="X7">
@@ -9040,7 +9534,7 @@
       <c r="Y7">
         <v>0.95</v>
       </c>
-      <c r="Z7" s="11">
+      <c r="Z7" s="10">
         <v>1600000</v>
       </c>
       <c r="AA7">
@@ -9049,7 +9543,7 @@
       <c r="AB7">
         <v>0.95</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="10">
         <v>1600000</v>
       </c>
       <c r="AD7">
@@ -9076,7 +9570,7 @@
       <c r="AK7">
         <v>0.93</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AL7" s="10">
         <v>1500000</v>
       </c>
       <c r="AM7">
@@ -9085,7 +9579,7 @@
       <c r="AN7">
         <v>0.93</v>
       </c>
-      <c r="AO7" s="11">
+      <c r="AO7" s="10">
         <v>1500000</v>
       </c>
       <c r="AP7">
@@ -9094,7 +9588,7 @@
       <c r="AQ7">
         <v>0.93</v>
       </c>
-      <c r="AR7" s="11">
+      <c r="AR7" s="10">
         <v>1500000</v>
       </c>
       <c r="AS7">
@@ -9136,7 +9630,7 @@
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B8" t="s">
         <v>367</v>
@@ -9145,7 +9639,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="E8" t="s">
         <v>434</v>
@@ -9156,7 +9650,7 @@
       <c r="G8">
         <v>0.91</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>1500000</v>
       </c>
       <c r="I8">
@@ -9165,7 +9659,7 @@
       <c r="J8">
         <v>0.93</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>1500000</v>
       </c>
       <c r="L8">
@@ -9174,7 +9668,7 @@
       <c r="M8">
         <v>0.05</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>290000</v>
       </c>
       <c r="O8">
@@ -9201,7 +9695,7 @@
       <c r="V8">
         <v>1.3728</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="10">
         <v>1640000</v>
       </c>
       <c r="X8">
@@ -9210,7 +9704,7 @@
       <c r="Y8">
         <v>1.3728</v>
       </c>
-      <c r="Z8" s="11">
+      <c r="Z8" s="10">
         <v>1640000</v>
       </c>
       <c r="AA8">
@@ -9219,7 +9713,7 @@
       <c r="AB8">
         <v>1.3728</v>
       </c>
-      <c r="AC8" s="11">
+      <c r="AC8" s="10">
         <v>1640000</v>
       </c>
       <c r="AD8">
@@ -9246,7 +9740,7 @@
       <c r="AK8">
         <v>0.93</v>
       </c>
-      <c r="AL8" s="11">
+      <c r="AL8" s="10">
         <v>1500000</v>
       </c>
       <c r="AM8">
@@ -9255,7 +9749,7 @@
       <c r="AN8">
         <v>0.93</v>
       </c>
-      <c r="AO8" s="11">
+      <c r="AO8" s="10">
         <v>1500000</v>
       </c>
       <c r="AP8">
@@ -9264,7 +9758,7 @@
       <c r="AQ8">
         <v>0.93</v>
       </c>
-      <c r="AR8" s="11">
+      <c r="AR8" s="10">
         <v>1500000</v>
       </c>
       <c r="AS8">
@@ -9306,7 +9800,7 @@
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B9" t="s">
         <v>367</v>
@@ -9315,10 +9809,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="E9" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F9">
         <v>1.4999999999999999E-2</v>
@@ -9326,7 +9820,7 @@
       <c r="G9">
         <v>0.33</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>1390000</v>
       </c>
       <c r="I9">
@@ -9335,7 +9829,7 @@
       <c r="J9">
         <v>0.93</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>1500000</v>
       </c>
       <c r="L9">
@@ -9344,7 +9838,7 @@
       <c r="M9">
         <v>0.06</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>70000</v>
       </c>
       <c r="O9">
@@ -9371,7 +9865,7 @@
       <c r="V9">
         <v>0.65059999999999996</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="10">
         <v>1160000</v>
       </c>
       <c r="X9">
@@ -9380,7 +9874,7 @@
       <c r="Y9">
         <v>0.65059999999999996</v>
       </c>
-      <c r="Z9" s="11">
+      <c r="Z9" s="10">
         <v>1160000</v>
       </c>
       <c r="AA9">
@@ -9389,7 +9883,7 @@
       <c r="AB9">
         <v>0.65059999999999996</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AC9" s="10">
         <v>1160000</v>
       </c>
       <c r="AD9">
@@ -9416,7 +9910,7 @@
       <c r="AK9">
         <v>0.19</v>
       </c>
-      <c r="AL9" s="11">
+      <c r="AL9" s="10">
         <v>1520000</v>
       </c>
       <c r="AM9">
@@ -9425,7 +9919,7 @@
       <c r="AN9">
         <v>0.19</v>
       </c>
-      <c r="AO9" s="11">
+      <c r="AO9" s="10">
         <v>1520000</v>
       </c>
       <c r="AP9">
@@ -9434,7 +9928,7 @@
       <c r="AQ9">
         <v>0.19</v>
       </c>
-      <c r="AR9" s="11">
+      <c r="AR9" s="10">
         <v>1520000</v>
       </c>
       <c r="AS9">
@@ -9476,7 +9970,7 @@
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B10" t="s">
         <v>367</v>
@@ -9485,10 +9979,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="E10" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F10">
         <v>0.03</v>
@@ -9496,7 +9990,7 @@
       <c r="G10">
         <v>0.74</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>1900000</v>
       </c>
       <c r="I10">
@@ -9505,7 +9999,7 @@
       <c r="J10">
         <v>0.93</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>1500000</v>
       </c>
       <c r="L10">
@@ -9514,7 +10008,7 @@
       <c r="M10">
         <v>0.06</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>70000</v>
       </c>
       <c r="O10">
@@ -9541,7 +10035,7 @@
       <c r="V10">
         <v>1.3728</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="10">
         <v>1640000</v>
       </c>
       <c r="X10">
@@ -9550,7 +10044,7 @@
       <c r="Y10">
         <v>1.3728</v>
       </c>
-      <c r="Z10" s="11">
+      <c r="Z10" s="10">
         <v>1640000</v>
       </c>
       <c r="AA10">
@@ -9559,7 +10053,7 @@
       <c r="AB10">
         <v>1.3728</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AC10" s="10">
         <v>1640000</v>
       </c>
       <c r="AD10">
@@ -9586,7 +10080,7 @@
       <c r="AK10">
         <v>0.19</v>
       </c>
-      <c r="AL10" s="11">
+      <c r="AL10" s="10">
         <v>1520000</v>
       </c>
       <c r="AM10">
@@ -9595,7 +10089,7 @@
       <c r="AN10">
         <v>0.93</v>
       </c>
-      <c r="AO10" s="11">
+      <c r="AO10" s="10">
         <v>1500000</v>
       </c>
       <c r="AP10">
@@ -9604,7 +10098,7 @@
       <c r="AQ10">
         <v>0.19</v>
       </c>
-      <c r="AR10" s="11">
+      <c r="AR10" s="10">
         <v>1520000</v>
       </c>
       <c r="AS10">
@@ -9646,7 +10140,7 @@
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B11" t="s">
         <v>367</v>
@@ -9655,10 +10149,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E11" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F11">
         <v>0.1</v>
@@ -9666,7 +10160,7 @@
       <c r="G11">
         <v>0.91</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>1500000</v>
       </c>
       <c r="I11">
@@ -9675,7 +10169,7 @@
       <c r="J11">
         <v>0.93</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>1500000</v>
       </c>
       <c r="L11">
@@ -9684,7 +10178,7 @@
       <c r="M11">
         <v>0.63</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>1200000</v>
       </c>
       <c r="O11">
@@ -9693,7 +10187,7 @@
       <c r="P11">
         <v>0.63</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>1200000</v>
       </c>
       <c r="R11">
@@ -9816,7 +10310,7 @@
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B12" t="s">
         <v>367</v>
@@ -9825,7 +10319,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E12" t="s">
         <v>434</v>
@@ -9836,7 +10330,7 @@
       <c r="G12">
         <v>0.76</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>1500000</v>
       </c>
       <c r="I12">
@@ -9845,7 +10339,7 @@
       <c r="J12">
         <v>0.63</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>1200000</v>
       </c>
       <c r="L12">
@@ -9854,7 +10348,7 @@
       <c r="M12">
         <v>0.63</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>1200000</v>
       </c>
       <c r="O12">
@@ -9863,7 +10357,7 @@
       <c r="P12">
         <v>0.63</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>1200000</v>
       </c>
       <c r="R12">
@@ -9986,7 +10480,7 @@
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B13" t="s">
         <v>367</v>
@@ -9995,10 +10489,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="E13" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F13">
         <v>0.1</v>
@@ -10006,7 +10500,7 @@
       <c r="G13">
         <v>0.74</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>1900000</v>
       </c>
       <c r="I13">
@@ -10015,7 +10509,7 @@
       <c r="J13">
         <v>0.74</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>1900000</v>
       </c>
       <c r="L13">
@@ -10024,7 +10518,7 @@
       <c r="M13">
         <v>0.63</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <v>1200000</v>
       </c>
       <c r="O13">
@@ -10033,7 +10527,7 @@
       <c r="P13">
         <v>0.63</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>1200000</v>
       </c>
       <c r="R13">
@@ -10156,7 +10650,7 @@
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B14" t="s">
         <v>367</v>
@@ -10165,10 +10659,10 @@
         <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E14" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F14">
         <v>0.2</v>
@@ -10176,7 +10670,7 @@
       <c r="G14">
         <v>0.4</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>1430000</v>
       </c>
       <c r="I14">
@@ -10185,7 +10679,7 @@
       <c r="J14">
         <v>0.4</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>1430000</v>
       </c>
       <c r="L14">
@@ -10194,7 +10688,7 @@
       <c r="M14">
         <v>1</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>1820000</v>
       </c>
       <c r="O14">
@@ -10203,7 +10697,7 @@
       <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="10">
         <v>1820000</v>
       </c>
       <c r="R14">
@@ -10326,7 +10820,7 @@
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B15" t="s">
         <v>363</v>
@@ -10335,10 +10829,10 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="E15" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F15">
         <v>0.5</v>
@@ -10346,7 +10840,7 @@
       <c r="G15">
         <v>0.19</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>1520000</v>
       </c>
       <c r="I15">
@@ -10355,7 +10849,7 @@
       <c r="J15">
         <v>0.19</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>1520000</v>
       </c>
       <c r="L15">
@@ -10364,7 +10858,7 @@
       <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <v>1820000</v>
       </c>
       <c r="O15">
@@ -10373,7 +10867,7 @@
       <c r="P15">
         <v>1</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="10">
         <v>1820000</v>
       </c>
       <c r="R15">
@@ -10496,7 +10990,7 @@
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B16" t="s">
         <v>363</v>
@@ -10505,10 +10999,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E16" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F16">
         <v>0.5</v>
@@ -10516,7 +11010,7 @@
       <c r="G16">
         <v>0.19</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>1520000</v>
       </c>
       <c r="I16">
@@ -10525,7 +11019,7 @@
       <c r="J16">
         <v>0.19</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>1520000</v>
       </c>
       <c r="L16">
@@ -10534,7 +11028,7 @@
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>1820000</v>
       </c>
       <c r="O16">
@@ -10543,7 +11037,7 @@
       <c r="P16">
         <v>1</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="10">
         <v>1820000</v>
       </c>
       <c r="R16">
@@ -10666,7 +11160,7 @@
     </row>
     <row r="17" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B17" t="s">
         <v>363</v>
@@ -10675,10 +11169,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E17" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F17">
         <v>0.05</v>
@@ -10686,7 +11180,7 @@
       <c r="G17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>2800000</v>
       </c>
       <c r="I17">
@@ -10695,7 +11189,7 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>1820000</v>
       </c>
       <c r="L17">
@@ -10704,7 +11198,7 @@
       <c r="M17">
         <v>1</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="10">
         <v>1820000</v>
       </c>
       <c r="O17">
@@ -10713,7 +11207,7 @@
       <c r="P17">
         <v>1</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="10">
         <v>1820000</v>
       </c>
       <c r="R17">
@@ -10836,7 +11330,7 @@
     </row>
     <row r="18" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B18" t="s">
         <v>482</v>
@@ -10845,10 +11339,10 @@
         <v>482</v>
       </c>
       <c r="D18" t="s">
+        <v>758</v>
+      </c>
+      <c r="E18" t="s">
         <v>762</v>
-      </c>
-      <c r="E18" t="s">
-        <v>766</v>
       </c>
       <c r="F18">
         <v>1.1000000000000001</v>
@@ -10856,7 +11350,7 @@
       <c r="G18">
         <v>0.60199999999999998</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>4170000</v>
       </c>
       <c r="I18">
@@ -10865,7 +11359,7 @@
       <c r="J18">
         <v>0.60199999999999998</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>4170000</v>
       </c>
       <c r="L18">
@@ -10874,7 +11368,7 @@
       <c r="M18">
         <v>0.60199999999999998</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="10">
         <v>4170000</v>
       </c>
       <c r="O18">
@@ -10883,7 +11377,7 @@
       <c r="P18">
         <v>0.60199999999999998</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="10">
         <v>4170000</v>
       </c>
       <c r="R18">
@@ -11006,7 +11500,7 @@
     </row>
     <row r="19" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B19" t="s">
         <v>482</v>
@@ -11015,10 +11509,10 @@
         <v>482</v>
       </c>
       <c r="D19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E19" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F19">
         <v>1.1000000000000001</v>
@@ -11026,7 +11520,7 @@
       <c r="G19">
         <v>0.60199999999999998</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>4170000</v>
       </c>
       <c r="I19">
@@ -11035,7 +11529,7 @@
       <c r="J19">
         <v>0.60199999999999998</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>4170000</v>
       </c>
       <c r="L19">
@@ -11044,7 +11538,7 @@
       <c r="M19">
         <v>0.60199999999999998</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="10">
         <v>4170000</v>
       </c>
       <c r="O19">
@@ -11053,7 +11547,7 @@
       <c r="P19">
         <v>0.60199999999999998</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="10">
         <v>4170000</v>
       </c>
       <c r="R19">
@@ -11176,7 +11670,7 @@
     </row>
     <row r="20" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B20" t="s">
         <v>482</v>
@@ -11185,10 +11679,10 @@
         <v>482</v>
       </c>
       <c r="D20" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E20" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F20">
         <v>1.1000000000000001</v>
@@ -11196,7 +11690,7 @@
       <c r="G20">
         <v>0.60199999999999998</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>4170000</v>
       </c>
       <c r="I20">
@@ -11205,7 +11699,7 @@
       <c r="J20">
         <v>0.60199999999999998</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>4170000</v>
       </c>
       <c r="L20">
@@ -11214,7 +11708,7 @@
       <c r="M20">
         <v>0.60199999999999998</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <v>4170000</v>
       </c>
       <c r="O20">
@@ -11223,7 +11717,7 @@
       <c r="P20">
         <v>0.60199999999999998</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="10">
         <v>4170000</v>
       </c>
       <c r="R20">
@@ -11346,7 +11840,7 @@
     </row>
     <row r="21" spans="1:56" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B21" t="s">
         <v>482</v>
@@ -11355,10 +11849,10 @@
         <v>482</v>
       </c>
       <c r="D21" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E21" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F21">
         <v>1.1000000000000001</v>
@@ -11366,7 +11860,7 @@
       <c r="G21">
         <v>0.60199999999999998</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>4170000</v>
       </c>
       <c r="I21">
@@ -11375,7 +11869,7 @@
       <c r="J21">
         <v>0.60199999999999998</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <v>4170000</v>
       </c>
       <c r="L21">
@@ -11384,7 +11878,7 @@
       <c r="M21">
         <v>0.60199999999999998</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="10">
         <v>4170000</v>
       </c>
       <c r="O21">
@@ -11393,7 +11887,7 @@
       <c r="P21">
         <v>0.60199999999999998</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="10">
         <v>4170000</v>
       </c>
       <c r="R21">
@@ -11524,7 +12018,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -11538,16 +12034,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -11630,25 +12126,25 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B2" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C2" t="s">
-        <v>777</v>
+        <v>966</v>
       </c>
       <c r="D2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H2">
         <v>0.03</v>
@@ -11725,25 +12221,25 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C3" t="s">
+        <v>967</v>
+      </c>
+      <c r="D3" t="s">
+        <v>765</v>
+      </c>
+      <c r="E3" t="s">
         <v>770</v>
       </c>
-      <c r="C3" t="s">
-        <v>777</v>
-      </c>
-      <c r="D3" t="s">
-        <v>769</v>
-      </c>
-      <c r="E3" t="s">
-        <v>774</v>
-      </c>
       <c r="F3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="G3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="H3">
         <v>0.04</v>
@@ -11820,22 +12316,22 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B4" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C4" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D4" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="H4">
         <v>0.3</v>
@@ -11912,22 +12408,22 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B5" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F5" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="G5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -12004,22 +12500,22 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B6" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C6" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D6" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G6" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="H6">
         <v>0.56999999999999995</v>
@@ -12096,22 +12592,22 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C7" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="G7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="H7">
         <v>0.65</v>
@@ -12188,22 +12684,22 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B8" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C8" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D8" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F8" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G8" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -12280,22 +12776,22 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B9" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C9" t="s">
-        <v>801</v>
+        <v>965</v>
       </c>
       <c r="D9" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F9" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="G9" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H9">
         <v>0.19</v>
@@ -12372,22 +12868,22 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B10" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C10" t="s">
-        <v>801</v>
+        <v>965</v>
       </c>
       <c r="D10" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F10" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G10" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H10">
         <v>0.56000000000000005</v>
@@ -12464,22 +12960,22 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B11" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C11" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D11" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F11" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="G11" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="H11">
         <v>-999</v>
@@ -12556,22 +13052,22 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B12" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C12" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D12" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F12" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G12" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="H12">
         <v>0.56999999999999995</v>
@@ -12648,22 +13144,22 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B13" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C13" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D13" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F13" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G13" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="H13">
         <v>0.65</v>
@@ -12740,19 +13236,19 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B14" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D14" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F14" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G14" t="s">
         <v>365</v>
@@ -12832,19 +13328,19 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B15" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C15" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D15" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F15" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="G15" t="s">
         <v>365</v>
@@ -12924,19 +13420,19 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B16" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C16" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D16" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F16" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G16" t="s">
         <v>365</v>
@@ -13016,19 +13512,19 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B17" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C17" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="D17" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F17" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G17" t="s">
         <v>365</v>
@@ -13108,19 +13604,19 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B18" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C18" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D18" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F18" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -13200,19 +13696,19 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B19" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C19" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D19" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F19" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -13292,22 +13788,22 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B20" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C20" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D20" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F20" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G20" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H20">
         <v>0.19</v>
@@ -13384,22 +13880,22 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B21" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C21" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D21" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F21" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="G21" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="H21">
         <v>0.55000000000000004</v>
@@ -13484,7 +13980,7 @@
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13500,79 +13996,79 @@
         <v>496</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>826</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>361</v>
@@ -13580,13 +14076,13 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B2" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D2">
         <v>152</v>
@@ -13669,13 +14165,13 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B3" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -13758,10 +14254,10 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B4" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C4" t="s">
         <v>365</v>
@@ -13847,13 +14343,13 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B5" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C5" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -13941,10 +14437,440 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E2">
+        <v>0.12</v>
+      </c>
+      <c r="F2">
+        <v>0.18</v>
+      </c>
+      <c r="G2">
+        <v>0.85</v>
+      </c>
+      <c r="H2">
+        <v>0.99</v>
+      </c>
+      <c r="I2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.11</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <v>400</v>
+      </c>
+      <c r="N2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.05</v>
+      </c>
+      <c r="P2">
+        <v>0.2</v>
+      </c>
+      <c r="Q2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R2">
+        <v>61</v>
+      </c>
+      <c r="S2">
+        <v>61</v>
+      </c>
+      <c r="T2">
+        <v>61</v>
+      </c>
+      <c r="U2">
+        <v>61</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>0.9</v>
+      </c>
+      <c r="X2">
+        <v>61</v>
+      </c>
+      <c r="Y2">
+        <v>100000</v>
+      </c>
+      <c r="Z2">
+        <v>1.2</v>
+      </c>
+      <c r="AA2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" t="s">
+        <v>963</v>
+      </c>
+      <c r="D3">
+        <v>1E-3</v>
+      </c>
+      <c r="E3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.18</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>0.99</v>
+      </c>
+      <c r="I3">
+        <v>0.01</v>
+      </c>
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>450</v>
+      </c>
+      <c r="N3">
+        <v>0.02</v>
+      </c>
+      <c r="O3">
+        <v>0.03</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R3">
+        <v>61</v>
+      </c>
+      <c r="S3">
+        <v>61</v>
+      </c>
+      <c r="T3">
+        <v>61</v>
+      </c>
+      <c r="U3">
+        <v>61</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>0.9</v>
+      </c>
+      <c r="X3">
+        <v>61</v>
+      </c>
+      <c r="Y3">
+        <v>100000</v>
+      </c>
+      <c r="Z3">
+        <v>1.2</v>
+      </c>
+      <c r="AA3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>957</v>
+      </c>
+      <c r="B4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4">
+        <v>1E-3</v>
+      </c>
+      <c r="E4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.18</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>0.99</v>
+      </c>
+      <c r="I4">
+        <v>0.01</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>450</v>
+      </c>
+      <c r="N4">
+        <v>0.02</v>
+      </c>
+      <c r="O4">
+        <v>0.03</v>
+      </c>
+      <c r="P4">
+        <v>0.1</v>
+      </c>
+      <c r="Q4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R4">
+        <v>61</v>
+      </c>
+      <c r="S4">
+        <v>61</v>
+      </c>
+      <c r="T4">
+        <v>61</v>
+      </c>
+      <c r="U4">
+        <v>61</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>0.9</v>
+      </c>
+      <c r="X4">
+        <v>61</v>
+      </c>
+      <c r="Y4">
+        <v>100000</v>
+      </c>
+      <c r="Z4">
+        <v>1.2</v>
+      </c>
+      <c r="AA4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>958</v>
+      </c>
+      <c r="B5" t="s">
+        <v>961</v>
+      </c>
+      <c r="C5" t="s">
+        <v>962</v>
+      </c>
+      <c r="D5">
+        <v>1E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.18</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5">
+        <v>0.99</v>
+      </c>
+      <c r="I5">
+        <v>0.01</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>450</v>
+      </c>
+      <c r="N5">
+        <v>0.02</v>
+      </c>
+      <c r="O5">
+        <v>0.03</v>
+      </c>
+      <c r="P5">
+        <v>0.1</v>
+      </c>
+      <c r="Q5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R5">
+        <v>61</v>
+      </c>
+      <c r="S5">
+        <v>61</v>
+      </c>
+      <c r="T5">
+        <v>61</v>
+      </c>
+      <c r="U5">
+        <v>61</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>0.9</v>
+      </c>
+      <c r="X5">
+        <v>61</v>
+      </c>
+      <c r="Y5">
+        <v>100000</v>
+      </c>
+      <c r="Z5">
+        <v>1.2</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13963,28 +14889,28 @@
         <v>496</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>841</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>361</v>
@@ -13992,13 +14918,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B2" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D2">
         <v>333</v>
@@ -14006,7 +14932,7 @@
       <c r="E2">
         <v>150</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>0.05</v>
       </c>
       <c r="G2">
@@ -14030,13 +14956,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B3" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C3" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -14044,7 +14970,7 @@
       <c r="E3">
         <v>150</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0.01</v>
       </c>
       <c r="G3">
@@ -14068,13 +14994,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B4" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -14082,7 +15008,7 @@
       <c r="E4">
         <v>150</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>1E-3</v>
       </c>
       <c r="G4">
@@ -14106,13 +15032,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B5" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D5">
         <v>250</v>
@@ -14120,7 +15046,7 @@
       <c r="E5">
         <v>150</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="G5">
@@ -14144,13 +15070,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="B6" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C6" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D6">
         <v>-999</v>
@@ -14182,13 +15108,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B7" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="D7">
         <v>-999</v>
@@ -14220,13 +15146,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="B8" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C8" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D8">
         <v>350</v>
@@ -14234,7 +15160,7 @@
       <c r="E8">
         <v>150</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G8">
@@ -14258,10 +15184,10 @@
     </row>
     <row r="9" spans="1:12" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B9" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -14272,7 +15198,7 @@
       <c r="E9">
         <v>150</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G9">
@@ -14292,6 +15218,1400 @@
       </c>
       <c r="L9" t="s">
         <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2">
+        <v>18.2</v>
+      </c>
+      <c r="E2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="G2">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="J2">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>2.7</v>
+      </c>
+      <c r="N2">
+        <v>2.7</v>
+      </c>
+      <c r="O2">
+        <v>2.7</v>
+      </c>
+      <c r="P2">
+        <v>2.7</v>
+      </c>
+      <c r="Q2">
+        <v>7</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>7</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2" t="s">
+        <v>777</v>
+      </c>
+      <c r="V2" t="s">
+        <v>777</v>
+      </c>
+      <c r="W2" t="s">
+        <v>777</v>
+      </c>
+      <c r="X2" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>778</v>
+      </c>
+      <c r="AC2">
+        <v>75</v>
+      </c>
+      <c r="AD2">
+        <v>175</v>
+      </c>
+      <c r="AE2">
+        <v>120</v>
+      </c>
+      <c r="AF2">
+        <v>280</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>0.05</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AK2" s="10">
+        <v>3970000</v>
+      </c>
+      <c r="AL2">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AM2">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D3">
+        <v>18.2</v>
+      </c>
+      <c r="E3">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="F3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="G3">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="I3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="J3">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="K3">
+        <v>-999</v>
+      </c>
+      <c r="L3">
+        <v>-999</v>
+      </c>
+      <c r="M3">
+        <v>-999</v>
+      </c>
+      <c r="N3">
+        <v>-999</v>
+      </c>
+      <c r="O3">
+        <v>-999</v>
+      </c>
+      <c r="P3">
+        <v>-999</v>
+      </c>
+      <c r="Q3">
+        <v>-999</v>
+      </c>
+      <c r="R3">
+        <v>-999</v>
+      </c>
+      <c r="S3">
+        <v>-999</v>
+      </c>
+      <c r="T3">
+        <v>-999</v>
+      </c>
+      <c r="U3" t="s">
+        <v>778</v>
+      </c>
+      <c r="V3" t="s">
+        <v>778</v>
+      </c>
+      <c r="W3" t="s">
+        <v>778</v>
+      </c>
+      <c r="X3" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>778</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>778</v>
+      </c>
+      <c r="AC3">
+        <v>75</v>
+      </c>
+      <c r="AD3">
+        <v>175</v>
+      </c>
+      <c r="AE3">
+        <v>120</v>
+      </c>
+      <c r="AF3">
+        <v>280</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0.05</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>4110000</v>
+      </c>
+      <c r="AL3">
+        <v>0.38</v>
+      </c>
+      <c r="AM3">
+        <v>0.38</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>902</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D4">
+        <v>18.2</v>
+      </c>
+      <c r="E4">
+        <v>0.14458070000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3.7491E-3</v>
+      </c>
+      <c r="H4">
+        <v>0.13291500000000001</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>3.7537E-3</v>
+      </c>
+      <c r="K4">
+        <v>-999</v>
+      </c>
+      <c r="L4">
+        <v>-999</v>
+      </c>
+      <c r="M4">
+        <v>-999</v>
+      </c>
+      <c r="N4">
+        <v>-999</v>
+      </c>
+      <c r="O4">
+        <v>-999</v>
+      </c>
+      <c r="P4">
+        <v>-999</v>
+      </c>
+      <c r="Q4">
+        <v>-999</v>
+      </c>
+      <c r="R4">
+        <v>-999</v>
+      </c>
+      <c r="S4">
+        <v>-999</v>
+      </c>
+      <c r="T4">
+        <v>-999</v>
+      </c>
+      <c r="U4" t="s">
+        <v>779</v>
+      </c>
+      <c r="V4" t="s">
+        <v>779</v>
+      </c>
+      <c r="W4" t="s">
+        <v>779</v>
+      </c>
+      <c r="X4" t="s">
+        <v>779</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>779</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>779</v>
+      </c>
+      <c r="AC4">
+        <v>75</v>
+      </c>
+      <c r="AD4">
+        <v>175</v>
+      </c>
+      <c r="AE4">
+        <v>120</v>
+      </c>
+      <c r="AF4">
+        <v>280</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>0.7</v>
+      </c>
+      <c r="AI4">
+        <v>0.7</v>
+      </c>
+      <c r="AJ4">
+        <v>1.159</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>3970000</v>
+      </c>
+      <c r="AL4">
+        <v>0.2069</v>
+      </c>
+      <c r="AM4">
+        <v>0.2069</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>904</v>
+      </c>
+      <c r="B5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" t="s">
+        <v>914</v>
+      </c>
+      <c r="D5">
+        <v>18.2</v>
+      </c>
+      <c r="E5">
+        <v>0.30813570000000001</v>
+      </c>
+      <c r="F5">
+        <v>9.8630999999999996E-3</v>
+      </c>
+      <c r="G5">
+        <v>1.01826E-2</v>
+      </c>
+      <c r="H5">
+        <v>0.30813570000000001</v>
+      </c>
+      <c r="I5">
+        <v>9.8630999999999996E-3</v>
+      </c>
+      <c r="J5">
+        <v>1.01826E-2</v>
+      </c>
+      <c r="K5">
+        <v>-999</v>
+      </c>
+      <c r="L5">
+        <v>-999</v>
+      </c>
+      <c r="M5">
+        <v>-999</v>
+      </c>
+      <c r="N5">
+        <v>-999</v>
+      </c>
+      <c r="O5">
+        <v>-999</v>
+      </c>
+      <c r="P5">
+        <v>-999</v>
+      </c>
+      <c r="Q5">
+        <v>-999</v>
+      </c>
+      <c r="R5">
+        <v>-999</v>
+      </c>
+      <c r="S5">
+        <v>-999</v>
+      </c>
+      <c r="T5">
+        <v>-999</v>
+      </c>
+      <c r="U5" t="s">
+        <v>780</v>
+      </c>
+      <c r="V5" t="s">
+        <v>780</v>
+      </c>
+      <c r="W5" t="s">
+        <v>779</v>
+      </c>
+      <c r="X5" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>778</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>780</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>780</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>780</v>
+      </c>
+      <c r="AC5">
+        <v>75</v>
+      </c>
+      <c r="AD5">
+        <v>175</v>
+      </c>
+      <c r="AE5">
+        <v>120</v>
+      </c>
+      <c r="AF5">
+        <v>280</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0.7</v>
+      </c>
+      <c r="AI5">
+        <v>0.7</v>
+      </c>
+      <c r="AJ5">
+        <v>1.159</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>3970000</v>
+      </c>
+      <c r="AL5">
+        <v>0.2069</v>
+      </c>
+      <c r="AM5">
+        <v>0.2069</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>905</v>
+      </c>
+      <c r="B6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C6" t="s">
+        <v>915</v>
+      </c>
+      <c r="D6">
+        <v>18.2</v>
+      </c>
+      <c r="E6">
+        <v>0.30813570000000001</v>
+      </c>
+      <c r="F6">
+        <v>9.8630999999999996E-3</v>
+      </c>
+      <c r="G6">
+        <v>1.01826E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.30813570000000001</v>
+      </c>
+      <c r="I6">
+        <v>9.8630999999999996E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.01826E-2</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>2.7</v>
+      </c>
+      <c r="N6">
+        <v>2.7</v>
+      </c>
+      <c r="O6">
+        <v>2.7</v>
+      </c>
+      <c r="P6">
+        <v>2.7</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6" t="s">
+        <v>780</v>
+      </c>
+      <c r="V6" t="s">
+        <v>777</v>
+      </c>
+      <c r="W6" t="s">
+        <v>780</v>
+      </c>
+      <c r="X6" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>779</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>777</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>778</v>
+      </c>
+      <c r="AC6">
+        <v>75</v>
+      </c>
+      <c r="AD6">
+        <v>175</v>
+      </c>
+      <c r="AE6">
+        <v>120</v>
+      </c>
+      <c r="AF6">
+        <v>280</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>0.7</v>
+      </c>
+      <c r="AI6">
+        <v>0.7</v>
+      </c>
+      <c r="AJ6">
+        <v>1.159</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>3970000</v>
+      </c>
+      <c r="AL6">
+        <v>0.2069</v>
+      </c>
+      <c r="AM6">
+        <v>0.2069</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>906</v>
+      </c>
+      <c r="B7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7" t="s">
+        <v>916</v>
+      </c>
+      <c r="D7">
+        <v>18.2</v>
+      </c>
+      <c r="E7">
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="F7">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="G7">
+        <v>1.49E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.1153</v>
+      </c>
+      <c r="I7">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="J7">
+        <v>1.49E-2</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>2.7</v>
+      </c>
+      <c r="N7">
+        <v>2.7</v>
+      </c>
+      <c r="O7">
+        <v>2.7</v>
+      </c>
+      <c r="P7">
+        <v>2.7</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>7</v>
+      </c>
+      <c r="U7" t="s">
+        <v>777</v>
+      </c>
+      <c r="V7" t="s">
+        <v>778</v>
+      </c>
+      <c r="W7" t="s">
+        <v>777</v>
+      </c>
+      <c r="X7" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>778</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>778</v>
+      </c>
+      <c r="AC7">
+        <v>75</v>
+      </c>
+      <c r="AD7">
+        <v>175</v>
+      </c>
+      <c r="AE7">
+        <v>120</v>
+      </c>
+      <c r="AF7">
+        <v>280</v>
+      </c>
+      <c r="AG7">
+        <v>0.68140000000000001</v>
+      </c>
+      <c r="AH7">
+        <v>0.05</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>4110000</v>
+      </c>
+      <c r="AL7">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AM7">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>907</v>
+      </c>
+      <c r="B8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" t="s">
+        <v>917</v>
+      </c>
+      <c r="D8">
+        <v>18.2</v>
+      </c>
+      <c r="E8">
+        <v>0.18</v>
+      </c>
+      <c r="F8">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.49E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.1522</v>
+      </c>
+      <c r="I8">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="J8">
+        <v>1.49E-2</v>
+      </c>
+      <c r="K8">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>2.7</v>
+      </c>
+      <c r="N8">
+        <v>2.7</v>
+      </c>
+      <c r="O8">
+        <v>2.7</v>
+      </c>
+      <c r="P8">
+        <v>2.7</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8" t="s">
+        <v>778</v>
+      </c>
+      <c r="V8" t="s">
+        <v>779</v>
+      </c>
+      <c r="W8" t="s">
+        <v>778</v>
+      </c>
+      <c r="X8" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>779</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>778</v>
+      </c>
+      <c r="AC8">
+        <v>75</v>
+      </c>
+      <c r="AD8">
+        <v>175</v>
+      </c>
+      <c r="AE8">
+        <v>120</v>
+      </c>
+      <c r="AF8">
+        <v>280</v>
+      </c>
+      <c r="AG8">
+        <v>0.68140000000000001</v>
+      </c>
+      <c r="AH8">
+        <v>0.05</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>4110000</v>
+      </c>
+      <c r="AL8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AM8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>908</v>
+      </c>
+      <c r="B9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" t="s">
+        <v>918</v>
+      </c>
+      <c r="D9">
+        <v>18.2</v>
+      </c>
+      <c r="E9">
+        <v>9.69E-2</v>
+      </c>
+      <c r="F9">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="G9">
+        <v>1.49E-2</v>
+      </c>
+      <c r="H9">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="I9">
+        <v>9.8600000000000007E-3</v>
+      </c>
+      <c r="J9">
+        <v>1.49E-2</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>2.7</v>
+      </c>
+      <c r="N9">
+        <v>2.7</v>
+      </c>
+      <c r="O9">
+        <v>2.7</v>
+      </c>
+      <c r="P9">
+        <v>2.7</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9" t="s">
+        <v>779</v>
+      </c>
+      <c r="V9" t="s">
+        <v>778</v>
+      </c>
+      <c r="W9" t="s">
+        <v>779</v>
+      </c>
+      <c r="X9" t="s">
+        <v>779</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>778</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>777</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>778</v>
+      </c>
+      <c r="AC9">
+        <v>75</v>
+      </c>
+      <c r="AD9">
+        <v>175</v>
+      </c>
+      <c r="AE9">
+        <v>120</v>
+      </c>
+      <c r="AF9">
+        <v>280</v>
+      </c>
+      <c r="AG9">
+        <v>0.68140000000000001</v>
+      </c>
+      <c r="AH9">
+        <v>0.05</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>4110000</v>
+      </c>
+      <c r="AL9">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AM9">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>909</v>
+      </c>
+      <c r="B10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C10" t="s">
+        <v>919</v>
+      </c>
+      <c r="D10">
+        <v>18.2</v>
+      </c>
+      <c r="E10">
+        <v>0.1105</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.49E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.1084</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.49E-2</v>
+      </c>
+      <c r="K10">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <v>2.7</v>
+      </c>
+      <c r="N10">
+        <v>2.7</v>
+      </c>
+      <c r="O10">
+        <v>2.7</v>
+      </c>
+      <c r="P10">
+        <v>2.7</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10" t="s">
+        <v>778</v>
+      </c>
+      <c r="V10" t="s">
+        <v>779</v>
+      </c>
+      <c r="W10" t="s">
+        <v>778</v>
+      </c>
+      <c r="X10" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>779</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>778</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>779</v>
+      </c>
+      <c r="AC10">
+        <v>75</v>
+      </c>
+      <c r="AD10">
+        <v>175</v>
+      </c>
+      <c r="AE10">
+        <v>120</v>
+      </c>
+      <c r="AF10">
+        <v>280</v>
+      </c>
+      <c r="AG10">
+        <v>0.76729999999999998</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>4110000</v>
+      </c>
+      <c r="AL10">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AM10">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C11" t="s">
+        <v>920</v>
+      </c>
+      <c r="D11">
+        <v>18.2</v>
+      </c>
+      <c r="E11">
+        <v>0.318229863</v>
+      </c>
+      <c r="F11">
+        <v>7.0491800000000004E-3</v>
+      </c>
+      <c r="G11">
+        <v>2.9265873000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>0.318229863</v>
+      </c>
+      <c r="I11">
+        <v>7.0491800000000004E-3</v>
+      </c>
+      <c r="J11">
+        <v>2.9265873000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>2.7</v>
+      </c>
+      <c r="N11">
+        <v>2.7</v>
+      </c>
+      <c r="O11">
+        <v>2.7</v>
+      </c>
+      <c r="P11">
+        <v>2.7</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11" t="s">
+        <v>779</v>
+      </c>
+      <c r="V11" t="s">
+        <v>780</v>
+      </c>
+      <c r="W11" t="s">
+        <v>780</v>
+      </c>
+      <c r="X11" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>780</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>779</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>779</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>780</v>
+      </c>
+      <c r="AC11">
+        <v>75</v>
+      </c>
+      <c r="AD11">
+        <v>175</v>
+      </c>
+      <c r="AE11">
+        <v>120</v>
+      </c>
+      <c r="AF11">
+        <v>280</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>0.7</v>
+      </c>
+      <c r="AI11">
+        <v>0.7</v>
+      </c>
+      <c r="AJ11">
+        <v>1.159</v>
+      </c>
+      <c r="AK11">
+        <v>3970000</v>
+      </c>
+      <c r="AL11">
+        <v>0.2069</v>
+      </c>
+      <c r="AM11">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14301,23 +16621,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="13.1796875" customWidth="1"/>
     <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="11" max="11" width="20.453125" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" customWidth="1"/>
-    <col min="13" max="13" width="17.54296875" customWidth="1"/>
-    <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="12" max="12" width="20.453125" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" customWidth="1"/>
+    <col min="15" max="15" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14343,31 +16663,43 @@
         <v>431</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R1" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -14393,13 +16725,13 @@
         <v>410</v>
       </c>
       <c r="I2" t="s">
+        <v>853</v>
+      </c>
+      <c r="J2" t="s">
         <v>435</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>436</v>
-      </c>
-      <c r="K2" t="s">
-        <v>386</v>
       </c>
       <c r="L2" t="s">
         <v>386</v>
@@ -14411,13 +16743,16 @@
         <v>386</v>
       </c>
       <c r="O2" t="s">
+        <v>386</v>
+      </c>
+      <c r="P2" t="s">
         <v>620</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -14443,13 +16778,13 @@
         <v>411</v>
       </c>
       <c r="I3" t="s">
+        <v>853</v>
+      </c>
+      <c r="J3" t="s">
         <v>438</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>439</v>
-      </c>
-      <c r="K3" t="s">
-        <v>388</v>
       </c>
       <c r="L3" t="s">
         <v>388</v>
@@ -14461,13 +16796,16 @@
         <v>388</v>
       </c>
       <c r="O3" t="s">
+        <v>388</v>
+      </c>
+      <c r="P3" t="s">
         <v>620</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -14493,13 +16831,13 @@
         <v>412</v>
       </c>
       <c r="I4" t="s">
+        <v>853</v>
+      </c>
+      <c r="J4" t="s">
         <v>442</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>443</v>
-      </c>
-      <c r="K4" t="s">
-        <v>389</v>
       </c>
       <c r="L4" t="s">
         <v>389</v>
@@ -14511,13 +16849,16 @@
         <v>389</v>
       </c>
       <c r="O4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P4" t="s">
         <v>622</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -14543,13 +16884,13 @@
         <v>446</v>
       </c>
       <c r="I5" t="s">
+        <v>853</v>
+      </c>
+      <c r="J5" t="s">
         <v>447</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>448</v>
-      </c>
-      <c r="K5" t="s">
-        <v>391</v>
       </c>
       <c r="L5" t="s">
         <v>391</v>
@@ -14561,13 +16902,16 @@
         <v>391</v>
       </c>
       <c r="O5" t="s">
+        <v>391</v>
+      </c>
+      <c r="P5" t="s">
         <v>623</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -14593,13 +16937,13 @@
         <v>446</v>
       </c>
       <c r="I6" t="s">
+        <v>853</v>
+      </c>
+      <c r="J6" t="s">
         <v>447</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>448</v>
-      </c>
-      <c r="K6" t="s">
-        <v>391</v>
       </c>
       <c r="L6" t="s">
         <v>391</v>
@@ -14611,13 +16955,16 @@
         <v>391</v>
       </c>
       <c r="O6" t="s">
+        <v>391</v>
+      </c>
+      <c r="P6" t="s">
         <v>623</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -14643,13 +16990,13 @@
         <v>412</v>
       </c>
       <c r="I7" t="s">
+        <v>853</v>
+      </c>
+      <c r="J7" t="s">
         <v>442</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>443</v>
-      </c>
-      <c r="K7" t="s">
-        <v>606</v>
       </c>
       <c r="L7" t="s">
         <v>606</v>
@@ -14661,13 +17008,16 @@
         <v>606</v>
       </c>
       <c r="O7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P7" t="s">
         <v>622</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -14693,13 +17043,13 @@
         <v>410</v>
       </c>
       <c r="I8" t="s">
+        <v>853</v>
+      </c>
+      <c r="J8" t="s">
         <v>435</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>436</v>
-      </c>
-      <c r="K8" t="s">
-        <v>386</v>
       </c>
       <c r="L8" t="s">
         <v>386</v>
@@ -14711,13 +17061,16 @@
         <v>386</v>
       </c>
       <c r="O8" t="s">
+        <v>386</v>
+      </c>
+      <c r="P8" t="s">
         <v>612</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -14743,13 +17096,13 @@
         <v>411</v>
       </c>
       <c r="I9" t="s">
+        <v>853</v>
+      </c>
+      <c r="J9" t="s">
         <v>438</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>439</v>
-      </c>
-      <c r="K9" t="s">
-        <v>388</v>
       </c>
       <c r="L9" t="s">
         <v>388</v>
@@ -14761,13 +17114,16 @@
         <v>388</v>
       </c>
       <c r="O9" t="s">
+        <v>388</v>
+      </c>
+      <c r="P9" t="s">
         <v>612</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -14793,13 +17149,13 @@
         <v>412</v>
       </c>
       <c r="I10" t="s">
+        <v>853</v>
+      </c>
+      <c r="J10" t="s">
         <v>442</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>443</v>
-      </c>
-      <c r="K10" t="s">
-        <v>389</v>
       </c>
       <c r="L10" t="s">
         <v>389</v>
@@ -14811,13 +17167,16 @@
         <v>389</v>
       </c>
       <c r="O10" t="s">
+        <v>389</v>
+      </c>
+      <c r="P10" t="s">
         <v>622</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -14843,13 +17202,13 @@
         <v>446</v>
       </c>
       <c r="I11" t="s">
+        <v>853</v>
+      </c>
+      <c r="J11" t="s">
         <v>447</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>448</v>
-      </c>
-      <c r="K11" t="s">
-        <v>391</v>
       </c>
       <c r="L11" t="s">
         <v>391</v>
@@ -14861,13 +17220,16 @@
         <v>391</v>
       </c>
       <c r="O11" t="s">
+        <v>391</v>
+      </c>
+      <c r="P11" t="s">
         <v>623</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -14893,13 +17255,13 @@
         <v>446</v>
       </c>
       <c r="I12" t="s">
+        <v>853</v>
+      </c>
+      <c r="J12" t="s">
         <v>447</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>448</v>
-      </c>
-      <c r="K12" t="s">
-        <v>391</v>
       </c>
       <c r="L12" t="s">
         <v>391</v>
@@ -14911,13 +17273,16 @@
         <v>391</v>
       </c>
       <c r="O12" t="s">
+        <v>391</v>
+      </c>
+      <c r="P12" t="s">
         <v>623</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -14943,13 +17308,13 @@
         <v>412</v>
       </c>
       <c r="I13" t="s">
+        <v>853</v>
+      </c>
+      <c r="J13" t="s">
         <v>442</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>443</v>
-      </c>
-      <c r="K13" t="s">
-        <v>389</v>
       </c>
       <c r="L13" t="s">
         <v>389</v>
@@ -14961,9 +17326,12 @@
         <v>389</v>
       </c>
       <c r="O13" t="s">
+        <v>389</v>
+      </c>
+      <c r="P13" t="s">
         <v>622</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>643</v>
       </c>
     </row>
@@ -14977,7 +17345,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="M9" sqref="L9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15005,7 +17373,7 @@
         <v>430</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>433</v>
@@ -15023,10 +17391,10 @@
         <v>610</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -15052,7 +17420,7 @@
         <v>415</v>
       </c>
       <c r="H2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="I2" t="s">
         <v>436</v>
@@ -15070,7 +17438,7 @@
         <v>386</v>
       </c>
       <c r="N2" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="O2" t="s">
         <v>575</v>
@@ -15099,7 +17467,7 @@
         <v>554</v>
       </c>
       <c r="H3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="I3" t="s">
         <v>436</v>
@@ -15117,7 +17485,7 @@
         <v>386</v>
       </c>
       <c r="N3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="O3" t="s">
         <v>576</v>
@@ -15130,10 +17498,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15143,7 +17511,7 @@
     <col min="4" max="4" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15169,22 +17537,32 @@
         <v>430</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O1" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -15210,10 +17588,10 @@
         <v>415</v>
       </c>
       <c r="I2" t="s">
-        <v>386</v>
+        <v>852</v>
       </c>
       <c r="J2" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="K2" t="s">
         <v>386</v>
@@ -15222,10 +17600,13 @@
         <v>386</v>
       </c>
       <c r="M2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="N2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -15251,10 +17632,10 @@
         <v>416</v>
       </c>
       <c r="I3" t="s">
-        <v>388</v>
+        <v>852</v>
       </c>
       <c r="J3" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="K3" t="s">
         <v>388</v>
@@ -15263,10 +17644,13 @@
         <v>388</v>
       </c>
       <c r="M3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+      <c r="N3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -15292,10 +17676,10 @@
         <v>417</v>
       </c>
       <c r="I4" t="s">
-        <v>389</v>
+        <v>852</v>
       </c>
       <c r="J4" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="K4" t="s">
         <v>389</v>
@@ -15304,10 +17688,13 @@
         <v>389</v>
       </c>
       <c r="M4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+      <c r="N4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -15333,10 +17720,10 @@
         <v>445</v>
       </c>
       <c r="I5" t="s">
-        <v>391</v>
+        <v>852</v>
       </c>
       <c r="J5" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K5" t="s">
         <v>391</v>
@@ -15345,10 +17732,13 @@
         <v>391</v>
       </c>
       <c r="M5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="N5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>465</v>
       </c>
@@ -15374,10 +17764,10 @@
         <v>445</v>
       </c>
       <c r="I6" t="s">
-        <v>391</v>
+        <v>852</v>
       </c>
       <c r="J6" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K6" t="s">
         <v>391</v>
@@ -15386,10 +17776,13 @@
         <v>391</v>
       </c>
       <c r="M6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="N6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>466</v>
       </c>
@@ -15415,10 +17808,10 @@
         <v>445</v>
       </c>
       <c r="I7" t="s">
-        <v>391</v>
+        <v>852</v>
       </c>
       <c r="J7" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K7" t="s">
         <v>391</v>
@@ -15427,10 +17820,13 @@
         <v>391</v>
       </c>
       <c r="M7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="N7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>467</v>
       </c>
@@ -15456,10 +17852,10 @@
         <v>445</v>
       </c>
       <c r="I8" t="s">
-        <v>391</v>
+        <v>852</v>
       </c>
       <c r="J8" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K8" t="s">
         <v>391</v>
@@ -15468,10 +17864,13 @@
         <v>391</v>
       </c>
       <c r="M8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="N8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>469</v>
       </c>
@@ -15497,10 +17896,10 @@
         <v>415</v>
       </c>
       <c r="I9" t="s">
-        <v>386</v>
+        <v>852</v>
       </c>
       <c r="J9" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="K9" t="s">
         <v>386</v>
@@ -15509,10 +17908,13 @@
         <v>386</v>
       </c>
       <c r="M9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="N9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>470</v>
       </c>
@@ -15538,10 +17940,10 @@
         <v>415</v>
       </c>
       <c r="I10" t="s">
-        <v>386</v>
+        <v>852</v>
       </c>
       <c r="J10" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="K10" t="s">
         <v>386</v>
@@ -15550,10 +17952,13 @@
         <v>386</v>
       </c>
       <c r="M10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+      <c r="N10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>488</v>
       </c>
@@ -15561,7 +17966,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D11" t="s">
         <v>464</v>
@@ -15579,10 +17984,10 @@
         <v>445</v>
       </c>
       <c r="I11" t="s">
-        <v>391</v>
+        <v>852</v>
       </c>
       <c r="J11" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K11" t="s">
         <v>391</v>
@@ -15591,10 +17996,13 @@
         <v>391</v>
       </c>
       <c r="M11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="N11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>489</v>
       </c>
@@ -15620,10 +18028,10 @@
         <v>445</v>
       </c>
       <c r="I12" t="s">
-        <v>391</v>
+        <v>852</v>
       </c>
       <c r="J12" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="K12" t="s">
         <v>391</v>
@@ -15632,7 +18040,10 @@
         <v>391</v>
       </c>
       <c r="M12" t="s">
-        <v>448</v>
+        <v>391</v>
+      </c>
+      <c r="N12" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -15644,7 +18055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37:A43"/>
     </sheetView>
   </sheetViews>
@@ -17685,7 +20096,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B16" t="s">
         <v>367</v>
@@ -17694,7 +20105,7 @@
         <v>482</v>
       </c>
       <c r="D16" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E16" t="s">
         <v>522</v>
@@ -17716,7 +20127,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17890,7 +20301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -17912,10 +20323,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E1" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F1" t="s">
         <v>361</v>
@@ -17923,13 +20334,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B2" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C2" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="D2">
         <v>20010</v>
@@ -17943,13 +20354,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B3" t="s">
         <v>365</v>
       </c>
       <c r="C3" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D3">
         <v>15</v>

--- a/database_copy.xlsx
+++ b/database_copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="1000" firstSheet="9" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Lod0_Region" sheetId="21" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="987">
   <si>
     <t>ID</t>
   </si>
@@ -2863,12 +2863,6 @@
     <t>TempMeltFactor</t>
   </si>
   <si>
-    <t>AlbedoMin</t>
-  </si>
-  <si>
-    <t>AlbedoMax</t>
-  </si>
-  <si>
     <t>tau_a</t>
   </si>
   <si>
@@ -2914,9 +2908,6 @@
     <t>OHMThresh_WD</t>
   </si>
   <si>
-    <t>ESTMCode</t>
-  </si>
-  <si>
     <t>Snow3</t>
   </si>
   <si>
@@ -2984,6 +2975,36 @@
   </si>
   <si>
     <t>Coastal large City</t>
+  </si>
+  <si>
+    <t>Alb16</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>SnowA</t>
+  </si>
+  <si>
+    <t>ANOHM15</t>
+  </si>
+  <si>
+    <t>Snow Hill, Antarctic</t>
+  </si>
+  <si>
+    <t>OHM15</t>
+  </si>
+  <si>
+    <t>Em11245</t>
+  </si>
+  <si>
+    <t>Alb17</t>
+  </si>
+  <si>
+    <t>SnowB</t>
+  </si>
+  <si>
+    <t>Yokohama, Japan</t>
   </si>
 </sst>
 </file>
@@ -3441,26 +3462,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.54296875" customWidth="1"/>
-    <col min="5" max="8" width="15.81640625" customWidth="1"/>
-    <col min="9" max="9" width="19.90625" customWidth="1"/>
-    <col min="10" max="10" width="20.1796875" customWidth="1"/>
-    <col min="11" max="11" width="21.36328125" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" customWidth="1"/>
-    <col min="13" max="13" width="23.1796875" customWidth="1"/>
-    <col min="14" max="14" width="18.54296875" customWidth="1"/>
-    <col min="15" max="15" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="5" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" customWidth="1"/>
     <col min="16" max="16" width="21" customWidth="1"/>
-    <col min="17" max="17" width="15.81640625" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3513,18 +3534,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B2" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C2" t="s">
         <v>629</v>
       </c>
       <c r="D2" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E2" t="s">
         <v>782</v>
@@ -3563,21 +3584,21 @@
         <v>776</v>
       </c>
       <c r="Q2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>968</v>
+      </c>
+      <c r="B3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C3" t="s">
+        <v>970</v>
+      </c>
+      <c r="D3" t="s">
         <v>971</v>
-      </c>
-      <c r="B3" t="s">
-        <v>972</v>
-      </c>
-      <c r="C3" t="s">
-        <v>973</v>
-      </c>
-      <c r="D3" t="s">
-        <v>974</v>
       </c>
       <c r="E3" t="s">
         <v>783</v>
@@ -3616,15 +3637,15 @@
         <v>776</v>
       </c>
       <c r="Q3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B4" t="s">
         <v>975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>977</v>
-      </c>
-      <c r="B4" t="s">
-        <v>978</v>
       </c>
       <c r="C4" t="s">
         <v>631</v>
@@ -3669,7 +3690,7 @@
         <v>776</v>
       </c>
       <c r="Q4" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -3679,15 +3700,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3719,7 +3740,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>386</v>
       </c>
@@ -3751,7 +3772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>388</v>
       </c>
@@ -3783,7 +3804,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>389</v>
       </c>
@@ -3815,7 +3836,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>391</v>
       </c>
@@ -3847,7 +3868,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>523</v>
       </c>
@@ -3879,7 +3900,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>524</v>
       </c>
@@ -3911,7 +3932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>525</v>
       </c>
@@ -3943,7 +3964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>526</v>
       </c>
@@ -3975,7 +3996,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>527</v>
       </c>
@@ -4007,7 +4028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>528</v>
       </c>
@@ -4039,7 +4060,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>529</v>
       </c>
@@ -4071,7 +4092,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>530</v>
       </c>
@@ -4103,7 +4124,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>531</v>
       </c>
@@ -4135,7 +4156,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>532</v>
       </c>
@@ -4165,6 +4186,38 @@
       </c>
       <c r="J15" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B16" t="s">
+        <v>978</v>
+      </c>
+      <c r="C16" t="s">
+        <v>978</v>
+      </c>
+      <c r="D16" t="s">
+        <v>978</v>
+      </c>
+      <c r="E16" t="s">
+        <v>771</v>
+      </c>
+      <c r="F16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16">
+        <v>0.25</v>
+      </c>
+      <c r="H16">
+        <v>0.6</v>
+      </c>
+      <c r="I16">
+        <v>-30</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4174,19 +4227,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4212,7 +4265,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>394</v>
       </c>
@@ -4238,7 +4291,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>396</v>
       </c>
@@ -4264,7 +4317,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>397</v>
       </c>
@@ -4290,7 +4343,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>398</v>
       </c>
@@ -4316,7 +4369,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>399</v>
       </c>
@@ -4342,7 +4395,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>400</v>
       </c>
@@ -4368,7 +4421,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>401</v>
       </c>
@@ -4394,7 +4447,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>402</v>
       </c>
@@ -4420,7 +4473,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>403</v>
       </c>
@@ -4446,7 +4499,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>404</v>
       </c>
@@ -4472,7 +4525,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>405</v>
       </c>
@@ -4498,7 +4551,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>406</v>
       </c>
@@ -4524,7 +4577,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>498</v>
       </c>
@@ -4550,7 +4603,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>516</v>
       </c>
@@ -4576,7 +4629,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>658</v>
       </c>
@@ -4600,6 +4653,58 @@
       </c>
       <c r="H16" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B17" t="s">
+        <v>978</v>
+      </c>
+      <c r="C17" t="s">
+        <v>978</v>
+      </c>
+      <c r="D17" t="s">
+        <v>979</v>
+      </c>
+      <c r="E17" t="s">
+        <v>487</v>
+      </c>
+      <c r="F17">
+        <v>0.18</v>
+      </c>
+      <c r="G17">
+        <v>0.85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B18" t="s">
+        <v>978</v>
+      </c>
+      <c r="C18" t="s">
+        <v>978</v>
+      </c>
+      <c r="D18" t="s">
+        <v>985</v>
+      </c>
+      <c r="E18" t="s">
+        <v>986</v>
+      </c>
+      <c r="F18">
+        <v>0.18</v>
+      </c>
+      <c r="G18">
+        <v>0.8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4609,15 +4714,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4649,7 +4754,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>575</v>
       </c>
@@ -4681,7 +4786,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>576</v>
       </c>
@@ -4713,7 +4818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>577</v>
       </c>
@@ -4745,7 +4850,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>578</v>
       </c>
@@ -4777,7 +4882,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>579</v>
       </c>
@@ -4809,7 +4914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>580</v>
       </c>
@@ -4841,7 +4946,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>581</v>
       </c>
@@ -4873,7 +4978,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>582</v>
       </c>
@@ -4905,7 +5010,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>583</v>
       </c>
@@ -4937,7 +5042,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>584</v>
       </c>
@@ -4969,7 +5074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>585</v>
       </c>
@@ -5001,7 +5106,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>586</v>
       </c>
@@ -5033,7 +5138,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>587</v>
       </c>
@@ -5065,7 +5170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>588</v>
       </c>
@@ -5095,6 +5200,38 @@
       </c>
       <c r="J15" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B16" t="s">
+        <v>978</v>
+      </c>
+      <c r="C16" t="s">
+        <v>978</v>
+      </c>
+      <c r="D16" t="s">
+        <v>979</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>387</v>
+      </c>
+      <c r="G16">
+        <v>100000</v>
+      </c>
+      <c r="H16">
+        <v>1.2</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5111,9 +5248,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5157,7 +5294,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>592</v>
       </c>
@@ -5201,7 +5338,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>593</v>
       </c>
@@ -5245,7 +5382,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>594</v>
       </c>
@@ -5289,7 +5426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>595</v>
       </c>
@@ -5333,7 +5470,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>596</v>
       </c>
@@ -5377,7 +5514,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>597</v>
       </c>
@@ -5421,10 +5558,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
   </sheetData>
@@ -5440,9 +5577,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5471,7 +5608,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>410</v>
       </c>
@@ -5500,7 +5637,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>411</v>
       </c>
@@ -5529,7 +5666,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>412</v>
       </c>
@@ -5558,7 +5695,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>446</v>
       </c>
@@ -5587,7 +5724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>535</v>
       </c>
@@ -5616,7 +5753,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>536</v>
       </c>
@@ -5645,7 +5782,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>537</v>
       </c>
@@ -5674,7 +5811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>538</v>
       </c>
@@ -5703,7 +5840,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>539</v>
       </c>
@@ -5732,7 +5869,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>540</v>
       </c>
@@ -5761,7 +5898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>541</v>
       </c>
@@ -5790,7 +5927,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>542</v>
       </c>
@@ -5819,7 +5956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>543</v>
       </c>
@@ -5848,7 +5985,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>544</v>
       </c>
@@ -5886,18 +6023,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5923,7 +6058,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>415</v>
       </c>
@@ -5949,7 +6084,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>416</v>
       </c>
@@ -5975,7 +6110,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>417</v>
       </c>
@@ -6001,7 +6136,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>445</v>
       </c>
@@ -6027,7 +6162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>545</v>
       </c>
@@ -6053,7 +6188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>546</v>
       </c>
@@ -6079,7 +6214,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>547</v>
       </c>
@@ -6105,7 +6240,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>548</v>
       </c>
@@ -6131,7 +6266,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>549</v>
       </c>
@@ -6157,7 +6292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>550</v>
       </c>
@@ -6183,7 +6318,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>551</v>
       </c>
@@ -6209,7 +6344,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>552</v>
       </c>
@@ -6235,7 +6370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>553</v>
       </c>
@@ -6261,7 +6396,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>554</v>
       </c>
@@ -6300,9 +6435,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6358,7 +6493,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>424</v>
       </c>
@@ -6414,7 +6549,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>425</v>
       </c>
@@ -6470,7 +6605,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>426</v>
       </c>
@@ -6526,7 +6661,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>427</v>
       </c>
@@ -6537,7 +6672,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E5" t="s">
         <v>476</v>
@@ -6595,18 +6730,18 @@
       <selection activeCell="E2" sqref="D2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="29.54296875" customWidth="1"/>
-    <col min="5" max="5" width="23.1796875" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6638,7 +6773,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>435</v>
       </c>
@@ -6670,7 +6805,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>438</v>
       </c>
@@ -6702,7 +6837,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>442</v>
       </c>
@@ -6734,7 +6869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>447</v>
       </c>
@@ -6766,7 +6901,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>555</v>
       </c>
@@ -6798,7 +6933,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>556</v>
       </c>
@@ -6843,12 +6978,12 @@
       <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="28.81640625" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6880,7 +7015,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>436</v>
       </c>
@@ -6912,7 +7047,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>439</v>
       </c>
@@ -6944,7 +7079,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>443</v>
       </c>
@@ -6976,7 +7111,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>448</v>
       </c>
@@ -7008,7 +7143,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>557</v>
       </c>
@@ -7040,7 +7175,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>558</v>
       </c>
@@ -7072,7 +7207,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>559</v>
       </c>
@@ -7104,7 +7239,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>560</v>
       </c>
@@ -7136,7 +7271,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>561</v>
       </c>
@@ -7168,7 +7303,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>562</v>
       </c>
@@ -7200,7 +7335,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>563</v>
       </c>
@@ -7232,7 +7367,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>564</v>
       </c>
@@ -7264,7 +7399,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>565</v>
       </c>
@@ -7296,7 +7431,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>566</v>
       </c>
@@ -7341,13 +7476,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="26.54296875" customWidth="1"/>
+    <col min="1" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7370,7 +7505,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>612</v>
       </c>
@@ -7393,7 +7528,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>620</v>
       </c>
@@ -7416,7 +7551,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>622</v>
       </c>
@@ -7439,7 +7574,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>623</v>
       </c>
@@ -7475,15 +7610,15 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.453125" customWidth="1"/>
-    <col min="3" max="3" width="34.54296875" customWidth="1"/>
-    <col min="7" max="7" width="66.453125" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="66.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7527,7 +7662,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7571,7 +7706,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7615,7 +7750,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7659,7 +7794,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7703,7 +7838,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7744,7 +7879,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -7782,7 +7917,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -7823,7 +7958,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -7861,7 +7996,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -7899,7 +8034,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -7940,7 +8075,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -7978,7 +8113,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -8019,7 +8154,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -8057,7 +8192,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -8095,7 +8230,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -8133,7 +8268,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -8177,7 +8312,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -8221,7 +8356,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -8276,12 +8411,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8307,8 +8442,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>641</v>
       </c>
       <c r="B2" t="s">
@@ -8333,8 +8468,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>660</v>
       </c>
       <c r="B3" t="s">
@@ -8359,8 +8494,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>661</v>
       </c>
       <c r="B4" t="s">
@@ -8385,8 +8520,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>664</v>
       </c>
       <c r="B5" t="s">
@@ -8420,16 +8555,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:57" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8602,7 +8737,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>669</v>
       </c>
@@ -8775,7 +8910,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>670</v>
       </c>
@@ -8945,7 +9080,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>671</v>
       </c>
@@ -9118,7 +9253,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>672</v>
       </c>
@@ -9288,7 +9423,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>673</v>
       </c>
@@ -9458,7 +9593,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>674</v>
       </c>
@@ -9628,7 +9763,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>675</v>
       </c>
@@ -9798,7 +9933,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>676</v>
       </c>
@@ -9968,7 +10103,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>677</v>
       </c>
@@ -10138,7 +10273,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>678</v>
       </c>
@@ -10308,7 +10443,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>679</v>
       </c>
@@ -10478,7 +10613,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>680</v>
       </c>
@@ -10648,7 +10783,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>681</v>
       </c>
@@ -10818,7 +10953,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>735</v>
       </c>
@@ -10988,7 +11123,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>736</v>
       </c>
@@ -11158,7 +11293,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>737</v>
       </c>
@@ -11328,7 +11463,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>738</v>
       </c>
@@ -11498,21 +11633,21 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B19" t="s">
-        <v>482</v>
+        <v>978</v>
       </c>
       <c r="C19" t="s">
-        <v>482</v>
+        <v>978</v>
       </c>
       <c r="D19" t="s">
-        <v>759</v>
+        <v>978</v>
       </c>
       <c r="E19" t="s">
-        <v>762</v>
+        <v>981</v>
       </c>
       <c r="F19">
         <v>1.1000000000000001</v>
@@ -11668,7 +11803,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>740</v>
       </c>
@@ -11838,7 +11973,7 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>741</v>
       </c>
@@ -12019,17 +12154,17 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12124,15 +12259,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>775</v>
       </c>
       <c r="B2" t="s">
         <v>766</v>
       </c>
       <c r="C2" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D2" t="s">
         <v>764</v>
@@ -12219,15 +12354,15 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>776</v>
       </c>
       <c r="B3" t="s">
         <v>766</v>
       </c>
       <c r="C3" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D3" t="s">
         <v>765</v>
@@ -12314,8 +12449,8 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>777</v>
       </c>
       <c r="B4" t="s">
@@ -12406,8 +12541,8 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>778</v>
       </c>
       <c r="B5" t="s">
@@ -12498,8 +12633,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>779</v>
       </c>
       <c r="B6" t="s">
@@ -12590,8 +12725,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>780</v>
       </c>
       <c r="B7" t="s">
@@ -12682,8 +12817,8 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>781</v>
       </c>
       <c r="B8" t="s">
@@ -12774,15 +12909,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>782</v>
       </c>
       <c r="B9" t="s">
         <v>766</v>
       </c>
       <c r="C9" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D9" t="s">
         <v>764</v>
@@ -12866,15 +13001,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>783</v>
       </c>
       <c r="B10" t="s">
         <v>766</v>
       </c>
       <c r="C10" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D10" t="s">
         <v>765</v>
@@ -12958,8 +13093,8 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>784</v>
       </c>
       <c r="B11" t="s">
@@ -13050,8 +13185,8 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>785</v>
       </c>
       <c r="B12" t="s">
@@ -13142,8 +13277,8 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>786</v>
       </c>
       <c r="B13" t="s">
@@ -13234,8 +13369,8 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>787</v>
       </c>
       <c r="B14" t="s">
@@ -13326,8 +13461,8 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>788</v>
       </c>
       <c r="B15" t="s">
@@ -13418,8 +13553,8 @@
         <v>-999</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>789</v>
       </c>
       <c r="B16" t="s">
@@ -13510,8 +13645,8 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>790</v>
       </c>
       <c r="B17" t="s">
@@ -13602,8 +13737,8 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>791</v>
       </c>
       <c r="B18" t="s">
@@ -13694,8 +13829,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>792</v>
       </c>
       <c r="B19" t="s">
@@ -13786,8 +13921,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>793</v>
       </c>
       <c r="B20" t="s">
@@ -13878,8 +14013,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>794</v>
       </c>
       <c r="B21" t="s">
@@ -13980,12 +14115,12 @@
   <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14074,8 +14209,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>822</v>
       </c>
       <c r="B2" t="s">
@@ -14163,8 +14298,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>823</v>
       </c>
       <c r="B3" t="s">
@@ -14252,8 +14387,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>824</v>
       </c>
       <c r="B4" t="s">
@@ -14341,8 +14476,8 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>825</v>
       </c>
       <c r="B5" t="s">
@@ -14437,15 +14572,15 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14462,81 +14597,72 @@
         <v>938</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>952</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>954</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>955</v>
+        <v>854</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B2" t="s">
         <v>956</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>935</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>959</v>
-      </c>
-      <c r="C2" t="s">
-        <v>962</v>
       </c>
       <c r="D2">
         <v>1.6000000000000001E-3</v>
@@ -14544,82 +14670,73 @@
       <c r="E2">
         <v>0.12</v>
       </c>
-      <c r="F2">
-        <v>0.18</v>
-      </c>
-      <c r="G2">
-        <v>0.85</v>
+      <c r="F2" t="s">
+        <v>977</v>
+      </c>
+      <c r="G2" t="s">
+        <v>983</v>
       </c>
       <c r="H2">
-        <v>0.99</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I2">
-        <v>1.7999999999999999E-2</v>
+        <v>0.11</v>
       </c>
       <c r="J2">
-        <v>0.11</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M2">
-        <v>400</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="N2">
-        <v>4.2999999999999997E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="P2">
-        <v>0.2</v>
-      </c>
-      <c r="Q2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R2">
-        <v>61</v>
-      </c>
-      <c r="S2">
-        <v>61</v>
-      </c>
-      <c r="T2">
-        <v>61</v>
+      <c r="Q2" t="s">
+        <v>982</v>
+      </c>
+      <c r="R2" t="s">
+        <v>982</v>
+      </c>
+      <c r="S2" t="s">
+        <v>982</v>
+      </c>
+      <c r="T2" t="s">
+        <v>982</v>
       </c>
       <c r="U2">
-        <v>61</v>
+        <v>-999</v>
       </c>
       <c r="V2">
-        <v>10</v>
-      </c>
-      <c r="W2">
-        <v>0.9</v>
-      </c>
-      <c r="X2">
-        <v>61</v>
-      </c>
-      <c r="Y2">
-        <v>100000</v>
-      </c>
-      <c r="Z2">
-        <v>1.2</v>
-      </c>
-      <c r="AA2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+        <v>-999</v>
+      </c>
+      <c r="W2" t="s">
+        <v>739</v>
+      </c>
+      <c r="X2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>936</v>
       </c>
       <c r="B3" t="s">
         <v>476</v>
       </c>
       <c r="C3" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D3">
         <v>1E-3</v>
@@ -14627,79 +14744,70 @@
       <c r="E3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F3">
-        <v>0.18</v>
-      </c>
-      <c r="G3">
-        <v>0.8</v>
+      <c r="F3" t="s">
+        <v>984</v>
+      </c>
+      <c r="G3" t="s">
+        <v>983</v>
       </c>
       <c r="H3">
-        <v>0.99</v>
+        <v>0.01</v>
       </c>
       <c r="I3">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>450</v>
+      </c>
+      <c r="M3">
+        <v>0.02</v>
+      </c>
+      <c r="N3">
+        <v>0.03</v>
+      </c>
+      <c r="O3">
         <v>0.1</v>
       </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>450</v>
-      </c>
-      <c r="N3">
-        <v>0.02</v>
-      </c>
-      <c r="O3">
-        <v>0.03</v>
-      </c>
       <c r="P3">
-        <v>0.1</v>
-      </c>
-      <c r="Q3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R3">
-        <v>61</v>
-      </c>
-      <c r="S3">
-        <v>61</v>
-      </c>
-      <c r="T3">
-        <v>61</v>
+      <c r="Q3" t="s">
+        <v>982</v>
+      </c>
+      <c r="R3" t="s">
+        <v>982</v>
+      </c>
+      <c r="S3" t="s">
+        <v>982</v>
+      </c>
+      <c r="T3" t="s">
+        <v>982</v>
       </c>
       <c r="U3">
-        <v>61</v>
+        <v>-999</v>
       </c>
       <c r="V3">
-        <v>10</v>
-      </c>
-      <c r="W3">
-        <v>0.9</v>
-      </c>
-      <c r="X3">
-        <v>61</v>
-      </c>
-      <c r="Y3">
-        <v>100000</v>
-      </c>
-      <c r="Z3">
-        <v>1.2</v>
-      </c>
-      <c r="AA3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+        <v>-999</v>
+      </c>
+      <c r="W3" t="s">
+        <v>739</v>
+      </c>
+      <c r="X3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B4" t="s">
         <v>957</v>
-      </c>
-      <c r="B4" t="s">
-        <v>960</v>
       </c>
       <c r="C4" t="s">
         <v>387</v>
@@ -14710,82 +14818,73 @@
       <c r="E4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F4">
-        <v>0.18</v>
-      </c>
-      <c r="G4">
-        <v>0.8</v>
+      <c r="F4" t="s">
+        <v>977</v>
+      </c>
+      <c r="G4" t="s">
+        <v>983</v>
       </c>
       <c r="H4">
-        <v>0.99</v>
+        <v>0.01</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>450</v>
+      </c>
+      <c r="M4">
+        <v>0.02</v>
+      </c>
+      <c r="N4">
+        <v>0.03</v>
+      </c>
+      <c r="O4">
         <v>0.1</v>
       </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-      <c r="M4">
-        <v>450</v>
-      </c>
-      <c r="N4">
-        <v>0.02</v>
-      </c>
-      <c r="O4">
-        <v>0.03</v>
-      </c>
       <c r="P4">
-        <v>0.1</v>
-      </c>
-      <c r="Q4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R4">
-        <v>61</v>
-      </c>
-      <c r="S4">
-        <v>61</v>
-      </c>
-      <c r="T4">
-        <v>61</v>
+      <c r="Q4" t="s">
+        <v>982</v>
+      </c>
+      <c r="R4" t="s">
+        <v>982</v>
+      </c>
+      <c r="S4" t="s">
+        <v>982</v>
+      </c>
+      <c r="T4" t="s">
+        <v>982</v>
       </c>
       <c r="U4">
-        <v>61</v>
+        <v>-999</v>
       </c>
       <c r="V4">
-        <v>10</v>
-      </c>
-      <c r="W4">
-        <v>0.9</v>
-      </c>
-      <c r="X4">
-        <v>61</v>
-      </c>
-      <c r="Y4">
-        <v>100000</v>
-      </c>
-      <c r="Z4">
-        <v>1.2</v>
-      </c>
-      <c r="AA4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+        <v>-999</v>
+      </c>
+      <c r="W4" t="s">
+        <v>739</v>
+      </c>
+      <c r="X4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B5" t="s">
         <v>958</v>
       </c>
-      <c r="B5" t="s">
-        <v>961</v>
-      </c>
       <c r="C5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D5">
         <v>1E-3</v>
@@ -14793,71 +14892,62 @@
       <c r="E5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F5">
-        <v>0.18</v>
-      </c>
-      <c r="G5">
-        <v>0.8</v>
+      <c r="F5" t="s">
+        <v>984</v>
+      </c>
+      <c r="G5" t="s">
+        <v>983</v>
       </c>
       <c r="H5">
-        <v>0.99</v>
+        <v>0.01</v>
       </c>
       <c r="I5">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>450</v>
+      </c>
+      <c r="M5">
+        <v>0.02</v>
+      </c>
+      <c r="N5">
+        <v>0.03</v>
+      </c>
+      <c r="O5">
         <v>0.1</v>
       </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5">
-        <v>450</v>
-      </c>
-      <c r="N5">
-        <v>0.02</v>
-      </c>
-      <c r="O5">
-        <v>0.03</v>
-      </c>
       <c r="P5">
-        <v>0.1</v>
-      </c>
-      <c r="Q5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="R5">
-        <v>61</v>
-      </c>
-      <c r="S5">
-        <v>61</v>
-      </c>
-      <c r="T5">
-        <v>61</v>
+      <c r="Q5" t="s">
+        <v>982</v>
+      </c>
+      <c r="R5" t="s">
+        <v>982</v>
+      </c>
+      <c r="S5" t="s">
+        <v>982</v>
+      </c>
+      <c r="T5" t="s">
+        <v>982</v>
       </c>
       <c r="U5">
-        <v>61</v>
+        <v>-999</v>
       </c>
       <c r="V5">
-        <v>10</v>
-      </c>
-      <c r="W5">
-        <v>0.9</v>
-      </c>
-      <c r="X5">
-        <v>61</v>
-      </c>
-      <c r="Y5">
-        <v>100000</v>
-      </c>
-      <c r="Z5">
-        <v>1.2</v>
-      </c>
-      <c r="AA5">
-        <v>4</v>
+        <v>-999</v>
+      </c>
+      <c r="W5" t="s">
+        <v>739</v>
+      </c>
+      <c r="X5" t="s">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -14870,15 +14960,15 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14916,8 +15006,8 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>838</v>
       </c>
       <c r="B2" t="s">
@@ -14954,8 +15044,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>839</v>
       </c>
       <c r="B3" t="s">
@@ -14992,8 +15082,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>840</v>
       </c>
       <c r="B4" t="s">
@@ -15030,8 +15120,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>841</v>
       </c>
       <c r="B5" t="s">
@@ -15068,8 +15158,8 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>842</v>
       </c>
       <c r="B6" t="s">
@@ -15106,8 +15196,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>843</v>
       </c>
       <c r="B7" t="s">
@@ -15144,8 +15234,8 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>844</v>
       </c>
       <c r="B8" t="s">
@@ -15182,8 +15272,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>845</v>
       </c>
       <c r="B9" t="s">
@@ -15230,16 +15320,16 @@
   <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15364,8 +15454,8 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>901</v>
       </c>
       <c r="B2" t="s">
@@ -15489,8 +15579,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>903</v>
       </c>
       <c r="B3" t="s">
@@ -15614,8 +15704,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>902</v>
       </c>
       <c r="B4" t="s">
@@ -15739,8 +15829,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>904</v>
       </c>
       <c r="B5" t="s">
@@ -15864,8 +15954,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>905</v>
       </c>
       <c r="B6" t="s">
@@ -15989,8 +16079,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>906</v>
       </c>
       <c r="B7" t="s">
@@ -16114,8 +16204,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>907</v>
       </c>
       <c r="B8" t="s">
@@ -16239,8 +16329,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>908</v>
       </c>
       <c r="B9" t="s">
@@ -16364,8 +16454,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>909</v>
       </c>
       <c r="B10" t="s">
@@ -16489,8 +16579,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>910</v>
       </c>
       <c r="B11" t="s">
@@ -16627,17 +16717,17 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="12" max="12" width="20.453125" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" customWidth="1"/>
-    <col min="14" max="14" width="17.54296875" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16699,7 +16789,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -16752,7 +16842,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -16805,7 +16895,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -16858,7 +16948,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -16911,7 +17001,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -16964,7 +17054,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -17017,7 +17107,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -17070,7 +17160,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
@@ -17123,7 +17213,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -17176,7 +17266,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -17229,7 +17319,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -17282,7 +17372,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -17348,9 +17438,9 @@
       <selection activeCell="M9" sqref="L9:M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17397,7 +17487,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>491</v>
       </c>
@@ -17444,7 +17534,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>567</v>
       </c>
@@ -17504,14 +17594,14 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17562,7 +17652,7 @@
       </c>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -17606,7 +17696,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -17650,7 +17740,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -17694,7 +17784,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -17738,7 +17828,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>465</v>
       </c>
@@ -17782,7 +17872,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>466</v>
       </c>
@@ -17826,7 +17916,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>467</v>
       </c>
@@ -17870,7 +17960,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>469</v>
       </c>
@@ -17914,7 +18004,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>470</v>
       </c>
@@ -17958,7 +18048,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>488</v>
       </c>
@@ -18002,7 +18092,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>489</v>
       </c>
@@ -18059,9 +18149,9 @@
       <selection activeCell="A37" sqref="A37:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18102,7 +18192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -18128,7 +18218,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -18157,7 +18247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>80</v>
       </c>
@@ -18189,7 +18279,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -18221,7 +18311,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>92</v>
       </c>
@@ -18250,7 +18340,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
@@ -18279,7 +18369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>101</v>
       </c>
@@ -18311,7 +18401,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
@@ -18343,7 +18433,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
@@ -18372,7 +18462,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
@@ -18404,7 +18494,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>123</v>
       </c>
@@ -18433,7 +18523,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>128</v>
       </c>
@@ -18465,7 +18555,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>134</v>
       </c>
@@ -18497,7 +18587,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>139</v>
       </c>
@@ -18529,7 +18619,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>144</v>
       </c>
@@ -18561,7 +18651,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>149</v>
       </c>
@@ -18593,7 +18683,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>154</v>
       </c>
@@ -18622,7 +18712,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>158</v>
       </c>
@@ -18642,7 +18732,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -18674,7 +18764,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>168</v>
       </c>
@@ -18706,7 +18796,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>173</v>
       </c>
@@ -18738,7 +18828,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>178</v>
       </c>
@@ -18761,7 +18851,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>183</v>
       </c>
@@ -18793,7 +18883,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>189</v>
       </c>
@@ -18816,7 +18906,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>194</v>
       </c>
@@ -18848,7 +18938,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>199</v>
       </c>
@@ -18880,7 +18970,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>204</v>
       </c>
@@ -18912,7 +19002,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>209</v>
       </c>
@@ -18944,7 +19034,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>215</v>
       </c>
@@ -18970,7 +19060,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>221</v>
       </c>
@@ -19005,7 +19095,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>230</v>
       </c>
@@ -19037,7 +19127,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>236</v>
       </c>
@@ -19069,7 +19159,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>241</v>
       </c>
@@ -19101,7 +19191,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>247</v>
       </c>
@@ -19133,7 +19223,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>253</v>
       </c>
@@ -19165,7 +19255,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>259</v>
       </c>
@@ -19194,7 +19284,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>264</v>
       </c>
@@ -19226,7 +19316,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>269</v>
       </c>
@@ -19258,7 +19348,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>275</v>
       </c>
@@ -19290,7 +19380,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>280</v>
       </c>
@@ -19322,7 +19412,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>285</v>
       </c>
@@ -19354,7 +19444,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>292</v>
       </c>
@@ -19383,7 +19473,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>298</v>
       </c>
@@ -19403,7 +19493,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>302</v>
       </c>
@@ -19435,7 +19525,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>307</v>
       </c>
@@ -19464,7 +19554,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>312</v>
       </c>
@@ -19496,7 +19586,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>318</v>
       </c>
@@ -19528,7 +19618,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>324</v>
       </c>
@@ -19554,7 +19644,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>330</v>
       </c>
@@ -19586,7 +19676,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>335</v>
       </c>
@@ -19618,7 +19708,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>340</v>
       </c>
@@ -19650,7 +19740,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>346</v>
       </c>
@@ -19679,7 +19769,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>352</v>
       </c>
@@ -19711,7 +19801,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>616</v>
       </c>
@@ -19741,15 +19831,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19772,7 +19862,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>362</v>
       </c>
@@ -19795,7 +19885,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>366</v>
       </c>
@@ -19818,7 +19908,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>368</v>
       </c>
@@ -19841,7 +19931,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>370</v>
       </c>
@@ -19864,7 +19954,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>373</v>
       </c>
@@ -19887,7 +19977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>375</v>
       </c>
@@ -19910,7 +20000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>376</v>
       </c>
@@ -19933,7 +20023,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>377</v>
       </c>
@@ -19956,7 +20046,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>378</v>
       </c>
@@ -19979,7 +20069,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>379</v>
       </c>
@@ -20002,7 +20092,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>381</v>
       </c>
@@ -20025,7 +20115,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>493</v>
       </c>
@@ -20048,7 +20138,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>533</v>
       </c>
@@ -20071,7 +20161,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>534</v>
       </c>
@@ -20094,7 +20184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>667</v>
       </c>
@@ -20114,6 +20204,29 @@
         <v>0.78830303030303095</v>
       </c>
       <c r="G16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B17" t="s">
+        <v>978</v>
+      </c>
+      <c r="C17" t="s">
+        <v>978</v>
+      </c>
+      <c r="D17" t="s">
+        <v>979</v>
+      </c>
+      <c r="E17" t="s">
+        <v>522</v>
+      </c>
+      <c r="F17">
+        <v>0.99</v>
+      </c>
+      <c r="G17" t="s">
         <v>73</v>
       </c>
     </row>
@@ -20130,9 +20243,9 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20164,7 +20277,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>574</v>
       </c>
@@ -20196,7 +20309,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>624</v>
       </c>
@@ -20228,7 +20341,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>625</v>
       </c>
@@ -20260,7 +20373,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>626</v>
       </c>
@@ -20305,14 +20418,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20332,7 +20445,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>852</v>
       </c>
@@ -20352,7 +20465,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>853</v>
       </c>
